--- a/CoachHub Case Study Forecast Example.xlsx
+++ b/CoachHub Case Study Forecast Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2798d4224eb76c4d/CoachHub Case Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{155FAA3C-1BA8-6F47-8708-5B234240A8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEA60828-E1C3-4345-B6BB-A18B380F1B69}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{155FAA3C-1BA8-6F47-8708-5B234240A8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E25D6F3-9411-A94B-8097-1B4D210182EF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="1" xr2:uid="{AF7D583F-DEB6-4AD6-BD6C-742FF7B868CD}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="158">
   <si>
     <t>North America</t>
   </si>
@@ -1464,7 +1464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA162ADF-BF2B-DD4D-BB4B-51A2824293D5}">
   <dimension ref="A1:T107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1617,9 +1619,8 @@
       <c r="S2" s="3">
         <v>100000</v>
       </c>
-      <c r="T2" s="3">
-        <f>S2*Q2</f>
-        <v>70000</v>
+      <c r="T2" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -1965,11 +1966,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S7" s="3">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" si="6"/>
-        <v>55000.000000000007</v>
+        <v>41250</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -2035,11 +2036,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S8" s="3">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="6"/>
-        <v>60000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -2105,11 +2106,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S9" s="3">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" si="6"/>
-        <v>50000</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -2175,11 +2176,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S10" s="3">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="6"/>
-        <v>54999.999999999993</v>
+        <v>68749.999999999985</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -2245,11 +2246,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S11" s="3">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="6"/>
-        <v>65000</v>
+        <v>81250</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -2315,11 +2316,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S12" s="3">
-        <v>75000</v>
+        <v>125000</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="6"/>
-        <v>41250</v>
+        <v>68750</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -2385,11 +2386,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S13" s="3">
-        <v>75000</v>
+        <v>125000</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="6"/>
-        <v>26250</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -2455,11 +2456,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S14" s="3">
-        <v>75000</v>
+        <v>125000</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="6"/>
-        <v>56250</v>
+        <v>93750</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -2525,11 +2526,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S15" s="3">
-        <v>75000</v>
+        <v>110000</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" si="6"/>
-        <v>33750</v>
+        <v>49499.999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -2595,11 +2596,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S16" s="3">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="6"/>
-        <v>26250</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -2665,11 +2666,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S17" s="3">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="6"/>
-        <v>33750</v>
+        <v>44999.999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -2735,11 +2736,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S18" s="3">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" si="6"/>
-        <v>45000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -2805,11 +2806,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S19" s="3">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="6"/>
-        <v>41250</v>
+        <v>55000.000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -2875,11 +2876,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S20" s="3">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="T20" s="3">
         <f t="shared" si="6"/>
-        <v>48750</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -2945,11 +2946,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S21" s="3">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="T21" s="3">
         <f t="shared" si="6"/>
-        <v>30000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -3015,11 +3016,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S22" s="3">
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="T22" s="3">
         <f t="shared" si="6"/>
-        <v>60000</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -3085,11 +3086,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S23" s="3">
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="T23" s="3">
         <f t="shared" si="6"/>
-        <v>52500.000000000007</v>
+        <v>49000.000000000007</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -3155,11 +3156,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S24" s="3">
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="T24" s="3">
         <f t="shared" si="6"/>
-        <v>45000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -3225,11 +3226,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S25" s="3">
-        <v>125000</v>
+        <v>60000</v>
       </c>
       <c r="T25" s="3">
         <f t="shared" si="6"/>
-        <v>81250</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -3295,11 +3296,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S26" s="3">
-        <v>125000</v>
+        <v>50000</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" si="6"/>
-        <v>81250</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -3365,11 +3366,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S27" s="3">
-        <v>125000</v>
+        <v>50000</v>
       </c>
       <c r="T27" s="3">
         <f t="shared" si="6"/>
-        <v>87500</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
@@ -3435,11 +3436,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S28" s="3">
-        <v>125000</v>
+        <v>40000</v>
       </c>
       <c r="T28" s="3">
         <f t="shared" si="6"/>
-        <v>50000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -3505,11 +3506,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S29" s="3">
-        <v>125000</v>
+        <v>40000</v>
       </c>
       <c r="T29" s="3">
         <f t="shared" si="6"/>
-        <v>75000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -3575,11 +3576,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S30" s="3">
-        <v>125000</v>
+        <v>40000</v>
       </c>
       <c r="T30" s="3">
         <f t="shared" si="6"/>
-        <v>93750.000000000015</v>
+        <v>30000.000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -3645,11 +3646,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S31" s="3">
-        <v>125000</v>
+        <v>30000</v>
       </c>
       <c r="T31" s="3">
         <f t="shared" si="6"/>
-        <v>31250</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -3715,11 +3716,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S32" s="3">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="T32" s="3">
         <f t="shared" si="6"/>
-        <v>50000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -3785,11 +3786,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S33" s="3">
-        <v>125000</v>
+        <v>30000</v>
       </c>
       <c r="T33" s="3">
         <f t="shared" si="6"/>
-        <v>81250</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -3855,11 +3856,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S34" s="3">
-        <v>125000</v>
+        <v>20000</v>
       </c>
       <c r="T34" s="3">
         <f t="shared" ref="T34:T65" si="8">S34*Q34</f>
-        <v>75000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -3925,11 +3926,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S35" s="3">
-        <v>125000</v>
+        <v>10000</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="8"/>
-        <v>68750</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
@@ -3995,11 +3996,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S36" s="3">
-        <v>120000</v>
+        <v>10000</v>
       </c>
       <c r="T36" s="3">
         <f t="shared" si="8"/>
-        <v>60000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -4065,11 +4066,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S37" s="3">
-        <v>110000</v>
+        <v>10000</v>
       </c>
       <c r="T37" s="3">
         <f t="shared" si="8"/>
-        <v>55000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
@@ -4135,11 +4136,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S38" s="3">
-        <v>110000</v>
+        <v>10000</v>
       </c>
       <c r="T38" s="3">
         <f t="shared" si="8"/>
-        <v>82500</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
@@ -4205,11 +4206,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S39" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="T39" s="3">
         <f t="shared" si="8"/>
-        <v>80000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
@@ -4275,11 +4276,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S40" s="3">
-        <v>110000</v>
+        <v>10000</v>
       </c>
       <c r="T40" s="3">
         <f t="shared" si="8"/>
-        <v>71500</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
@@ -4345,11 +4346,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S41" s="3">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="T41" s="3">
         <f t="shared" si="8"/>
-        <v>33000.000000000007</v>
+        <v>30000.000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
@@ -4485,11 +4486,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S43" s="3">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="8"/>
-        <v>30000.000000000004</v>
+        <v>22500.000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
@@ -4555,11 +4556,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S44" s="3">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="T44" s="3">
         <f t="shared" si="8"/>
-        <v>20000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
@@ -4625,11 +4626,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S45" s="3">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" si="8"/>
-        <v>40000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
@@ -4695,11 +4696,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S46" s="3">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="T46" s="3">
         <f t="shared" si="8"/>
-        <v>30000.000000000004</v>
+        <v>22500.000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
@@ -4765,11 +4766,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S47" s="3">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="T47" s="3">
         <f t="shared" si="8"/>
-        <v>54000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
@@ -4835,11 +4836,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S48" s="3">
-        <v>90000</v>
+        <v>125000</v>
       </c>
       <c r="T48" s="3">
         <f t="shared" si="8"/>
-        <v>40499.999999999993</v>
+        <v>56249.999999999993</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
@@ -4905,11 +4906,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S49" s="3">
-        <v>90000</v>
+        <v>125000</v>
       </c>
       <c r="T49" s="3">
         <f t="shared" si="8"/>
-        <v>18000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
@@ -4975,11 +4976,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S50" s="3">
-        <v>90000</v>
+        <v>125000</v>
       </c>
       <c r="T50" s="3">
         <f t="shared" si="8"/>
-        <v>27000.000000000004</v>
+        <v>37500.000000000007</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
@@ -5045,11 +5046,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S51" s="3">
-        <v>80000</v>
+        <v>125000</v>
       </c>
       <c r="T51" s="3">
         <f t="shared" si="8"/>
-        <v>20000</v>
+        <v>31250</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
@@ -5115,11 +5116,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S52" s="3">
-        <v>80000</v>
+        <v>125000</v>
       </c>
       <c r="T52" s="3">
         <f t="shared" si="8"/>
-        <v>28000</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
@@ -5185,11 +5186,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S53" s="3">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="T53" s="3">
         <f t="shared" si="8"/>
-        <v>36000</v>
+        <v>53999.999999999993</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
@@ -5255,11 +5256,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S54" s="3">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="T54" s="3">
         <f t="shared" si="8"/>
-        <v>24000.000000000004</v>
+        <v>27000.000000000004</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
@@ -5465,11 +5466,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S57" s="3">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="T57" s="3">
         <f t="shared" si="8"/>
-        <v>21000.000000000004</v>
+        <v>24000.000000000004</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
@@ -5605,11 +5606,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S59" s="3">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="T59" s="3">
         <f t="shared" si="8"/>
-        <v>24500</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
@@ -5675,11 +5676,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S60" s="3">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="T60" s="3">
         <f t="shared" si="8"/>
-        <v>14000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
@@ -5745,11 +5746,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S61" s="3">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="T61" s="3">
         <f t="shared" si="8"/>
-        <v>28000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
@@ -5815,11 +5816,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S62" s="3">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="T62" s="3">
         <f t="shared" si="8"/>
-        <v>10500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
@@ -5885,11 +5886,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S63" s="3">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="T63" s="3">
         <f t="shared" si="8"/>
-        <v>28000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
@@ -5955,11 +5956,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S64" s="3">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="T64" s="3">
         <f t="shared" si="8"/>
-        <v>18000.000000000004</v>
+        <v>9000.0000000000018</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
@@ -6025,11 +6026,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S65" s="3">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="T65" s="3">
         <f t="shared" si="8"/>
-        <v>15000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
@@ -6095,11 +6096,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S66" s="3">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="T66" s="3">
         <f t="shared" ref="T66:T97" si="10">S66*Q66</f>
-        <v>15000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
@@ -6165,11 +6166,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S67" s="3">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="T67" s="3">
         <f t="shared" si="10"/>
-        <v>33000</v>
+        <v>55000.000000000007</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
@@ -6235,11 +6236,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S68" s="3">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="T68" s="3">
         <f t="shared" si="10"/>
-        <v>37500</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
@@ -6305,11 +6306,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S69" s="3">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="T69" s="3">
         <f t="shared" si="10"/>
-        <v>27500.000000000004</v>
+        <v>55000.000000000007</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
@@ -6375,11 +6376,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S70" s="3">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="T70" s="3">
         <f t="shared" si="10"/>
-        <v>35000</v>
+        <v>52500.000000000007</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
@@ -6445,11 +6446,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S71" s="3">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="T71" s="3">
         <f t="shared" si="10"/>
-        <v>27500.000000000004</v>
+        <v>41250</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
@@ -6515,11 +6516,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S72" s="3">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="T72" s="3">
         <f t="shared" si="10"/>
-        <v>42500</v>
+        <v>63750</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
@@ -6585,11 +6586,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S73" s="3">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="T73" s="3">
         <f t="shared" si="10"/>
-        <v>32500</v>
+        <v>48750</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
@@ -6655,11 +6656,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S74" s="3">
-        <v>40000</v>
+        <v>75000</v>
       </c>
       <c r="T74" s="3">
         <f t="shared" si="10"/>
-        <v>34000</v>
+        <v>63750.000000000007</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
@@ -6725,11 +6726,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S75" s="3">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="T75" s="3">
         <f t="shared" si="10"/>
-        <v>26000.000000000004</v>
+        <v>71500.000000000015</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
@@ -6795,11 +6796,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S76" s="3">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="T76" s="3">
         <f t="shared" si="10"/>
-        <v>22000</v>
+        <v>60500.000000000007</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
@@ -6865,11 +6866,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S77" s="3">
-        <v>40000</v>
+        <v>90000</v>
       </c>
       <c r="T77" s="3">
         <f t="shared" si="10"/>
-        <v>36000.000000000007</v>
+        <v>81000.000000000015</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
@@ -6935,11 +6936,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S78" s="3">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="T78" s="3">
         <f t="shared" si="10"/>
-        <v>24000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
@@ -7005,11 +7006,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S79" s="3">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="T79" s="3">
         <f t="shared" si="10"/>
-        <v>24000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
@@ -7075,11 +7076,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S80" s="3">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="T80" s="3">
         <f t="shared" si="10"/>
-        <v>30000</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
@@ -7145,11 +7146,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S81" s="3">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="T81" s="3">
         <f t="shared" si="10"/>
-        <v>21000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
@@ -7285,11 +7286,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S83" s="3">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="T83" s="3">
         <f t="shared" si="10"/>
-        <v>18000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
@@ -7355,11 +7356,11 @@
         <v xml:space="preserve">Strong </v>
       </c>
       <c r="S84" s="3">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="T84" s="3">
         <f t="shared" si="10"/>
-        <v>24000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
@@ -7425,11 +7426,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S85" s="3">
-        <v>30000</v>
+        <v>125000</v>
       </c>
       <c r="T85" s="3">
         <f t="shared" si="10"/>
-        <v>12000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
@@ -7495,11 +7496,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S86" s="3">
-        <v>30000</v>
+        <v>110000</v>
       </c>
       <c r="T86" s="3">
         <f t="shared" si="10"/>
-        <v>12000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
@@ -7565,11 +7566,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S87" s="3">
-        <v>30000</v>
+        <v>110000</v>
       </c>
       <c r="T87" s="3">
         <f t="shared" si="10"/>
-        <v>12000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
@@ -7635,11 +7636,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S88" s="3">
-        <v>20000</v>
+        <v>90000</v>
       </c>
       <c r="T88" s="3">
         <f t="shared" si="10"/>
-        <v>11000</v>
+        <v>49500.000000000007</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
@@ -7705,11 +7706,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S89" s="3">
-        <v>20000</v>
+        <v>90000</v>
       </c>
       <c r="T89" s="3">
         <f t="shared" si="10"/>
-        <v>9000.0000000000018</v>
+        <v>40500.000000000007</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
@@ -7775,11 +7776,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S90" s="3">
-        <v>20000</v>
+        <v>80000</v>
       </c>
       <c r="T90" s="3">
         <f t="shared" si="10"/>
-        <v>9000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
@@ -7845,11 +7846,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S91" s="3">
-        <v>20000</v>
+        <v>80000</v>
       </c>
       <c r="T91" s="3">
         <f t="shared" si="10"/>
-        <v>9000.0000000000018</v>
+        <v>36000.000000000007</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
@@ -7915,11 +7916,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S92" s="3">
-        <v>20000</v>
+        <v>70000</v>
       </c>
       <c r="T92" s="3">
         <f t="shared" si="10"/>
-        <v>10000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
@@ -7985,11 +7986,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S93" s="3">
-        <v>10000</v>
+        <v>70000</v>
       </c>
       <c r="T93" s="3">
         <f t="shared" si="10"/>
-        <v>4000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
@@ -8055,11 +8056,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S94" s="3">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="T94" s="3">
         <f t="shared" si="10"/>
-        <v>5000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
@@ -8125,11 +8126,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S95" s="3">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="T95" s="3">
         <f t="shared" si="10"/>
-        <v>2500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
@@ -8195,11 +8196,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S96" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="T96" s="3">
         <f t="shared" si="10"/>
-        <v>5500</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
@@ -8265,11 +8266,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S97" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="T97" s="3">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
@@ -8335,11 +8336,11 @@
         <v xml:space="preserve">Weak </v>
       </c>
       <c r="S98" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="T98" s="3">
         <f t="shared" ref="T98:T101" si="17">S98*Q98</f>
-        <v>3000.0000000000005</v>
+        <v>9000.0000000000018</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
@@ -8405,11 +8406,11 @@
         <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S99" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="T99" s="3">
         <f t="shared" si="17"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
@@ -8788,7 +8789,7 @@
   <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K101"/>
+      <selection activeCell="S2" sqref="S2:S101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8916,23 +8917,23 @@
         <v>0.1</v>
       </c>
       <c r="M2" s="2">
-        <f>IF(H2&gt;70%,35%,IF(H2&gt;50%,25%,IF(H2&gt;25%,15%,10%)))</f>
+        <f t="shared" ref="M2:M33" si="0">IF(H2&gt;70%,35%,IF(H2&gt;50%,25%,IF(H2&gt;25%,15%,10%)))</f>
         <v>0.15</v>
       </c>
       <c r="N2" s="2">
-        <f>IF(I2="Commit",35%,IF(I2="Probable",25%,IF(I2="Best Case",15%,10%)))</f>
+        <f t="shared" ref="N2:N33" si="1">IF(I2="Commit",35%,IF(I2="Probable",25%,IF(I2="Best Case",15%,10%)))</f>
         <v>0.25</v>
       </c>
       <c r="O2" s="2">
-        <f>IF(K2&lt;=1,10%,IF(K2=2,5%,0%))</f>
+        <f t="shared" ref="O2:O33" si="2">IF(K2&lt;=1,10%,IF(K2=2,5%,0%))</f>
         <v>0.05</v>
       </c>
       <c r="P2" s="2">
-        <f>IF(F2&gt;90%,10%,IF(F2&gt;75%,5%,0%))</f>
+        <f t="shared" ref="P2:P33" si="3">IF(F2&gt;90%,10%,IF(F2&gt;75%,5%,0%))</f>
         <v>0.05</v>
       </c>
       <c r="Q2" s="2">
-        <f>SUM(L2:P2)</f>
+        <f t="shared" ref="Q2:Q33" si="4">SUM(L2:P2)</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="R2" s="3" t="s">
@@ -8942,7 +8943,7 @@
         <v>100000</v>
       </c>
       <c r="T2" s="3">
-        <f>S2*Q2</f>
+        <f t="shared" ref="T2:T33" si="5">S2*Q2</f>
         <v>60000.000000000007</v>
       </c>
     </row>
@@ -8985,23 +8986,23 @@
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <f>IF(H3&gt;70%,35%,IF(H3&gt;50%,25%,IF(H3&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="N3" s="2">
-        <f>IF(I3="Commit",35%,IF(I3="Probable",25%,IF(I3="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O3" s="2">
-        <f>IF(K3&lt;=1,10%,IF(K3=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <f>IF(F3&gt;90%,10%,IF(F3&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Q3" s="2">
-        <f>SUM(L3:P3)</f>
+        <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R3" s="3" t="s">
@@ -9011,7 +9012,7 @@
         <v>100000</v>
       </c>
       <c r="T3" s="3">
-        <f>S3*Q3</f>
+        <f t="shared" si="5"/>
         <v>55000.000000000007</v>
       </c>
     </row>
@@ -9054,23 +9055,23 @@
         <v>0.1</v>
       </c>
       <c r="M4" s="2">
-        <f>IF(H4&gt;70%,35%,IF(H4&gt;50%,25%,IF(H4&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="N4" s="2">
-        <f>IF(I4="Commit",35%,IF(I4="Probable",25%,IF(I4="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O4" s="2">
-        <f>IF(K4&lt;=1,10%,IF(K4=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <f>IF(F4&gt;90%,10%,IF(F4&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Q4" s="2">
-        <f>SUM(L4:P4)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="R4" s="3" t="s">
@@ -9080,7 +9081,7 @@
         <v>100000</v>
       </c>
       <c r="T4" s="3">
-        <f>S4*Q4</f>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
     </row>
@@ -9123,23 +9124,23 @@
         <v>0.1</v>
       </c>
       <c r="M5" s="2">
-        <f>IF(H5&gt;70%,35%,IF(H5&gt;50%,25%,IF(H5&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="N5" s="2">
-        <f>IF(I5="Commit",35%,IF(I5="Probable",25%,IF(I5="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O5" s="2">
-        <f>IF(K5&lt;=1,10%,IF(K5=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <f>IF(F5&gt;90%,10%,IF(F5&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="Q5" s="2">
-        <f>SUM(L5:P5)</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="R5" s="3" t="s">
@@ -9149,7 +9150,7 @@
         <v>100000</v>
       </c>
       <c r="T5" s="3">
-        <f>S5*Q5</f>
+        <f t="shared" si="5"/>
         <v>70000</v>
       </c>
     </row>
@@ -9192,23 +9193,23 @@
         <v>0</v>
       </c>
       <c r="M6" s="2">
-        <f>IF(H6&gt;70%,35%,IF(H6&gt;50%,25%,IF(H6&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="N6" s="2">
-        <f>IF(I6="Commit",35%,IF(I6="Probable",25%,IF(I6="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O6" s="2">
-        <f>IF(K6&lt;=1,10%,IF(K6=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="P6" s="2">
-        <f>IF(F6&gt;90%,10%,IF(F6&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="Q6" s="2">
-        <f>SUM(L6:P6)</f>
+        <f t="shared" si="4"/>
         <v>0.54999999999999993</v>
       </c>
       <c r="R6" s="3" t="s">
@@ -9218,7 +9219,7 @@
         <v>100000</v>
       </c>
       <c r="T6" s="3">
-        <f>S6*Q6</f>
+        <f t="shared" si="5"/>
         <v>54999.999999999993</v>
       </c>
     </row>
@@ -9261,23 +9262,23 @@
         <v>0</v>
       </c>
       <c r="M7" s="2">
-        <f>IF(H7&gt;70%,35%,IF(H7&gt;50%,25%,IF(H7&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="N7" s="2">
-        <f>IF(I7="Commit",35%,IF(I7="Probable",25%,IF(I7="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O7" s="2">
-        <f>IF(K7&lt;=1,10%,IF(K7=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <f>IF(F7&gt;90%,10%,IF(F7&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Q7" s="2">
-        <f>SUM(L7:P7)</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
       <c r="R7" s="3" t="s">
@@ -9287,7 +9288,7 @@
         <v>75000</v>
       </c>
       <c r="T7" s="3">
-        <f>S7*Q7</f>
+        <f t="shared" si="5"/>
         <v>48750</v>
       </c>
     </row>
@@ -9330,23 +9331,23 @@
         <v>0</v>
       </c>
       <c r="M8" s="2">
-        <f>IF(H8&gt;70%,35%,IF(H8&gt;50%,25%,IF(H8&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="N8" s="2">
-        <f>IF(I8="Commit",35%,IF(I8="Probable",25%,IF(I8="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O8" s="2">
-        <f>IF(K8&lt;=1,10%,IF(K8=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <f>IF(F8&gt;90%,10%,IF(F8&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Q8" s="2">
-        <f>SUM(L8:P8)</f>
+        <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R8" s="3" t="s">
@@ -9356,7 +9357,7 @@
         <v>75000</v>
       </c>
       <c r="T8" s="3">
-        <f>S8*Q8</f>
+        <f t="shared" si="5"/>
         <v>41250</v>
       </c>
     </row>
@@ -9399,23 +9400,23 @@
         <v>0.05</v>
       </c>
       <c r="M9" s="2">
-        <f>IF(H9&gt;70%,35%,IF(H9&gt;50%,25%,IF(H9&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="N9" s="2">
-        <f>IF(I9="Commit",35%,IF(I9="Probable",25%,IF(I9="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O9" s="2">
-        <f>IF(K9&lt;=1,10%,IF(K9=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <f>IF(F9&gt;90%,10%,IF(F9&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <f>SUM(L9:P9)</f>
+        <f t="shared" si="4"/>
         <v>0.64999999999999991</v>
       </c>
       <c r="R9" s="3" t="s">
@@ -9425,7 +9426,7 @@
         <v>75000</v>
       </c>
       <c r="T9" s="3">
-        <f>S9*Q9</f>
+        <f t="shared" si="5"/>
         <v>48749.999999999993</v>
       </c>
     </row>
@@ -9468,23 +9469,23 @@
         <v>0.05</v>
       </c>
       <c r="M10" s="2">
-        <f>IF(H10&gt;70%,35%,IF(H10&gt;50%,25%,IF(H10&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="N10" s="2">
-        <f>IF(I10="Commit",35%,IF(I10="Probable",25%,IF(I10="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O10" s="2">
-        <f>IF(K10&lt;=1,10%,IF(K10=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <f>IF(F10&gt;90%,10%,IF(F10&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Q10" s="2">
-        <f>SUM(L10:P10)</f>
+        <f t="shared" si="4"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="R10" s="3" t="s">
@@ -9494,7 +9495,7 @@
         <v>125000</v>
       </c>
       <c r="T10" s="3">
-        <f>S10*Q10</f>
+        <f t="shared" si="5"/>
         <v>75000.000000000015</v>
       </c>
     </row>
@@ -9537,23 +9538,23 @@
         <v>0.1</v>
       </c>
       <c r="M11" s="2">
-        <f>IF(H11&gt;70%,35%,IF(H11&gt;50%,25%,IF(H11&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="N11" s="2">
-        <f>IF(I11="Commit",35%,IF(I11="Probable",25%,IF(I11="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O11" s="2">
-        <f>IF(K11&lt;=1,10%,IF(K11=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="P11" s="2">
-        <f>IF(F11&gt;90%,10%,IF(F11&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <f>SUM(L11:P11)</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
       <c r="R11" s="3" t="s">
@@ -9563,7 +9564,7 @@
         <v>125000</v>
       </c>
       <c r="T11" s="3">
-        <f>S11*Q11</f>
+        <f t="shared" si="5"/>
         <v>81250</v>
       </c>
     </row>
@@ -9606,23 +9607,23 @@
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <f>IF(H12&gt;70%,35%,IF(H12&gt;50%,25%,IF(H12&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="N12" s="2">
-        <f>IF(I12="Commit",35%,IF(I12="Probable",25%,IF(I12="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O12" s="2">
-        <f>IF(K12&lt;=1,10%,IF(K12=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <f>IF(F12&gt;90%,10%,IF(F12&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Q12" s="2">
-        <f>SUM(L12:P12)</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
       <c r="R12" s="3" t="s">
@@ -9632,7 +9633,7 @@
         <v>125000</v>
       </c>
       <c r="T12" s="3">
-        <f>S12*Q12</f>
+        <f t="shared" si="5"/>
         <v>81250</v>
       </c>
     </row>
@@ -9675,23 +9676,23 @@
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <f>IF(H13&gt;70%,35%,IF(H13&gt;50%,25%,IF(H13&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="N13" s="2">
-        <f>IF(I13="Commit",35%,IF(I13="Probable",25%,IF(I13="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O13" s="2">
-        <f>IF(K13&lt;=1,10%,IF(K13=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <f>IF(F13&gt;90%,10%,IF(F13&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Q13" s="2">
-        <f>SUM(L13:P13)</f>
+        <f t="shared" si="4"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="R13" s="3" t="s">
@@ -9701,7 +9702,7 @@
         <v>125000</v>
       </c>
       <c r="T13" s="3">
-        <f>S13*Q13</f>
+        <f t="shared" si="5"/>
         <v>49999.999999999993</v>
       </c>
     </row>
@@ -9744,23 +9745,23 @@
         <v>0.1</v>
       </c>
       <c r="M14" s="2">
-        <f>IF(H14&gt;70%,35%,IF(H14&gt;50%,25%,IF(H14&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="N14" s="2">
-        <f>IF(I14="Commit",35%,IF(I14="Probable",25%,IF(I14="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O14" s="2">
-        <f>IF(K14&lt;=1,10%,IF(K14=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="P14" s="2">
-        <f>IF(F14&gt;90%,10%,IF(F14&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="Q14" s="2">
-        <f>SUM(L14:P14)</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
       <c r="R14" s="3" t="s">
@@ -9770,7 +9771,7 @@
         <v>125000</v>
       </c>
       <c r="T14" s="3">
-        <f>S14*Q14</f>
+        <f t="shared" si="5"/>
         <v>81250</v>
       </c>
     </row>
@@ -9813,23 +9814,23 @@
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <f>IF(H15&gt;70%,35%,IF(H15&gt;50%,25%,IF(H15&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="N15" s="2">
-        <f>IF(I15="Commit",35%,IF(I15="Probable",25%,IF(I15="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O15" s="2">
-        <f>IF(K15&lt;=1,10%,IF(K15=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <f>IF(F15&gt;90%,10%,IF(F15&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Q15" s="2">
-        <f>SUM(L15:P15)</f>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="R15" s="3" t="s">
@@ -9839,7 +9840,7 @@
         <v>110000</v>
       </c>
       <c r="T15" s="3">
-        <f>S15*Q15</f>
+        <f t="shared" si="5"/>
         <v>49500</v>
       </c>
     </row>
@@ -9882,23 +9883,23 @@
         <v>0</v>
       </c>
       <c r="M16" s="2">
-        <f>IF(H16&gt;70%,35%,IF(H16&gt;50%,25%,IF(H16&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="N16" s="2">
-        <f>IF(I16="Commit",35%,IF(I16="Probable",25%,IF(I16="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O16" s="2">
-        <f>IF(K16&lt;=1,10%,IF(K16=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <f>IF(F16&gt;90%,10%,IF(F16&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <f>SUM(L16:P16)</f>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="R16" s="3" t="s">
@@ -9908,7 +9909,7 @@
         <v>100000</v>
       </c>
       <c r="T16" s="3">
-        <f>S16*Q16</f>
+        <f t="shared" si="5"/>
         <v>40000</v>
       </c>
     </row>
@@ -9951,23 +9952,23 @@
         <v>0.05</v>
       </c>
       <c r="M17" s="2">
-        <f>IF(H17&gt;70%,35%,IF(H17&gt;50%,25%,IF(H17&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="N17" s="2">
-        <f>IF(I17="Commit",35%,IF(I17="Probable",25%,IF(I17="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O17" s="2">
-        <f>IF(K17&lt;=1,10%,IF(K17=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <f>IF(F17&gt;90%,10%,IF(F17&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <f>SUM(L17:P17)</f>
+        <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R17" s="3" t="s">
@@ -9977,7 +9978,7 @@
         <v>100000</v>
       </c>
       <c r="T17" s="3">
-        <f>S17*Q17</f>
+        <f t="shared" si="5"/>
         <v>55000.000000000007</v>
       </c>
     </row>
@@ -10020,23 +10021,23 @@
         <v>0.1</v>
       </c>
       <c r="M18" s="2">
-        <f>IF(H18&gt;70%,35%,IF(H18&gt;50%,25%,IF(H18&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="N18" s="2">
-        <f>IF(I18="Commit",35%,IF(I18="Probable",25%,IF(I18="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O18" s="2">
-        <f>IF(K18&lt;=1,10%,IF(K18=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="P18" s="2">
-        <f>IF(F18&gt;90%,10%,IF(F18&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Q18" s="2">
-        <f>SUM(L18:P18)</f>
+        <f t="shared" si="4"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="R18" s="3" t="s">
@@ -10046,7 +10047,7 @@
         <v>100000</v>
       </c>
       <c r="T18" s="3">
-        <f>S18*Q18</f>
+        <f t="shared" si="5"/>
         <v>60000.000000000007</v>
       </c>
     </row>
@@ -10089,23 +10090,23 @@
         <v>0</v>
       </c>
       <c r="M19" s="2">
-        <f>IF(H19&gt;70%,35%,IF(H19&gt;50%,25%,IF(H19&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="N19" s="2">
-        <f>IF(I19="Commit",35%,IF(I19="Probable",25%,IF(I19="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O19" s="2">
-        <f>IF(K19&lt;=1,10%,IF(K19=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <f>IF(F19&gt;90%,10%,IF(F19&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Q19" s="2">
-        <f>SUM(L19:P19)</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
       <c r="R19" s="3" t="s">
@@ -10115,7 +10116,7 @@
         <v>100000</v>
       </c>
       <c r="T19" s="3">
-        <f>S19*Q19</f>
+        <f t="shared" si="5"/>
         <v>65000</v>
       </c>
     </row>
@@ -10158,23 +10159,23 @@
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <f>IF(H20&gt;70%,35%,IF(H20&gt;50%,25%,IF(H20&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="N20" s="2">
-        <f>IF(I20="Commit",35%,IF(I20="Probable",25%,IF(I20="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O20" s="2">
-        <f>IF(K20&lt;=1,10%,IF(K20=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="P20" s="2">
-        <f>IF(F20&gt;90%,10%,IF(F20&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Q20" s="2">
-        <f>SUM(L20:P20)</f>
+        <f t="shared" si="4"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="R20" s="3" t="s">
@@ -10184,7 +10185,7 @@
         <v>100000</v>
       </c>
       <c r="T20" s="3">
-        <f>S20*Q20</f>
+        <f t="shared" si="5"/>
         <v>60000.000000000007</v>
       </c>
     </row>
@@ -10227,23 +10228,23 @@
         <v>0.05</v>
       </c>
       <c r="M21" s="2">
-        <f>IF(H21&gt;70%,35%,IF(H21&gt;50%,25%,IF(H21&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="N21" s="2">
-        <f>IF(I21="Commit",35%,IF(I21="Probable",25%,IF(I21="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O21" s="2">
-        <f>IF(K21&lt;=1,10%,IF(K21=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <f>IF(F21&gt;90%,10%,IF(F21&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Q21" s="2">
-        <f>SUM(L21:P21)</f>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="R21" s="3" t="s">
@@ -10253,7 +10254,7 @@
         <v>80000</v>
       </c>
       <c r="T21" s="3">
-        <f>S21*Q21</f>
+        <f t="shared" si="5"/>
         <v>36000</v>
       </c>
     </row>
@@ -10296,23 +10297,23 @@
         <v>0</v>
       </c>
       <c r="M22" s="2">
-        <f>IF(H22&gt;70%,35%,IF(H22&gt;50%,25%,IF(H22&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="N22" s="2">
-        <f>IF(I22="Commit",35%,IF(I22="Probable",25%,IF(I22="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O22" s="2">
-        <f>IF(K22&lt;=1,10%,IF(K22=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="P22" s="2">
-        <f>IF(F22&gt;90%,10%,IF(F22&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="Q22" s="2">
-        <f>SUM(L22:P22)</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="R22" s="3" t="s">
@@ -10322,7 +10323,7 @@
         <v>70000</v>
       </c>
       <c r="T22" s="3">
-        <f>S22*Q22</f>
+        <f t="shared" si="5"/>
         <v>49000</v>
       </c>
     </row>
@@ -10365,23 +10366,23 @@
         <v>0.05</v>
       </c>
       <c r="M23" s="2">
-        <f>IF(H23&gt;70%,35%,IF(H23&gt;50%,25%,IF(H23&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="N23" s="2">
-        <f>IF(I23="Commit",35%,IF(I23="Probable",25%,IF(I23="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O23" s="2">
-        <f>IF(K23&lt;=1,10%,IF(K23=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="P23" s="2">
-        <f>IF(F23&gt;90%,10%,IF(F23&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Q23" s="2">
-        <f>SUM(L23:P23)</f>
+        <f t="shared" si="4"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="R23" s="3" t="s">
@@ -10391,7 +10392,7 @@
         <v>70000</v>
       </c>
       <c r="T23" s="3">
-        <f>S23*Q23</f>
+        <f t="shared" si="5"/>
         <v>42000.000000000007</v>
       </c>
     </row>
@@ -10434,23 +10435,23 @@
         <v>0.1</v>
       </c>
       <c r="M24" s="2">
-        <f>IF(H24&gt;70%,35%,IF(H24&gt;50%,25%,IF(H24&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="N24" s="2">
-        <f>IF(I24="Commit",35%,IF(I24="Probable",25%,IF(I24="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O24" s="2">
-        <f>IF(K24&lt;=1,10%,IF(K24=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <f>IF(F24&gt;90%,10%,IF(F24&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <f>SUM(L24:P24)</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="R24" s="3" t="s">
@@ -10460,7 +10461,7 @@
         <v>70000</v>
       </c>
       <c r="T24" s="3">
-        <f>S24*Q24</f>
+        <f t="shared" si="5"/>
         <v>42000</v>
       </c>
     </row>
@@ -10503,23 +10504,23 @@
         <v>0.1</v>
       </c>
       <c r="M25" s="2">
-        <f>IF(H25&gt;70%,35%,IF(H25&gt;50%,25%,IF(H25&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="N25" s="2">
-        <f>IF(I25="Commit",35%,IF(I25="Probable",25%,IF(I25="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O25" s="2">
-        <f>IF(K25&lt;=1,10%,IF(K25=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="P25" s="2">
-        <f>IF(F25&gt;90%,10%,IF(F25&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <f>SUM(L25:P25)</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="R25" s="3" t="s">
@@ -10529,7 +10530,7 @@
         <v>60000</v>
       </c>
       <c r="T25" s="3">
-        <f>S25*Q25</f>
+        <f t="shared" si="5"/>
         <v>45000</v>
       </c>
     </row>
@@ -10572,23 +10573,23 @@
         <v>0.1</v>
       </c>
       <c r="M26" s="2">
-        <f>IF(H26&gt;70%,35%,IF(H26&gt;50%,25%,IF(H26&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="N26" s="2">
-        <f>IF(I26="Commit",35%,IF(I26="Probable",25%,IF(I26="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O26" s="2">
-        <f>IF(K26&lt;=1,10%,IF(K26=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="P26" s="2">
-        <f>IF(F26&gt;90%,10%,IF(F26&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q26" s="2">
-        <f>SUM(L26:P26)</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="R26" s="3" t="s">
@@ -10598,7 +10599,7 @@
         <v>50000</v>
       </c>
       <c r="T26" s="3">
-        <f>S26*Q26</f>
+        <f t="shared" si="5"/>
         <v>37500</v>
       </c>
     </row>
@@ -10641,23 +10642,23 @@
         <v>0.1</v>
       </c>
       <c r="M27" s="2">
-        <f>IF(H27&gt;70%,35%,IF(H27&gt;50%,25%,IF(H27&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="N27" s="2">
-        <f>IF(I27="Commit",35%,IF(I27="Probable",25%,IF(I27="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O27" s="2">
-        <f>IF(K27&lt;=1,10%,IF(K27=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="P27" s="2">
-        <f>IF(F27&gt;90%,10%,IF(F27&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q27" s="2">
-        <f>SUM(L27:P27)</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="R27" s="3" t="s">
@@ -10667,7 +10668,7 @@
         <v>50000</v>
       </c>
       <c r="T27" s="3">
-        <f>S27*Q27</f>
+        <f t="shared" si="5"/>
         <v>35000</v>
       </c>
     </row>
@@ -10710,23 +10711,23 @@
         <v>0.05</v>
       </c>
       <c r="M28" s="2">
-        <f>IF(H28&gt;70%,35%,IF(H28&gt;50%,25%,IF(H28&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="N28" s="2">
-        <f>IF(I28="Commit",35%,IF(I28="Probable",25%,IF(I28="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O28" s="2">
-        <f>IF(K28&lt;=1,10%,IF(K28=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P28" s="2">
-        <f>IF(F28&gt;90%,10%,IF(F28&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <f>SUM(L28:P28)</f>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="R28" s="3" t="s">
@@ -10736,7 +10737,7 @@
         <v>40000</v>
       </c>
       <c r="T28" s="3">
-        <f>S28*Q28</f>
+        <f t="shared" si="5"/>
         <v>18000</v>
       </c>
     </row>
@@ -10779,23 +10780,23 @@
         <v>0.1</v>
       </c>
       <c r="M29" s="2">
-        <f>IF(H29&gt;70%,35%,IF(H29&gt;50%,25%,IF(H29&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="N29" s="2">
-        <f>IF(I29="Commit",35%,IF(I29="Probable",25%,IF(I29="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O29" s="2">
-        <f>IF(K29&lt;=1,10%,IF(K29=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <f>IF(F29&gt;90%,10%,IF(F29&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Q29" s="2">
-        <f>SUM(L29:P29)</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
       <c r="R29" s="3" t="s">
@@ -10805,7 +10806,7 @@
         <v>40000</v>
       </c>
       <c r="T29" s="3">
-        <f>S29*Q29</f>
+        <f t="shared" si="5"/>
         <v>26000</v>
       </c>
     </row>
@@ -10848,23 +10849,23 @@
         <v>0</v>
       </c>
       <c r="M30" s="2">
-        <f>IF(H30&gt;70%,35%,IF(H30&gt;50%,25%,IF(H30&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="N30" s="2">
-        <f>IF(I30="Commit",35%,IF(I30="Probable",25%,IF(I30="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O30" s="2">
-        <f>IF(K30&lt;=1,10%,IF(K30=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="P30" s="2">
-        <f>IF(F30&gt;90%,10%,IF(F30&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Q30" s="2">
-        <f>SUM(L30:P30)</f>
+        <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R30" s="3" t="s">
@@ -10874,7 +10875,7 @@
         <v>40000</v>
       </c>
       <c r="T30" s="3">
-        <f>S30*Q30</f>
+        <f t="shared" si="5"/>
         <v>22000</v>
       </c>
     </row>
@@ -10917,23 +10918,23 @@
         <v>0</v>
       </c>
       <c r="M31" s="2">
-        <f>IF(H31&gt;70%,35%,IF(H31&gt;50%,25%,IF(H31&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="N31" s="2">
-        <f>IF(I31="Commit",35%,IF(I31="Probable",25%,IF(I31="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O31" s="2">
-        <f>IF(K31&lt;=1,10%,IF(K31=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P31" s="2">
-        <f>IF(F31&gt;90%,10%,IF(F31&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q31" s="2">
-        <f>SUM(L31:P31)</f>
+        <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
       <c r="R31" s="3" t="s">
@@ -10943,7 +10944,7 @@
         <v>30000</v>
       </c>
       <c r="T31" s="3">
-        <f>S31*Q31</f>
+        <f t="shared" si="5"/>
         <v>10500</v>
       </c>
     </row>
@@ -10986,23 +10987,23 @@
         <v>0.05</v>
       </c>
       <c r="M32" s="2">
-        <f>IF(H32&gt;70%,35%,IF(H32&gt;50%,25%,IF(H32&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="N32" s="2">
-        <f>IF(I32="Commit",35%,IF(I32="Probable",25%,IF(I32="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O32" s="2">
-        <f>IF(K32&lt;=1,10%,IF(K32=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P32" s="2">
-        <f>IF(F32&gt;90%,10%,IF(F32&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Q32" s="2">
-        <f>SUM(L32:P32)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="R32" s="3" t="s">
@@ -11012,7 +11013,7 @@
         <v>30000</v>
       </c>
       <c r="T32" s="3">
-        <f>S32*Q32</f>
+        <f t="shared" si="5"/>
         <v>15000</v>
       </c>
     </row>
@@ -11055,23 +11056,23 @@
         <v>0.1</v>
       </c>
       <c r="M33" s="2">
-        <f>IF(H33&gt;70%,35%,IF(H33&gt;50%,25%,IF(H33&gt;25%,15%,10%)))</f>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="N33" s="2">
-        <f>IF(I33="Commit",35%,IF(I33="Probable",25%,IF(I33="Best Case",15%,10%)))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="O33" s="2">
-        <f>IF(K33&lt;=1,10%,IF(K33=2,5%,0%))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P33" s="2">
-        <f>IF(F33&gt;90%,10%,IF(F33&gt;75%,5%,0%))</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="Q33" s="2">
-        <f>SUM(L33:P33)</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="R33" s="3" t="s">
@@ -11081,7 +11082,7 @@
         <v>30000</v>
       </c>
       <c r="T33" s="3">
-        <f>S33*Q33</f>
+        <f t="shared" si="5"/>
         <v>22500</v>
       </c>
     </row>
@@ -11124,23 +11125,23 @@
         <v>0.1</v>
       </c>
       <c r="M34" s="2">
-        <f>IF(H34&gt;70%,35%,IF(H34&gt;50%,25%,IF(H34&gt;25%,15%,10%)))</f>
+        <f t="shared" ref="M34:M65" si="6">IF(H34&gt;70%,35%,IF(H34&gt;50%,25%,IF(H34&gt;25%,15%,10%)))</f>
         <v>0.25</v>
       </c>
       <c r="N34" s="2">
-        <f>IF(I34="Commit",35%,IF(I34="Probable",25%,IF(I34="Best Case",15%,10%)))</f>
+        <f t="shared" ref="N34:N65" si="7">IF(I34="Commit",35%,IF(I34="Probable",25%,IF(I34="Best Case",15%,10%)))</f>
         <v>0.25</v>
       </c>
       <c r="O34" s="2">
-        <f>IF(K34&lt;=1,10%,IF(K34=2,5%,0%))</f>
+        <f t="shared" ref="O34:O65" si="8">IF(K34&lt;=1,10%,IF(K34=2,5%,0%))</f>
         <v>0</v>
       </c>
       <c r="P34" s="2">
-        <f>IF(F34&gt;90%,10%,IF(F34&gt;75%,5%,0%))</f>
+        <f t="shared" ref="P34:P65" si="9">IF(F34&gt;90%,10%,IF(F34&gt;75%,5%,0%))</f>
         <v>0.05</v>
       </c>
       <c r="Q34" s="2">
-        <f>SUM(L34:P34)</f>
+        <f t="shared" ref="Q34:Q65" si="10">SUM(L34:P34)</f>
         <v>0.65</v>
       </c>
       <c r="R34" s="3" t="s">
@@ -11150,7 +11151,7 @@
         <v>20000</v>
       </c>
       <c r="T34" s="3">
-        <f>S34*Q34</f>
+        <f t="shared" ref="T34:T65" si="11">S34*Q34</f>
         <v>13000</v>
       </c>
     </row>
@@ -11193,23 +11194,23 @@
         <v>0</v>
       </c>
       <c r="M35" s="2">
-        <f>IF(H35&gt;70%,35%,IF(H35&gt;50%,25%,IF(H35&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="N35" s="2">
-        <f>IF(I35="Commit",35%,IF(I35="Probable",25%,IF(I35="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="O35" s="2">
-        <f>IF(K35&lt;=1,10%,IF(K35=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P35" s="2">
-        <f>IF(F35&gt;90%,10%,IF(F35&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q35" s="2">
-        <f>SUM(L35:P35)</f>
+        <f t="shared" si="10"/>
         <v>0.45</v>
       </c>
       <c r="R35" s="3" t="s">
@@ -11219,7 +11220,7 @@
         <v>10000</v>
       </c>
       <c r="T35" s="3">
-        <f>S35*Q35</f>
+        <f t="shared" si="11"/>
         <v>4500</v>
       </c>
     </row>
@@ -11262,23 +11263,23 @@
         <v>0</v>
       </c>
       <c r="M36" s="2">
-        <f>IF(H36&gt;70%,35%,IF(H36&gt;50%,25%,IF(H36&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="N36" s="2">
-        <f>IF(I36="Commit",35%,IF(I36="Probable",25%,IF(I36="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="O36" s="2">
-        <f>IF(K36&lt;=1,10%,IF(K36=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P36" s="2">
-        <f>IF(F36&gt;90%,10%,IF(F36&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <f>SUM(L36:P36)</f>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="R36" s="3" t="s">
@@ -11288,7 +11289,7 @@
         <v>10000</v>
       </c>
       <c r="T36" s="3">
-        <f>S36*Q36</f>
+        <f t="shared" si="11"/>
         <v>5000</v>
       </c>
     </row>
@@ -11331,23 +11332,23 @@
         <v>0</v>
       </c>
       <c r="M37" s="2">
-        <f>IF(H37&gt;70%,35%,IF(H37&gt;50%,25%,IF(H37&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="N37" s="2">
-        <f>IF(I37="Commit",35%,IF(I37="Probable",25%,IF(I37="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="O37" s="2">
-        <f>IF(K37&lt;=1,10%,IF(K37=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P37" s="2">
-        <f>IF(F37&gt;90%,10%,IF(F37&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q37" s="2">
-        <f>SUM(L37:P37)</f>
+        <f t="shared" si="10"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R37" s="3" t="s">
@@ -11357,7 +11358,7 @@
         <v>10000</v>
       </c>
       <c r="T37" s="3">
-        <f>S37*Q37</f>
+        <f t="shared" si="11"/>
         <v>5500</v>
       </c>
     </row>
@@ -11400,23 +11401,23 @@
         <v>0</v>
       </c>
       <c r="M38" s="2">
-        <f>IF(H38&gt;70%,35%,IF(H38&gt;50%,25%,IF(H38&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
       <c r="N38" s="2">
-        <f>IF(I38="Commit",35%,IF(I38="Probable",25%,IF(I38="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="O38" s="2">
-        <f>IF(K38&lt;=1,10%,IF(K38=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
       <c r="P38" s="2">
-        <f>IF(F38&gt;90%,10%,IF(F38&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q38" s="2">
-        <f>SUM(L38:P38)</f>
+        <f t="shared" si="10"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="R38" s="3" t="s">
@@ -11426,7 +11427,7 @@
         <v>10000</v>
       </c>
       <c r="T38" s="3">
-        <f>S38*Q38</f>
+        <f t="shared" si="11"/>
         <v>7000.0000000000009</v>
       </c>
     </row>
@@ -11469,23 +11470,23 @@
         <v>0</v>
       </c>
       <c r="M39" s="2">
-        <f>IF(H39&gt;70%,35%,IF(H39&gt;50%,25%,IF(H39&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
       <c r="N39" s="2">
-        <f>IF(I39="Commit",35%,IF(I39="Probable",25%,IF(I39="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="O39" s="2">
-        <f>IF(K39&lt;=1,10%,IF(K39=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
       <c r="P39" s="2">
-        <f>IF(F39&gt;90%,10%,IF(F39&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q39" s="2">
-        <f>SUM(L39:P39)</f>
+        <f t="shared" si="10"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="R39" s="3" t="s">
@@ -11495,7 +11496,7 @@
         <v>10000</v>
       </c>
       <c r="T39" s="3">
-        <f>S39*Q39</f>
+        <f t="shared" si="11"/>
         <v>7000.0000000000009</v>
       </c>
     </row>
@@ -11538,23 +11539,23 @@
         <v>0</v>
       </c>
       <c r="M40" s="2">
-        <f>IF(H40&gt;70%,35%,IF(H40&gt;50%,25%,IF(H40&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
       <c r="N40" s="2">
-        <f>IF(I40="Commit",35%,IF(I40="Probable",25%,IF(I40="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="O40" s="2">
-        <f>IF(K40&lt;=1,10%,IF(K40=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P40" s="2">
-        <f>IF(F40&gt;90%,10%,IF(F40&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q40" s="2">
-        <f>SUM(L40:P40)</f>
+        <f t="shared" si="10"/>
         <v>0.65</v>
       </c>
       <c r="R40" s="3" t="s">
@@ -11564,7 +11565,7 @@
         <v>10000</v>
       </c>
       <c r="T40" s="3">
-        <f>S40*Q40</f>
+        <f t="shared" si="11"/>
         <v>6500</v>
       </c>
     </row>
@@ -11607,23 +11608,23 @@
         <v>0</v>
       </c>
       <c r="M41" s="2">
-        <f>IF(H41&gt;70%,35%,IF(H41&gt;50%,25%,IF(H41&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="N41" s="2">
-        <f>IF(I41="Commit",35%,IF(I41="Probable",25%,IF(I41="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O41" s="2">
-        <f>IF(K41&lt;=1,10%,IF(K41=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P41" s="2">
-        <f>IF(F41&gt;90%,10%,IF(F41&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="Q41" s="2">
-        <f>SUM(L41:P41)</f>
+        <f t="shared" si="10"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="R41" s="3" t="s">
@@ -11633,7 +11634,7 @@
         <v>100000</v>
       </c>
       <c r="T41" s="3">
-        <f>S41*Q41</f>
+        <f t="shared" si="11"/>
         <v>30000.000000000004</v>
       </c>
     </row>
@@ -11676,23 +11677,23 @@
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <f>IF(H42&gt;70%,35%,IF(H42&gt;50%,25%,IF(H42&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="N42" s="2">
-        <f>IF(I42="Commit",35%,IF(I42="Probable",25%,IF(I42="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O42" s="2">
-        <f>IF(K42&lt;=1,10%,IF(K42=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P42" s="2">
-        <f>IF(F42&gt;90%,10%,IF(F42&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q42" s="2">
-        <f>SUM(L42:P42)</f>
+        <f t="shared" si="10"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="R42" s="3" t="s">
@@ -11702,7 +11703,7 @@
         <v>100000</v>
       </c>
       <c r="T42" s="3">
-        <f>S42*Q42</f>
+        <f t="shared" si="11"/>
         <v>40000</v>
       </c>
     </row>
@@ -11745,23 +11746,23 @@
         <v>0.1</v>
       </c>
       <c r="M43" s="2">
-        <f>IF(H43&gt;70%,35%,IF(H43&gt;50%,25%,IF(H43&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="N43" s="2">
-        <f>IF(I43="Commit",35%,IF(I43="Probable",25%,IF(I43="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O43" s="2">
-        <f>IF(K43&lt;=1,10%,IF(K43=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P43" s="2">
-        <f>IF(F43&gt;90%,10%,IF(F43&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q43" s="2">
-        <f>SUM(L43:P43)</f>
+        <f t="shared" si="10"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="R43" s="3" t="s">
@@ -11771,7 +11772,7 @@
         <v>75000</v>
       </c>
       <c r="T43" s="3">
-        <f>S43*Q43</f>
+        <f t="shared" si="11"/>
         <v>26250.000000000004</v>
       </c>
     </row>
@@ -11814,23 +11815,23 @@
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <f>IF(H44&gt;70%,35%,IF(H44&gt;50%,25%,IF(H44&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="N44" s="2">
-        <f>IF(I44="Commit",35%,IF(I44="Probable",25%,IF(I44="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O44" s="2">
-        <f>IF(K44&lt;=1,10%,IF(K44=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P44" s="2">
-        <f>IF(F44&gt;90%,10%,IF(F44&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q44" s="2">
-        <f>SUM(L44:P44)</f>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
       <c r="R44" s="3" t="s">
@@ -11840,7 +11841,7 @@
         <v>75000</v>
       </c>
       <c r="T44" s="3">
-        <f>S44*Q44</f>
+        <f t="shared" si="11"/>
         <v>18750</v>
       </c>
     </row>
@@ -11883,23 +11884,23 @@
         <v>0.1</v>
       </c>
       <c r="M45" s="2">
-        <f>IF(H45&gt;70%,35%,IF(H45&gt;50%,25%,IF(H45&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="N45" s="2">
-        <f>IF(I45="Commit",35%,IF(I45="Probable",25%,IF(I45="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O45" s="2">
-        <f>IF(K45&lt;=1,10%,IF(K45=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P45" s="2">
-        <f>IF(F45&gt;90%,10%,IF(F45&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q45" s="2">
-        <f>SUM(L45:P45)</f>
+        <f t="shared" si="10"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="R45" s="3" t="s">
@@ -11909,7 +11910,7 @@
         <v>75000</v>
       </c>
       <c r="T45" s="3">
-        <f>S45*Q45</f>
+        <f t="shared" si="11"/>
         <v>29999.999999999996</v>
       </c>
     </row>
@@ -11952,23 +11953,23 @@
         <v>0.1</v>
       </c>
       <c r="M46" s="2">
-        <f>IF(H46&gt;70%,35%,IF(H46&gt;50%,25%,IF(H46&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="N46" s="2">
-        <f>IF(I46="Commit",35%,IF(I46="Probable",25%,IF(I46="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O46" s="2">
-        <f>IF(K46&lt;=1,10%,IF(K46=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <f>IF(F46&gt;90%,10%,IF(F46&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q46" s="2">
-        <f>SUM(L46:P46)</f>
+        <f t="shared" si="10"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="R46" s="3" t="s">
@@ -11978,7 +11979,7 @@
         <v>75000</v>
       </c>
       <c r="T46" s="3">
-        <f>S46*Q46</f>
+        <f t="shared" si="11"/>
         <v>26250.000000000004</v>
       </c>
     </row>
@@ -12021,23 +12022,23 @@
         <v>0.1</v>
       </c>
       <c r="M47" s="2">
-        <f>IF(H47&gt;70%,35%,IF(H47&gt;50%,25%,IF(H47&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="N47" s="2">
-        <f>IF(I47="Commit",35%,IF(I47="Probable",25%,IF(I47="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O47" s="2">
-        <f>IF(K47&lt;=1,10%,IF(K47=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
       <c r="P47" s="2">
-        <f>IF(F47&gt;90%,10%,IF(F47&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q47" s="2">
-        <f>SUM(L47:P47)</f>
+        <f t="shared" si="10"/>
         <v>0.54999999999999993</v>
       </c>
       <c r="R47" s="3" t="s">
@@ -12047,7 +12048,7 @@
         <v>75000</v>
       </c>
       <c r="T47" s="3">
-        <f>S47*Q47</f>
+        <f t="shared" si="11"/>
         <v>41249.999999999993</v>
       </c>
     </row>
@@ -12090,23 +12091,23 @@
         <v>0</v>
       </c>
       <c r="M48" s="2">
-        <f>IF(H48&gt;70%,35%,IF(H48&gt;50%,25%,IF(H48&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="N48" s="2">
-        <f>IF(I48="Commit",35%,IF(I48="Probable",25%,IF(I48="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O48" s="2">
-        <f>IF(K48&lt;=1,10%,IF(K48=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
       <c r="P48" s="2">
-        <f>IF(F48&gt;90%,10%,IF(F48&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q48" s="2">
-        <f>SUM(L48:P48)</f>
+        <f t="shared" si="10"/>
         <v>0.35</v>
       </c>
       <c r="R48" s="3" t="s">
@@ -12116,7 +12117,7 @@
         <v>125000</v>
       </c>
       <c r="T48" s="3">
-        <f>S48*Q48</f>
+        <f t="shared" si="11"/>
         <v>43750</v>
       </c>
     </row>
@@ -12159,23 +12160,23 @@
         <v>0</v>
       </c>
       <c r="M49" s="2">
-        <f>IF(H49&gt;70%,35%,IF(H49&gt;50%,25%,IF(H49&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="N49" s="2">
-        <f>IF(I49="Commit",35%,IF(I49="Probable",25%,IF(I49="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O49" s="2">
-        <f>IF(K49&lt;=1,10%,IF(K49=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P49" s="2">
-        <f>IF(F49&gt;90%,10%,IF(F49&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q49" s="2">
-        <f>SUM(L49:P49)</f>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
       <c r="R49" s="3" t="s">
@@ -12185,7 +12186,7 @@
         <v>125000</v>
       </c>
       <c r="T49" s="3">
-        <f>S49*Q49</f>
+        <f t="shared" si="11"/>
         <v>31250</v>
       </c>
     </row>
@@ -12228,23 +12229,23 @@
         <v>0.1</v>
       </c>
       <c r="M50" s="2">
-        <f>IF(H50&gt;70%,35%,IF(H50&gt;50%,25%,IF(H50&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="N50" s="2">
-        <f>IF(I50="Commit",35%,IF(I50="Probable",25%,IF(I50="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O50" s="2">
-        <f>IF(K50&lt;=1,10%,IF(K50=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P50" s="2">
-        <f>IF(F50&gt;90%,10%,IF(F50&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q50" s="2">
-        <f>SUM(L50:P50)</f>
+        <f t="shared" si="10"/>
         <v>0.35</v>
       </c>
       <c r="R50" s="3" t="s">
@@ -12254,7 +12255,7 @@
         <v>125000</v>
       </c>
       <c r="T50" s="3">
-        <f>S50*Q50</f>
+        <f t="shared" si="11"/>
         <v>43750</v>
       </c>
     </row>
@@ -12297,23 +12298,23 @@
         <v>0.1</v>
       </c>
       <c r="M51" s="2">
-        <f>IF(H51&gt;70%,35%,IF(H51&gt;50%,25%,IF(H51&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="N51" s="2">
-        <f>IF(I51="Commit",35%,IF(I51="Probable",25%,IF(I51="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O51" s="2">
-        <f>IF(K51&lt;=1,10%,IF(K51=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P51" s="2">
-        <f>IF(F51&gt;90%,10%,IF(F51&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q51" s="2">
-        <f>SUM(L51:P51)</f>
+        <f t="shared" si="10"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="R51" s="3" t="s">
@@ -12323,7 +12324,7 @@
         <v>125000</v>
       </c>
       <c r="T51" s="3">
-        <f>S51*Q51</f>
+        <f t="shared" si="11"/>
         <v>43750.000000000007</v>
       </c>
     </row>
@@ -12366,23 +12367,23 @@
         <v>0</v>
       </c>
       <c r="M52" s="2">
-        <f>IF(H52&gt;70%,35%,IF(H52&gt;50%,25%,IF(H52&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="N52" s="2">
-        <f>IF(I52="Commit",35%,IF(I52="Probable",25%,IF(I52="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O52" s="2">
-        <f>IF(K52&lt;=1,10%,IF(K52=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P52" s="2">
-        <f>IF(F52&gt;90%,10%,IF(F52&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q52" s="2">
-        <f>SUM(L52:P52)</f>
+        <f t="shared" si="10"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="R52" s="3" t="s">
@@ -12392,7 +12393,7 @@
         <v>125000</v>
       </c>
       <c r="T52" s="3">
-        <f>S52*Q52</f>
+        <f t="shared" si="11"/>
         <v>49999.999999999993</v>
       </c>
     </row>
@@ -12435,23 +12436,23 @@
         <v>0.1</v>
       </c>
       <c r="M53" s="2">
-        <f>IF(H53&gt;70%,35%,IF(H53&gt;50%,25%,IF(H53&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="N53" s="2">
-        <f>IF(I53="Commit",35%,IF(I53="Probable",25%,IF(I53="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O53" s="2">
-        <f>IF(K53&lt;=1,10%,IF(K53=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
       <c r="P53" s="2">
-        <f>IF(F53&gt;90%,10%,IF(F53&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q53" s="2">
-        <f>SUM(L53:P53)</f>
+        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
       <c r="R53" s="3" t="s">
@@ -12461,7 +12462,7 @@
         <v>120000</v>
       </c>
       <c r="T53" s="3">
-        <f>S53*Q53</f>
+        <f t="shared" si="11"/>
         <v>48000</v>
       </c>
     </row>
@@ -12504,23 +12505,23 @@
         <v>0</v>
       </c>
       <c r="M54" s="2">
-        <f>IF(H54&gt;70%,35%,IF(H54&gt;50%,25%,IF(H54&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="N54" s="2">
-        <f>IF(I54="Commit",35%,IF(I54="Probable",25%,IF(I54="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O54" s="2">
-        <f>IF(K54&lt;=1,10%,IF(K54=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P54" s="2">
-        <f>IF(F54&gt;90%,10%,IF(F54&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="Q54" s="2">
-        <f>SUM(L54:P54)</f>
+        <f t="shared" si="10"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="R54" s="3" t="s">
@@ -12530,7 +12531,7 @@
         <v>90000</v>
       </c>
       <c r="T54" s="3">
-        <f>S54*Q54</f>
+        <f t="shared" si="11"/>
         <v>27000.000000000004</v>
       </c>
     </row>
@@ -12573,23 +12574,23 @@
         <v>0</v>
       </c>
       <c r="M55" s="2">
-        <f>IF(H55&gt;70%,35%,IF(H55&gt;50%,25%,IF(H55&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="N55" s="2">
-        <f>IF(I55="Commit",35%,IF(I55="Probable",25%,IF(I55="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O55" s="2">
-        <f>IF(K55&lt;=1,10%,IF(K55=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
       <c r="P55" s="2">
-        <f>IF(F55&gt;90%,10%,IF(F55&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q55" s="2">
-        <f>SUM(L55:P55)</f>
+        <f t="shared" si="10"/>
         <v>0.35</v>
       </c>
       <c r="R55" s="3" t="s">
@@ -12599,7 +12600,7 @@
         <v>80000</v>
       </c>
       <c r="T55" s="3">
-        <f>S55*Q55</f>
+        <f t="shared" si="11"/>
         <v>28000</v>
       </c>
     </row>
@@ -12642,23 +12643,23 @@
         <v>0.05</v>
       </c>
       <c r="M56" s="2">
-        <f>IF(H56&gt;70%,35%,IF(H56&gt;50%,25%,IF(H56&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="N56" s="2">
-        <f>IF(I56="Commit",35%,IF(I56="Probable",25%,IF(I56="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O56" s="2">
-        <f>IF(K56&lt;=1,10%,IF(K56=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P56" s="2">
-        <f>IF(F56&gt;90%,10%,IF(F56&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q56" s="2">
-        <f>SUM(L56:P56)</f>
+        <f t="shared" si="10"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="R56" s="3" t="s">
@@ -12668,7 +12669,7 @@
         <v>80000</v>
       </c>
       <c r="T56" s="3">
-        <f>S56*Q56</f>
+        <f t="shared" si="11"/>
         <v>28000.000000000004</v>
       </c>
     </row>
@@ -12711,23 +12712,23 @@
         <v>0.1</v>
       </c>
       <c r="M57" s="2">
-        <f>IF(H57&gt;70%,35%,IF(H57&gt;50%,25%,IF(H57&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="N57" s="2">
-        <f>IF(I57="Commit",35%,IF(I57="Probable",25%,IF(I57="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O57" s="2">
-        <f>IF(K57&lt;=1,10%,IF(K57=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P57" s="2">
-        <f>IF(F57&gt;90%,10%,IF(F57&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q57" s="2">
-        <f>SUM(L57:P57)</f>
+        <f t="shared" si="10"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="R57" s="3" t="s">
@@ -12737,7 +12738,7 @@
         <v>80000</v>
       </c>
       <c r="T57" s="3">
-        <f>S57*Q57</f>
+        <f t="shared" si="11"/>
         <v>28000.000000000004</v>
       </c>
     </row>
@@ -12780,23 +12781,23 @@
         <v>0.1</v>
       </c>
       <c r="M58" s="2">
-        <f>IF(H58&gt;70%,35%,IF(H58&gt;50%,25%,IF(H58&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="N58" s="2">
-        <f>IF(I58="Commit",35%,IF(I58="Probable",25%,IF(I58="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O58" s="2">
-        <f>IF(K58&lt;=1,10%,IF(K58=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P58" s="2">
-        <f>IF(F58&gt;90%,10%,IF(F58&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q58" s="2">
-        <f>SUM(L58:P58)</f>
+        <f t="shared" si="10"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="R58" s="3" t="s">
@@ -12806,7 +12807,7 @@
         <v>70000</v>
       </c>
       <c r="T58" s="3">
-        <f>S58*Q58</f>
+        <f t="shared" si="11"/>
         <v>24500.000000000004</v>
       </c>
     </row>
@@ -12849,23 +12850,23 @@
         <v>0.1</v>
       </c>
       <c r="M59" s="2">
-        <f>IF(H59&gt;70%,35%,IF(H59&gt;50%,25%,IF(H59&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="N59" s="2">
-        <f>IF(I59="Commit",35%,IF(I59="Probable",25%,IF(I59="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O59" s="2">
-        <f>IF(K59&lt;=1,10%,IF(K59=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
       <c r="P59" s="2">
-        <f>IF(F59&gt;90%,10%,IF(F59&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q59" s="2">
-        <f>SUM(L59:P59)</f>
+        <f t="shared" si="10"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="R59" s="3" t="s">
@@ -12875,7 +12876,7 @@
         <v>60000</v>
       </c>
       <c r="T59" s="3">
-        <f>S59*Q59</f>
+        <f t="shared" si="11"/>
         <v>21000.000000000004</v>
       </c>
     </row>
@@ -12918,23 +12919,23 @@
         <v>0.1</v>
       </c>
       <c r="M60" s="2">
-        <f>IF(H60&gt;70%,35%,IF(H60&gt;50%,25%,IF(H60&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="N60" s="2">
-        <f>IF(I60="Commit",35%,IF(I60="Probable",25%,IF(I60="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O60" s="2">
-        <f>IF(K60&lt;=1,10%,IF(K60=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P60" s="2">
-        <f>IF(F60&gt;90%,10%,IF(F60&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q60" s="2">
-        <f>SUM(L60:P60)</f>
+        <f t="shared" si="10"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="R60" s="3" t="s">
@@ -12944,7 +12945,7 @@
         <v>50000</v>
       </c>
       <c r="T60" s="3">
-        <f>S60*Q60</f>
+        <f t="shared" si="11"/>
         <v>15000.000000000002</v>
       </c>
     </row>
@@ -12987,23 +12988,23 @@
         <v>0</v>
       </c>
       <c r="M61" s="2">
-        <f>IF(H61&gt;70%,35%,IF(H61&gt;50%,25%,IF(H61&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="N61" s="2">
-        <f>IF(I61="Commit",35%,IF(I61="Probable",25%,IF(I61="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O61" s="2">
-        <f>IF(K61&lt;=1,10%,IF(K61=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="P61" s="2">
-        <f>IF(F61&gt;90%,10%,IF(F61&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q61" s="2">
-        <f>SUM(L61:P61)</f>
+        <f t="shared" si="10"/>
         <v>0.35</v>
       </c>
       <c r="R61" s="3" t="s">
@@ -13013,7 +13014,7 @@
         <v>50000</v>
       </c>
       <c r="T61" s="3">
-        <f>S61*Q61</f>
+        <f t="shared" si="11"/>
         <v>17500</v>
       </c>
     </row>
@@ -13056,23 +13057,23 @@
         <v>0.05</v>
       </c>
       <c r="M62" s="2">
-        <f>IF(H62&gt;70%,35%,IF(H62&gt;50%,25%,IF(H62&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="N62" s="2">
-        <f>IF(I62="Commit",35%,IF(I62="Probable",25%,IF(I62="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O62" s="2">
-        <f>IF(K62&lt;=1,10%,IF(K62=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P62" s="2">
-        <f>IF(F62&gt;90%,10%,IF(F62&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q62" s="2">
-        <f>SUM(L62:P62)</f>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
       <c r="R62" s="3" t="s">
@@ -13082,7 +13083,7 @@
         <v>40000</v>
       </c>
       <c r="T62" s="3">
-        <f>S62*Q62</f>
+        <f t="shared" si="11"/>
         <v>10000</v>
       </c>
     </row>
@@ -13125,23 +13126,23 @@
         <v>0.1</v>
       </c>
       <c r="M63" s="2">
-        <f>IF(H63&gt;70%,35%,IF(H63&gt;50%,25%,IF(H63&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="N63" s="2">
-        <f>IF(I63="Commit",35%,IF(I63="Probable",25%,IF(I63="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O63" s="2">
-        <f>IF(K63&lt;=1,10%,IF(K63=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P63" s="2">
-        <f>IF(F63&gt;90%,10%,IF(F63&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q63" s="2">
-        <f>SUM(L63:P63)</f>
+        <f t="shared" si="10"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="R63" s="3" t="s">
@@ -13151,7 +13152,7 @@
         <v>30000</v>
       </c>
       <c r="T63" s="3">
-        <f>S63*Q63</f>
+        <f t="shared" si="11"/>
         <v>11999.999999999998</v>
       </c>
     </row>
@@ -13194,23 +13195,23 @@
         <v>0</v>
       </c>
       <c r="M64" s="2">
-        <f>IF(H64&gt;70%,35%,IF(H64&gt;50%,25%,IF(H64&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="N64" s="2">
-        <f>IF(I64="Commit",35%,IF(I64="Probable",25%,IF(I64="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O64" s="2">
-        <f>IF(K64&lt;=1,10%,IF(K64=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P64" s="2">
-        <f>IF(F64&gt;90%,10%,IF(F64&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q64" s="2">
-        <f>SUM(L64:P64)</f>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
       <c r="R64" s="3" t="s">
@@ -13220,7 +13221,7 @@
         <v>30000</v>
       </c>
       <c r="T64" s="3">
-        <f>S64*Q64</f>
+        <f t="shared" si="11"/>
         <v>7500</v>
       </c>
     </row>
@@ -13263,23 +13264,23 @@
         <v>0.05</v>
       </c>
       <c r="M65" s="2">
-        <f>IF(H65&gt;70%,35%,IF(H65&gt;50%,25%,IF(H65&gt;25%,15%,10%)))</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="N65" s="2">
-        <f>IF(I65="Commit",35%,IF(I65="Probable",25%,IF(I65="Best Case",15%,10%)))</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="O65" s="2">
-        <f>IF(K65&lt;=1,10%,IF(K65=2,5%,0%))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P65" s="2">
-        <f>IF(F65&gt;90%,10%,IF(F65&gt;75%,5%,0%))</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="Q65" s="2">
-        <f>SUM(L65:P65)</f>
+        <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
       <c r="R65" s="3" t="s">
@@ -13289,7 +13290,7 @@
         <v>20000</v>
       </c>
       <c r="T65" s="3">
-        <f>S65*Q65</f>
+        <f t="shared" si="11"/>
         <v>6000</v>
       </c>
     </row>
@@ -13332,23 +13333,23 @@
         <v>0.05</v>
       </c>
       <c r="M66" s="2">
-        <f>IF(H66&gt;70%,35%,IF(H66&gt;50%,25%,IF(H66&gt;25%,15%,10%)))</f>
+        <f t="shared" ref="M66:M101" si="12">IF(H66&gt;70%,35%,IF(H66&gt;50%,25%,IF(H66&gt;25%,15%,10%)))</f>
         <v>0.1</v>
       </c>
       <c r="N66" s="2">
-        <f>IF(I66="Commit",35%,IF(I66="Probable",25%,IF(I66="Best Case",15%,10%)))</f>
+        <f t="shared" ref="N66:N101" si="13">IF(I66="Commit",35%,IF(I66="Probable",25%,IF(I66="Best Case",15%,10%)))</f>
         <v>0.1</v>
       </c>
       <c r="O66" s="2">
-        <f>IF(K66&lt;=1,10%,IF(K66=2,5%,0%))</f>
+        <f t="shared" ref="O66:O101" si="14">IF(K66&lt;=1,10%,IF(K66=2,5%,0%))</f>
         <v>0</v>
       </c>
       <c r="P66" s="2">
-        <f>IF(F66&gt;90%,10%,IF(F66&gt;75%,5%,0%))</f>
+        <f t="shared" ref="P66:P101" si="15">IF(F66&gt;90%,10%,IF(F66&gt;75%,5%,0%))</f>
         <v>0.05</v>
       </c>
       <c r="Q66" s="2">
-        <f>SUM(L66:P66)</f>
+        <f t="shared" ref="Q66:Q97" si="16">SUM(L66:P66)</f>
         <v>0.3</v>
       </c>
       <c r="R66" s="3" t="s">
@@ -13358,7 +13359,7 @@
         <v>20000</v>
       </c>
       <c r="T66" s="3">
-        <f>S66*Q66</f>
+        <f t="shared" ref="T66:T97" si="17">S66*Q66</f>
         <v>6000</v>
       </c>
     </row>
@@ -13401,23 +13402,23 @@
         <v>0.05</v>
       </c>
       <c r="M67" s="2">
-        <f>IF(H67&gt;70%,35%,IF(H67&gt;50%,25%,IF(H67&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="N67" s="2">
-        <f>IF(I67="Commit",35%,IF(I67="Probable",25%,IF(I67="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O67" s="2">
-        <f>IF(K67&lt;=1,10%,IF(K67=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P67" s="2">
-        <f>IF(F67&gt;90%,10%,IF(F67&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="Q67" s="2">
-        <f>SUM(L67:P67)</f>
+        <f t="shared" si="16"/>
         <v>0.6</v>
       </c>
       <c r="R67" s="3" t="s">
@@ -13427,7 +13428,7 @@
         <v>100000</v>
       </c>
       <c r="T67" s="3">
-        <f>S67*Q67</f>
+        <f t="shared" si="17"/>
         <v>60000</v>
       </c>
     </row>
@@ -13470,23 +13471,23 @@
         <v>0.1</v>
       </c>
       <c r="M68" s="2">
-        <f>IF(H68&gt;70%,35%,IF(H68&gt;50%,25%,IF(H68&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="N68" s="2">
-        <f>IF(I68="Commit",35%,IF(I68="Probable",25%,IF(I68="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O68" s="2">
-        <f>IF(K68&lt;=1,10%,IF(K68=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P68" s="2">
-        <f>IF(F68&gt;90%,10%,IF(F68&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="Q68" s="2">
-        <f>SUM(L68:P68)</f>
+        <f t="shared" si="16"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="R68" s="3" t="s">
@@ -13496,7 +13497,7 @@
         <v>100000</v>
       </c>
       <c r="T68" s="3">
-        <f>S68*Q68</f>
+        <f t="shared" si="17"/>
         <v>80000</v>
       </c>
     </row>
@@ -13539,23 +13540,23 @@
         <v>0</v>
       </c>
       <c r="M69" s="2">
-        <f>IF(H69&gt;70%,35%,IF(H69&gt;50%,25%,IF(H69&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="N69" s="2">
-        <f>IF(I69="Commit",35%,IF(I69="Probable",25%,IF(I69="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O69" s="2">
-        <f>IF(K69&lt;=1,10%,IF(K69=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P69" s="2">
-        <f>IF(F69&gt;90%,10%,IF(F69&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q69" s="2">
-        <f>SUM(L69:P69)</f>
+        <f t="shared" si="16"/>
         <v>0.65</v>
       </c>
       <c r="R69" s="3" t="s">
@@ -13565,7 +13566,7 @@
         <v>100000</v>
       </c>
       <c r="T69" s="3">
-        <f>S69*Q69</f>
+        <f t="shared" si="17"/>
         <v>65000</v>
       </c>
     </row>
@@ -13608,23 +13609,23 @@
         <v>0.1</v>
       </c>
       <c r="M70" s="2">
-        <f>IF(H70&gt;70%,35%,IF(H70&gt;50%,25%,IF(H70&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.35</v>
       </c>
       <c r="N70" s="2">
-        <f>IF(I70="Commit",35%,IF(I70="Probable",25%,IF(I70="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O70" s="2">
-        <f>IF(K70&lt;=1,10%,IF(K70=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P70" s="2">
-        <f>IF(F70&gt;90%,10%,IF(F70&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q70" s="2">
-        <f>SUM(L70:P70)</f>
+        <f t="shared" si="16"/>
         <v>0.85</v>
       </c>
       <c r="R70" s="3" t="s">
@@ -13634,7 +13635,7 @@
         <v>75000</v>
       </c>
       <c r="T70" s="3">
-        <f>S70*Q70</f>
+        <f t="shared" si="17"/>
         <v>63750</v>
       </c>
     </row>
@@ -13677,23 +13678,23 @@
         <v>0.05</v>
       </c>
       <c r="M71" s="2">
-        <f>IF(H71&gt;70%,35%,IF(H71&gt;50%,25%,IF(H71&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.15</v>
       </c>
       <c r="N71" s="2">
-        <f>IF(I71="Commit",35%,IF(I71="Probable",25%,IF(I71="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O71" s="2">
-        <f>IF(K71&lt;=1,10%,IF(K71=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P71" s="2">
-        <f>IF(F71&gt;90%,10%,IF(F71&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q71" s="2">
-        <f>SUM(L71:P71)</f>
+        <f t="shared" si="16"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="R71" s="3" t="s">
@@ -13703,7 +13704,7 @@
         <v>75000</v>
       </c>
       <c r="T71" s="3">
-        <f>S71*Q71</f>
+        <f t="shared" si="17"/>
         <v>45000.000000000007</v>
       </c>
     </row>
@@ -13746,23 +13747,23 @@
         <v>0.05</v>
       </c>
       <c r="M72" s="2">
-        <f>IF(H72&gt;70%,35%,IF(H72&gt;50%,25%,IF(H72&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.35</v>
       </c>
       <c r="N72" s="2">
-        <f>IF(I72="Commit",35%,IF(I72="Probable",25%,IF(I72="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O72" s="2">
-        <f>IF(K72&lt;=1,10%,IF(K72=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="P72" s="2">
-        <f>IF(F72&gt;90%,10%,IF(F72&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q72" s="2">
-        <f>SUM(L72:P72)</f>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
       <c r="R72" s="3" t="s">
@@ -13772,7 +13773,7 @@
         <v>75000</v>
       </c>
       <c r="T72" s="3">
-        <f>S72*Q72</f>
+        <f t="shared" si="17"/>
         <v>67500</v>
       </c>
     </row>
@@ -13815,23 +13816,23 @@
         <v>0.1</v>
       </c>
       <c r="M73" s="2">
-        <f>IF(H73&gt;70%,35%,IF(H73&gt;50%,25%,IF(H73&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="N73" s="2">
-        <f>IF(I73="Commit",35%,IF(I73="Probable",25%,IF(I73="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O73" s="2">
-        <f>IF(K73&lt;=1,10%,IF(K73=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P73" s="2">
-        <f>IF(F73&gt;90%,10%,IF(F73&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q73" s="2">
-        <f>SUM(L73:P73)</f>
+        <f t="shared" si="16"/>
         <v>0.7</v>
       </c>
       <c r="R73" s="3" t="s">
@@ -13841,7 +13842,7 @@
         <v>75000</v>
       </c>
       <c r="T73" s="3">
-        <f>S73*Q73</f>
+        <f t="shared" si="17"/>
         <v>52500</v>
       </c>
     </row>
@@ -13884,23 +13885,23 @@
         <v>0</v>
       </c>
       <c r="M74" s="2">
-        <f>IF(H74&gt;70%,35%,IF(H74&gt;50%,25%,IF(H74&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="N74" s="2">
-        <f>IF(I74="Commit",35%,IF(I74="Probable",25%,IF(I74="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O74" s="2">
-        <f>IF(K74&lt;=1,10%,IF(K74=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="P74" s="2">
-        <f>IF(F74&gt;90%,10%,IF(F74&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="Q74" s="2">
-        <f>SUM(L74:P74)</f>
+        <f t="shared" si="16"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="R74" s="3" t="s">
@@ -13910,7 +13911,7 @@
         <v>75000</v>
       </c>
       <c r="T74" s="3">
-        <f>S74*Q74</f>
+        <f t="shared" si="17"/>
         <v>59999.999999999993</v>
       </c>
     </row>
@@ -13953,23 +13954,23 @@
         <v>0</v>
       </c>
       <c r="M75" s="2">
-        <f>IF(H75&gt;70%,35%,IF(H75&gt;50%,25%,IF(H75&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="N75" s="2">
-        <f>IF(I75="Commit",35%,IF(I75="Probable",25%,IF(I75="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O75" s="2">
-        <f>IF(K75&lt;=1,10%,IF(K75=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0.05</v>
       </c>
       <c r="P75" s="2">
-        <f>IF(F75&gt;90%,10%,IF(F75&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="Q75" s="2">
-        <f>SUM(L75:P75)</f>
+        <f t="shared" si="16"/>
         <v>0.6</v>
       </c>
       <c r="R75" s="3" t="s">
@@ -13979,7 +13980,7 @@
         <v>110000</v>
       </c>
       <c r="T75" s="3">
-        <f>S75*Q75</f>
+        <f t="shared" si="17"/>
         <v>66000</v>
       </c>
     </row>
@@ -14022,23 +14023,23 @@
         <v>0</v>
       </c>
       <c r="M76" s="2">
-        <f>IF(H76&gt;70%,35%,IF(H76&gt;50%,25%,IF(H76&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="N76" s="2">
-        <f>IF(I76="Commit",35%,IF(I76="Probable",25%,IF(I76="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O76" s="2">
-        <f>IF(K76&lt;=1,10%,IF(K76=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P76" s="2">
-        <f>IF(F76&gt;90%,10%,IF(F76&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q76" s="2">
-        <f>SUM(L76:P76)</f>
+        <f t="shared" si="16"/>
         <v>0.65</v>
       </c>
       <c r="R76" s="3" t="s">
@@ -14048,7 +14049,7 @@
         <v>110000</v>
       </c>
       <c r="T76" s="3">
-        <f>S76*Q76</f>
+        <f t="shared" si="17"/>
         <v>71500</v>
       </c>
     </row>
@@ -14091,23 +14092,23 @@
         <v>0.1</v>
       </c>
       <c r="M77" s="2">
-        <f>IF(H77&gt;70%,35%,IF(H77&gt;50%,25%,IF(H77&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="N77" s="2">
-        <f>IF(I77="Commit",35%,IF(I77="Probable",25%,IF(I77="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O77" s="2">
-        <f>IF(K77&lt;=1,10%,IF(K77=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0.05</v>
       </c>
       <c r="P77" s="2">
-        <f>IF(F77&gt;90%,10%,IF(F77&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="Q77" s="2">
-        <f>SUM(L77:P77)</f>
+        <f t="shared" si="16"/>
         <v>0.85</v>
       </c>
       <c r="R77" s="3" t="s">
@@ -14117,7 +14118,7 @@
         <v>90000</v>
       </c>
       <c r="T77" s="3">
-        <f>S77*Q77</f>
+        <f t="shared" si="17"/>
         <v>76500</v>
       </c>
     </row>
@@ -14160,23 +14161,23 @@
         <v>0</v>
       </c>
       <c r="M78" s="2">
-        <f>IF(H78&gt;70%,35%,IF(H78&gt;50%,25%,IF(H78&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.35</v>
       </c>
       <c r="N78" s="2">
-        <f>IF(I78="Commit",35%,IF(I78="Probable",25%,IF(I78="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O78" s="2">
-        <f>IF(K78&lt;=1,10%,IF(K78=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P78" s="2">
-        <f>IF(F78&gt;90%,10%,IF(F78&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q78" s="2">
-        <f>SUM(L78:P78)</f>
+        <f t="shared" si="16"/>
         <v>0.75</v>
       </c>
       <c r="R78" s="3" t="s">
@@ -14186,7 +14187,7 @@
         <v>70000</v>
       </c>
       <c r="T78" s="3">
-        <f>S78*Q78</f>
+        <f t="shared" si="17"/>
         <v>52500</v>
       </c>
     </row>
@@ -14229,23 +14230,23 @@
         <v>0.05</v>
       </c>
       <c r="M79" s="2">
-        <f>IF(H79&gt;70%,35%,IF(H79&gt;50%,25%,IF(H79&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="N79" s="2">
-        <f>IF(I79="Commit",35%,IF(I79="Probable",25%,IF(I79="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O79" s="2">
-        <f>IF(K79&lt;=1,10%,IF(K79=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P79" s="2">
-        <f>IF(F79&gt;90%,10%,IF(F79&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q79" s="2">
-        <f>SUM(L79:P79)</f>
+        <f t="shared" si="16"/>
         <v>0.7</v>
       </c>
       <c r="R79" s="3" t="s">
@@ -14255,7 +14256,7 @@
         <v>60000</v>
       </c>
       <c r="T79" s="3">
-        <f>S79*Q79</f>
+        <f t="shared" si="17"/>
         <v>42000</v>
       </c>
     </row>
@@ -14298,23 +14299,23 @@
         <v>0.1</v>
       </c>
       <c r="M80" s="2">
-        <f>IF(H80&gt;70%,35%,IF(H80&gt;50%,25%,IF(H80&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.35</v>
       </c>
       <c r="N80" s="2">
-        <f>IF(I80="Commit",35%,IF(I80="Probable",25%,IF(I80="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O80" s="2">
-        <f>IF(K80&lt;=1,10%,IF(K80=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P80" s="2">
-        <f>IF(F80&gt;90%,10%,IF(F80&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="Q80" s="2">
-        <f>SUM(L80:P80)</f>
+        <f t="shared" si="16"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="R80" s="3" t="s">
@@ -14324,7 +14325,7 @@
         <v>50000</v>
       </c>
       <c r="T80" s="3">
-        <f>S80*Q80</f>
+        <f t="shared" si="17"/>
         <v>44999.999999999993</v>
       </c>
     </row>
@@ -14367,23 +14368,23 @@
         <v>0.05</v>
       </c>
       <c r="M81" s="2">
-        <f>IF(H81&gt;70%,35%,IF(H81&gt;50%,25%,IF(H81&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.15</v>
       </c>
       <c r="N81" s="2">
-        <f>IF(I81="Commit",35%,IF(I81="Probable",25%,IF(I81="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O81" s="2">
-        <f>IF(K81&lt;=1,10%,IF(K81=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0.05</v>
       </c>
       <c r="P81" s="2">
-        <f>IF(F81&gt;90%,10%,IF(F81&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q81" s="2">
-        <f>SUM(L81:P81)</f>
+        <f t="shared" si="16"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="R81" s="3" t="s">
@@ -14393,7 +14394,7 @@
         <v>40000</v>
       </c>
       <c r="T81" s="3">
-        <f>S81*Q81</f>
+        <f t="shared" si="17"/>
         <v>26000.000000000004</v>
       </c>
     </row>
@@ -14436,23 +14437,23 @@
         <v>0</v>
       </c>
       <c r="M82" s="2">
-        <f>IF(H82&gt;70%,35%,IF(H82&gt;50%,25%,IF(H82&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.35</v>
       </c>
       <c r="N82" s="2">
-        <f>IF(I82="Commit",35%,IF(I82="Probable",25%,IF(I82="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O82" s="2">
-        <f>IF(K82&lt;=1,10%,IF(K82=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P82" s="2">
-        <f>IF(F82&gt;90%,10%,IF(F82&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q82" s="2">
-        <f>SUM(L82:P82)</f>
+        <f t="shared" si="16"/>
         <v>0.75</v>
       </c>
       <c r="R82" s="3" t="s">
@@ -14462,7 +14463,7 @@
         <v>30000</v>
       </c>
       <c r="T82" s="3">
-        <f>S82*Q82</f>
+        <f t="shared" si="17"/>
         <v>22500</v>
       </c>
     </row>
@@ -14505,23 +14506,23 @@
         <v>0</v>
       </c>
       <c r="M83" s="2">
-        <f>IF(H83&gt;70%,35%,IF(H83&gt;50%,25%,IF(H83&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.15</v>
       </c>
       <c r="N83" s="2">
-        <f>IF(I83="Commit",35%,IF(I83="Probable",25%,IF(I83="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O83" s="2">
-        <f>IF(K83&lt;=1,10%,IF(K83=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P83" s="2">
-        <f>IF(F83&gt;90%,10%,IF(F83&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q83" s="2">
-        <f>SUM(L83:P83)</f>
+        <f t="shared" si="16"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R83" s="3" t="s">
@@ -14531,7 +14532,7 @@
         <v>20000</v>
       </c>
       <c r="T83" s="3">
-        <f>S83*Q83</f>
+        <f t="shared" si="17"/>
         <v>11000</v>
       </c>
     </row>
@@ -14574,23 +14575,23 @@
         <v>0</v>
       </c>
       <c r="M84" s="2">
-        <f>IF(H84&gt;70%,35%,IF(H84&gt;50%,25%,IF(H84&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.35</v>
       </c>
       <c r="N84" s="2">
-        <f>IF(I84="Commit",35%,IF(I84="Probable",25%,IF(I84="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
       <c r="O84" s="2">
-        <f>IF(K84&lt;=1,10%,IF(K84=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P84" s="2">
-        <f>IF(F84&gt;90%,10%,IF(F84&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="Q84" s="2">
-        <f>SUM(L84:P84)</f>
+        <f t="shared" si="16"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="R84" s="3" t="s">
@@ -14600,7 +14601,7 @@
         <v>10000</v>
       </c>
       <c r="T84" s="3">
-        <f>S84*Q84</f>
+        <f t="shared" si="17"/>
         <v>7999.9999999999991</v>
       </c>
     </row>
@@ -14643,23 +14644,23 @@
         <v>0.05</v>
       </c>
       <c r="M85" s="2">
-        <f>IF(H85&gt;70%,35%,IF(H85&gt;50%,25%,IF(H85&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.15</v>
       </c>
       <c r="N85" s="2">
-        <f>IF(I85="Commit",35%,IF(I85="Probable",25%,IF(I85="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="O85" s="2">
-        <f>IF(K85&lt;=1,10%,IF(K85=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P85" s="2">
-        <f>IF(F85&gt;90%,10%,IF(F85&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q85" s="2">
-        <f>SUM(L85:P85)</f>
+        <f t="shared" si="16"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="R85" s="3" t="s">
@@ -14669,7 +14670,7 @@
         <v>125000</v>
       </c>
       <c r="T85" s="3">
-        <f>S85*Q85</f>
+        <f t="shared" si="17"/>
         <v>49999.999999999993</v>
       </c>
     </row>
@@ -14712,23 +14713,23 @@
         <v>0.05</v>
       </c>
       <c r="M86" s="2">
-        <f>IF(H86&gt;70%,35%,IF(H86&gt;50%,25%,IF(H86&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.15</v>
       </c>
       <c r="N86" s="2">
-        <f>IF(I86="Commit",35%,IF(I86="Probable",25%,IF(I86="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="O86" s="2">
-        <f>IF(K86&lt;=1,10%,IF(K86=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P86" s="2">
-        <f>IF(F86&gt;90%,10%,IF(F86&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q86" s="2">
-        <f>SUM(L86:P86)</f>
+        <f t="shared" si="16"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="R86" s="3" t="s">
@@ -14738,7 +14739,7 @@
         <v>110000</v>
       </c>
       <c r="T86" s="3">
-        <f>S86*Q86</f>
+        <f t="shared" si="17"/>
         <v>43999.999999999993</v>
       </c>
     </row>
@@ -14781,23 +14782,23 @@
         <v>0.05</v>
       </c>
       <c r="M87" s="2">
-        <f>IF(H87&gt;70%,35%,IF(H87&gt;50%,25%,IF(H87&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.15</v>
       </c>
       <c r="N87" s="2">
-        <f>IF(I87="Commit",35%,IF(I87="Probable",25%,IF(I87="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="O87" s="2">
-        <f>IF(K87&lt;=1,10%,IF(K87=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P87" s="2">
-        <f>IF(F87&gt;90%,10%,IF(F87&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q87" s="2">
-        <f>SUM(L87:P87)</f>
+        <f t="shared" si="16"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="R87" s="3" t="s">
@@ -14807,7 +14808,7 @@
         <v>110000</v>
       </c>
       <c r="T87" s="3">
-        <f>S87*Q87</f>
+        <f t="shared" si="17"/>
         <v>43999.999999999993</v>
       </c>
     </row>
@@ -14850,23 +14851,23 @@
         <v>0</v>
       </c>
       <c r="M88" s="2">
-        <f>IF(H88&gt;70%,35%,IF(H88&gt;50%,25%,IF(H88&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.15</v>
       </c>
       <c r="N88" s="2">
-        <f>IF(I88="Commit",35%,IF(I88="Probable",25%,IF(I88="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="O88" s="2">
-        <f>IF(K88&lt;=1,10%,IF(K88=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="P88" s="2">
-        <f>IF(F88&gt;90%,10%,IF(F88&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q88" s="2">
-        <f>SUM(L88:P88)</f>
+        <f t="shared" si="16"/>
         <v>0.45</v>
       </c>
       <c r="R88" s="3" t="s">
@@ -14876,7 +14877,7 @@
         <v>90000</v>
       </c>
       <c r="T88" s="3">
-        <f>S88*Q88</f>
+        <f t="shared" si="17"/>
         <v>40500</v>
       </c>
     </row>
@@ -14919,23 +14920,23 @@
         <v>0.1</v>
       </c>
       <c r="M89" s="2">
-        <f>IF(H89&gt;70%,35%,IF(H89&gt;50%,25%,IF(H89&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.15</v>
       </c>
       <c r="N89" s="2">
-        <f>IF(I89="Commit",35%,IF(I89="Probable",25%,IF(I89="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="O89" s="2">
-        <f>IF(K89&lt;=1,10%,IF(K89=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P89" s="2">
-        <f>IF(F89&gt;90%,10%,IF(F89&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q89" s="2">
-        <f>SUM(L89:P89)</f>
+        <f t="shared" si="16"/>
         <v>0.45</v>
       </c>
       <c r="R89" s="3" t="s">
@@ -14945,7 +14946,7 @@
         <v>90000</v>
       </c>
       <c r="T89" s="3">
-        <f>S89*Q89</f>
+        <f t="shared" si="17"/>
         <v>40500</v>
       </c>
     </row>
@@ -14988,23 +14989,23 @@
         <v>0.1</v>
       </c>
       <c r="M90" s="2">
-        <f>IF(H90&gt;70%,35%,IF(H90&gt;50%,25%,IF(H90&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="N90" s="2">
-        <f>IF(I90="Commit",35%,IF(I90="Probable",25%,IF(I90="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="O90" s="2">
-        <f>IF(K90&lt;=1,10%,IF(K90=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P90" s="2">
-        <f>IF(F90&gt;90%,10%,IF(F90&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q90" s="2">
-        <f>SUM(L90:P90)</f>
+        <f t="shared" si="16"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R90" s="3" t="s">
@@ -15014,7 +15015,7 @@
         <v>80000</v>
       </c>
       <c r="T90" s="3">
-        <f>S90*Q90</f>
+        <f t="shared" si="17"/>
         <v>44000</v>
       </c>
     </row>
@@ -15057,23 +15058,23 @@
         <v>0.1</v>
       </c>
       <c r="M91" s="2">
-        <f>IF(H91&gt;70%,35%,IF(H91&gt;50%,25%,IF(H91&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.15</v>
       </c>
       <c r="N91" s="2">
-        <f>IF(I91="Commit",35%,IF(I91="Probable",25%,IF(I91="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="O91" s="2">
-        <f>IF(K91&lt;=1,10%,IF(K91=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P91" s="2">
-        <f>IF(F91&gt;90%,10%,IF(F91&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q91" s="2">
-        <f>SUM(L91:P91)</f>
+        <f t="shared" si="16"/>
         <v>0.45</v>
       </c>
       <c r="R91" s="3" t="s">
@@ -15083,7 +15084,7 @@
         <v>80000</v>
       </c>
       <c r="T91" s="3">
-        <f>S91*Q91</f>
+        <f t="shared" si="17"/>
         <v>36000</v>
       </c>
     </row>
@@ -15126,23 +15127,23 @@
         <v>0.05</v>
       </c>
       <c r="M92" s="2">
-        <f>IF(H92&gt;70%,35%,IF(H92&gt;50%,25%,IF(H92&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="N92" s="2">
-        <f>IF(I92="Commit",35%,IF(I92="Probable",25%,IF(I92="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="O92" s="2">
-        <f>IF(K92&lt;=1,10%,IF(K92=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="P92" s="2">
-        <f>IF(F92&gt;90%,10%,IF(F92&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q92" s="2">
-        <f>SUM(L92:P92)</f>
+        <f t="shared" si="16"/>
         <v>0.45</v>
       </c>
       <c r="R92" s="3" t="s">
@@ -15152,7 +15153,7 @@
         <v>70000</v>
       </c>
       <c r="T92" s="3">
-        <f>S92*Q92</f>
+        <f t="shared" si="17"/>
         <v>31500</v>
       </c>
     </row>
@@ -15195,23 +15196,23 @@
         <v>0.05</v>
       </c>
       <c r="M93" s="2">
-        <f>IF(H93&gt;70%,35%,IF(H93&gt;50%,25%,IF(H93&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.15</v>
       </c>
       <c r="N93" s="2">
-        <f>IF(I93="Commit",35%,IF(I93="Probable",25%,IF(I93="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="O93" s="2">
-        <f>IF(K93&lt;=1,10%,IF(K93=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P93" s="2">
-        <f>IF(F93&gt;90%,10%,IF(F93&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q93" s="2">
-        <f>SUM(L93:P93)</f>
+        <f t="shared" si="16"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="R93" s="3" t="s">
@@ -15221,7 +15222,7 @@
         <v>70000</v>
       </c>
       <c r="T93" s="3">
-        <f>S93*Q93</f>
+        <f t="shared" si="17"/>
         <v>27999.999999999996</v>
       </c>
     </row>
@@ -15264,23 +15265,23 @@
         <v>0</v>
       </c>
       <c r="M94" s="2">
-        <f>IF(H94&gt;70%,35%,IF(H94&gt;50%,25%,IF(H94&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="N94" s="2">
-        <f>IF(I94="Commit",35%,IF(I94="Probable",25%,IF(I94="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="O94" s="2">
-        <f>IF(K94&lt;=1,10%,IF(K94=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P94" s="2">
-        <f>IF(F94&gt;90%,10%,IF(F94&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="Q94" s="2">
-        <f>SUM(L94:P94)</f>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="R94" s="3" t="s">
@@ -15290,7 +15291,7 @@
         <v>60000</v>
       </c>
       <c r="T94" s="3">
-        <f>S94*Q94</f>
+        <f t="shared" si="17"/>
         <v>30000</v>
       </c>
     </row>
@@ -15333,23 +15334,23 @@
         <v>0</v>
       </c>
       <c r="M95" s="2">
-        <f>IF(H95&gt;70%,35%,IF(H95&gt;50%,25%,IF(H95&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="N95" s="2">
-        <f>IF(I95="Commit",35%,IF(I95="Probable",25%,IF(I95="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="O95" s="2">
-        <f>IF(K95&lt;=1,10%,IF(K95=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P95" s="2">
-        <f>IF(F95&gt;90%,10%,IF(F95&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q95" s="2">
-        <f>SUM(L95:P95)</f>
+        <f t="shared" si="16"/>
         <v>0.3</v>
       </c>
       <c r="R95" s="3" t="s">
@@ -15359,7 +15360,7 @@
         <v>50000</v>
       </c>
       <c r="T95" s="3">
-        <f>S95*Q95</f>
+        <f t="shared" si="17"/>
         <v>15000</v>
       </c>
     </row>
@@ -15402,23 +15403,23 @@
         <v>0</v>
       </c>
       <c r="M96" s="2">
-        <f>IF(H96&gt;70%,35%,IF(H96&gt;50%,25%,IF(H96&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="N96" s="2">
-        <f>IF(I96="Commit",35%,IF(I96="Probable",25%,IF(I96="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="O96" s="2">
-        <f>IF(K96&lt;=1,10%,IF(K96=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P96" s="2">
-        <f>IF(F96&gt;90%,10%,IF(F96&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="Q96" s="2">
-        <f>SUM(L96:P96)</f>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="R96" s="3" t="s">
@@ -15428,7 +15429,7 @@
         <v>40000</v>
       </c>
       <c r="T96" s="3">
-        <f>S96*Q96</f>
+        <f t="shared" si="17"/>
         <v>20000</v>
       </c>
     </row>
@@ -15471,23 +15472,23 @@
         <v>0.05</v>
       </c>
       <c r="M97" s="2">
-        <f>IF(H97&gt;70%,35%,IF(H97&gt;50%,25%,IF(H97&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.15</v>
       </c>
       <c r="N97" s="2">
-        <f>IF(I97="Commit",35%,IF(I97="Probable",25%,IF(I97="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="O97" s="2">
-        <f>IF(K97&lt;=1,10%,IF(K97=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P97" s="2">
-        <f>IF(F97&gt;90%,10%,IF(F97&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q97" s="2">
-        <f>SUM(L97:P97)</f>
+        <f t="shared" si="16"/>
         <v>0.35</v>
       </c>
       <c r="R97" s="3" t="s">
@@ -15497,7 +15498,7 @@
         <v>40000</v>
       </c>
       <c r="T97" s="3">
-        <f>S97*Q97</f>
+        <f t="shared" si="17"/>
         <v>14000</v>
       </c>
     </row>
@@ -15540,23 +15541,23 @@
         <v>0.1</v>
       </c>
       <c r="M98" s="2">
-        <f>IF(H98&gt;70%,35%,IF(H98&gt;50%,25%,IF(H98&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="N98" s="2">
-        <f>IF(I98="Commit",35%,IF(I98="Probable",25%,IF(I98="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="O98" s="2">
-        <f>IF(K98&lt;=1,10%,IF(K98=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P98" s="2">
-        <f>IF(F98&gt;90%,10%,IF(F98&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q98" s="2">
-        <f>SUM(L98:P98)</f>
+        <f t="shared" ref="Q98:Q129" si="18">SUM(L98:P98)</f>
         <v>0.39999999999999997</v>
       </c>
       <c r="R98" s="3" t="s">
@@ -15566,7 +15567,7 @@
         <v>30000</v>
       </c>
       <c r="T98" s="3">
-        <f>S98*Q98</f>
+        <f t="shared" ref="T98:T129" si="19">S98*Q98</f>
         <v>11999.999999999998</v>
       </c>
     </row>
@@ -15609,23 +15610,23 @@
         <v>0.1</v>
       </c>
       <c r="M99" s="2">
-        <f>IF(H99&gt;70%,35%,IF(H99&gt;50%,25%,IF(H99&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="N99" s="2">
-        <f>IF(I99="Commit",35%,IF(I99="Probable",25%,IF(I99="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="O99" s="2">
-        <f>IF(K99&lt;=1,10%,IF(K99=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P99" s="2">
-        <f>IF(F99&gt;90%,10%,IF(F99&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="Q99" s="2">
-        <f>SUM(L99:P99)</f>
+        <f t="shared" si="18"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R99" s="3" t="s">
@@ -15635,7 +15636,7 @@
         <v>20000</v>
       </c>
       <c r="T99" s="3">
-        <f>S99*Q99</f>
+        <f t="shared" si="19"/>
         <v>9000</v>
       </c>
     </row>
@@ -15678,23 +15679,23 @@
         <v>0</v>
       </c>
       <c r="M100" s="2">
-        <f>IF(H100&gt;70%,35%,IF(H100&gt;50%,25%,IF(H100&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="N100" s="2">
-        <f>IF(I100="Commit",35%,IF(I100="Probable",25%,IF(I100="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="O100" s="2">
-        <f>IF(K100&lt;=1,10%,IF(K100=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P100" s="2">
-        <f>IF(F100&gt;90%,10%,IF(F100&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="Q100" s="2">
-        <f>SUM(L100:P100)</f>
+        <f t="shared" si="18"/>
         <v>0.35</v>
       </c>
       <c r="R100" s="3" t="s">
@@ -15704,7 +15705,7 @@
         <v>10000</v>
       </c>
       <c r="T100" s="3">
-        <f>S100*Q100</f>
+        <f t="shared" si="19"/>
         <v>3500</v>
       </c>
     </row>
@@ -15747,23 +15748,23 @@
         <v>0.05</v>
       </c>
       <c r="M101" s="2">
-        <f>IF(H101&gt;70%,35%,IF(H101&gt;50%,25%,IF(H101&gt;25%,15%,10%)))</f>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="N101" s="2">
-        <f>IF(I101="Commit",35%,IF(I101="Probable",25%,IF(I101="Best Case",15%,10%)))</f>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="O101" s="2">
-        <f>IF(K101&lt;=1,10%,IF(K101=2,5%,0%))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P101" s="2">
-        <f>IF(F101&gt;90%,10%,IF(F101&gt;75%,5%,0%))</f>
+        <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
       <c r="Q101" s="2">
-        <f>SUM(L101:P101)</f>
+        <f t="shared" si="18"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="R101" s="3" t="s">
@@ -15773,7 +15774,7 @@
         <v>10000</v>
       </c>
       <c r="T101" s="3">
-        <f>S101*Q101</f>
+        <f t="shared" si="19"/>
         <v>3500.0000000000005</v>
       </c>
     </row>

--- a/CoachHub Case Study Forecast Example.xlsx
+++ b/CoachHub Case Study Forecast Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2798d4224eb76c4d/CoachHub Case Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{155FAA3C-1BA8-6F47-8708-5B234240A8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E25D6F3-9411-A94B-8097-1B4D210182EF}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{155FAA3C-1BA8-6F47-8708-5B234240A8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A79D7946-C7DE-E145-A78B-F6EE4250C6D7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="1" xr2:uid="{AF7D583F-DEB6-4AD6-BD6C-742FF7B868CD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="3" xr2:uid="{AF7D583F-DEB6-4AD6-BD6C-742FF7B868CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecast Model A" sheetId="11" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="158">
   <si>
     <t>North America</t>
   </si>
@@ -1464,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA162ADF-BF2B-DD4D-BB4B-51A2824293D5}">
   <dimension ref="A1:T107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1619,8 +1619,9 @@
       <c r="S2" s="3">
         <v>100000</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>54</v>
+      <c r="T2" s="3">
+        <f t="shared" ref="T2:T33" si="1">S2*Q2</f>
+        <v>70000</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -1662,23 +1663,23 @@
         <v>0.1</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M66" si="1">IF(H3&gt;70%,20%,IF(H3&gt;50%,15%,IF(H3&lt;25%,0%,10%)))</f>
+        <f t="shared" ref="M3:M66" si="2">IF(H3&gt;70%,20%,IF(H3&gt;50%,15%,IF(H3&lt;25%,0%,10%)))</f>
         <v>0.15</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" ref="N3:N66" si="2">IF(I3="Commit",20%,IF(I3="Probable",15%,IF(I3="Best Case",5%,0%)))</f>
+        <f t="shared" ref="N3:N66" si="3">IF(I3="Commit",20%,IF(I3="Probable",15%,IF(I3="Best Case",5%,0%)))</f>
         <v>0.15</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O66" si="3">IF(K3&gt;=4,0%,IF(K3&gt;=3,10%,IF(K3&lt;2,20%,15%)))</f>
+        <f t="shared" ref="O3:O66" si="4">IF(K3&gt;=4,0%,IF(K3&gt;=3,10%,IF(K3&lt;2,20%,15%)))</f>
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" ref="P3:P66" si="4">IF(F3&gt;90%,20%,IF(F3&gt;75%,10%,IF(F3&lt;50%,0%,5%)))</f>
+        <f t="shared" ref="P3:P66" si="5">IF(F3&gt;90%,20%,IF(F3&gt;75%,10%,IF(F3&lt;50%,0%,5%)))</f>
         <v>0.1</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q66" si="5">SUM(L3:P3)</f>
+        <f t="shared" ref="Q3:Q66" si="6">SUM(L3:P3)</f>
         <v>0.5</v>
       </c>
       <c r="R3" s="3" t="str">
@@ -1689,7 +1690,7 @@
         <v>100000</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3:T33" si="6">S3*Q3</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
     </row>
@@ -1732,23 +1733,23 @@
         <v>0.2</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R4" s="3" t="str">
@@ -1759,7 +1760,7 @@
         <v>100000</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>44999.999999999993</v>
       </c>
     </row>
@@ -1802,23 +1803,23 @@
         <v>0.15</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.64999999999999991</v>
       </c>
       <c r="R5" s="3" t="str">
@@ -1829,7 +1830,7 @@
         <v>100000</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>64999.999999999993</v>
       </c>
     </row>
@@ -1872,23 +1873,23 @@
         <v>0.1</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="P6" s="2">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
+      <c r="P6" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
       <c r="Q6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
       <c r="R6" s="3" t="str">
@@ -1899,7 +1900,7 @@
         <v>100000</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>65000</v>
       </c>
     </row>
@@ -1942,23 +1943,23 @@
         <v>0.1</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="N7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R7" s="3" t="str">
@@ -1969,7 +1970,7 @@
         <v>75000</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>41250</v>
       </c>
     </row>
@@ -2012,23 +2013,23 @@
         <v>0.2</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="R8" s="3" t="str">
@@ -2039,7 +2040,7 @@
         <v>75000</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>45000</v>
       </c>
     </row>
@@ -2082,23 +2083,23 @@
         <v>0.15</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="R9" s="3" t="str">
@@ -2109,7 +2110,7 @@
         <v>75000</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>37500</v>
       </c>
     </row>
@@ -2152,23 +2153,23 @@
         <v>0.15</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.54999999999999993</v>
       </c>
       <c r="R10" s="3" t="str">
@@ -2179,7 +2180,7 @@
         <v>125000</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>68749.999999999985</v>
       </c>
     </row>
@@ -2222,23 +2223,23 @@
         <v>0.2</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
       <c r="R11" s="3" t="str">
@@ -2249,7 +2250,7 @@
         <v>125000</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>81250</v>
       </c>
     </row>
@@ -2292,23 +2293,23 @@
         <v>0.1</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R12" s="3" t="str">
@@ -2319,7 +2320,7 @@
         <v>125000</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>68750</v>
       </c>
     </row>
@@ -2362,23 +2363,23 @@
         <v>0.1</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
       <c r="R13" s="3" t="str">
@@ -2389,7 +2390,7 @@
         <v>125000</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>43750</v>
       </c>
     </row>
@@ -2432,23 +2433,23 @@
         <v>0.2</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="P14" s="2">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
+      <c r="P14" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
       <c r="Q14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="R14" s="3" t="str">
@@ -2459,7 +2460,7 @@
         <v>125000</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>93750</v>
       </c>
     </row>
@@ -2502,23 +2503,23 @@
         <v>0.1</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R15" s="3" t="str">
@@ -2529,7 +2530,7 @@
         <v>110000</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>49499.999999999993</v>
       </c>
     </row>
@@ -2572,23 +2573,23 @@
         <v>0.1</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
       <c r="R16" s="3" t="str">
@@ -2599,7 +2600,7 @@
         <v>100000</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>35000</v>
       </c>
     </row>
@@ -2642,23 +2643,23 @@
         <v>0.15</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R17" s="3" t="str">
@@ -2669,7 +2670,7 @@
         <v>100000</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>44999.999999999993</v>
       </c>
     </row>
@@ -2712,23 +2713,23 @@
         <v>0.15</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="R18" s="3" t="str">
@@ -2739,7 +2740,7 @@
         <v>100000</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
     </row>
@@ -2782,23 +2783,23 @@
         <v>0.1</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R19" s="3" t="str">
@@ -2809,7 +2810,7 @@
         <v>100000</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>55000.000000000007</v>
       </c>
     </row>
@@ -2852,23 +2853,23 @@
         <v>0.1</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
       <c r="R20" s="3" t="str">
@@ -2879,7 +2880,7 @@
         <v>100000</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>65000</v>
       </c>
     </row>
@@ -2922,23 +2923,23 @@
         <v>0.15</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="R21" s="3" t="str">
@@ -2949,7 +2950,7 @@
         <v>80000</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
     </row>
@@ -2992,23 +2993,23 @@
         <v>0.1</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="P22" s="2">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
+      <c r="P22" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
       <c r="Q22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="R22" s="3" t="str">
@@ -3019,7 +3020,7 @@
         <v>70000</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>56000</v>
       </c>
     </row>
@@ -3062,23 +3063,23 @@
         <v>0.15</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="R23" s="3" t="str">
@@ -3089,7 +3090,7 @@
         <v>70000</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>49000.000000000007</v>
       </c>
     </row>
@@ -3132,23 +3133,23 @@
         <v>0.2</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="R24" s="3" t="str">
@@ -3159,7 +3160,7 @@
         <v>70000</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>42000</v>
       </c>
     </row>
@@ -3202,23 +3203,23 @@
         <v>0.15</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
       <c r="R25" s="3" t="str">
@@ -3229,7 +3230,7 @@
         <v>60000</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>39000</v>
       </c>
     </row>
@@ -3272,23 +3273,23 @@
         <v>0.15</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="P26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
       <c r="R26" s="3" t="str">
@@ -3299,7 +3300,7 @@
         <v>50000</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
     </row>
@@ -3342,23 +3343,23 @@
         <v>0.2</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="P27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="R27" s="3" t="str">
@@ -3369,7 +3370,7 @@
         <v>50000</v>
       </c>
       <c r="T27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>35000</v>
       </c>
     </row>
@@ -3412,23 +3413,23 @@
         <v>0.15</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="R28" s="3" t="str">
@@ -3439,7 +3440,7 @@
         <v>40000</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>16000</v>
       </c>
     </row>
@@ -3482,23 +3483,23 @@
         <v>0.2</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="N29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="R29" s="3" t="str">
@@ -3509,7 +3510,7 @@
         <v>40000</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>24000</v>
       </c>
     </row>
@@ -3552,23 +3553,23 @@
         <v>0.2</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.75000000000000011</v>
       </c>
       <c r="R30" s="3" t="str">
@@ -3579,7 +3580,7 @@
         <v>40000</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>30000.000000000004</v>
       </c>
     </row>
@@ -3622,23 +3623,23 @@
         <v>0.1</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="R31" s="3" t="str">
@@ -3649,7 +3650,7 @@
         <v>30000</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>7500</v>
       </c>
     </row>
@@ -3692,23 +3693,23 @@
         <v>0.15</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="N32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="R32" s="3" t="str">
@@ -3719,7 +3720,7 @@
         <v>30000</v>
       </c>
       <c r="T32" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
@@ -3762,23 +3763,23 @@
         <v>0.2</v>
       </c>
       <c r="M33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="N33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
       <c r="R33" s="3" t="str">
@@ -3789,7 +3790,7 @@
         <v>30000</v>
       </c>
       <c r="T33" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>19500</v>
       </c>
     </row>
@@ -3832,23 +3833,23 @@
         <v>0.2</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="R34" s="3" t="str">
@@ -3902,23 +3903,23 @@
         <v>0.2</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="N35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R35" s="3" t="str">
@@ -3972,23 +3973,23 @@
         <v>0.2</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="R36" s="3" t="str">
@@ -4042,23 +4043,23 @@
         <v>0.1</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="R37" s="3" t="str">
@@ -4112,23 +4113,23 @@
         <v>0.15</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="R38" s="3" t="str">
@@ -4182,23 +4183,23 @@
         <v>0.2</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="R39" s="3" t="str">
@@ -4252,23 +4253,23 @@
         <v>0.1</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="N40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="P40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q40" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
       <c r="R40" s="3" t="str">
@@ -4322,23 +4323,23 @@
         <v>0.1</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="R41" s="3" t="str">
@@ -4392,23 +4393,23 @@
         <v>0.1</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
       <c r="R42" s="3" t="str">
@@ -4462,23 +4463,23 @@
         <v>0.2</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q43" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="R43" s="3" t="str">
@@ -4532,23 +4533,23 @@
         <v>0.1</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="R44" s="3" t="str">
@@ -4602,23 +4603,23 @@
         <v>0.2</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="N45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q45" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="R45" s="3" t="str">
@@ -4672,23 +4673,23 @@
         <v>0.2</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q46" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="R46" s="3" t="str">
@@ -4742,23 +4743,23 @@
         <v>0.2</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="N47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q47" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="R47" s="3" t="str">
@@ -4812,23 +4813,23 @@
         <v>0.1</v>
       </c>
       <c r="M48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="N48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="P48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R48" s="3" t="str">
@@ -4882,23 +4883,23 @@
         <v>0.1</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q49" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="R49" s="3" t="str">
@@ -4952,23 +4953,23 @@
         <v>0.2</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="N50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="R50" s="3" t="str">
@@ -5022,23 +5023,23 @@
         <v>0.15</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N51" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O51" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q51" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="R51" s="3" t="str">
@@ -5092,23 +5093,23 @@
         <v>0.1</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="N52" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O52" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P52" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
       <c r="R52" s="3" t="str">
@@ -5162,23 +5163,23 @@
         <v>0.2</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N53" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O53" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="P53" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q53" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="R53" s="3" t="str">
@@ -5232,23 +5233,23 @@
         <v>0.1</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N54" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O54" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P54" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="Q54" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="R54" s="3" t="str">
@@ -5302,23 +5303,23 @@
         <v>0.2</v>
       </c>
       <c r="M55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="N55" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O55" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="P55" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q55" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="R55" s="3" t="str">
@@ -5372,23 +5373,23 @@
         <v>0.15</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="N56" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O56" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P56" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
       <c r="R56" s="3" t="str">
@@ -5442,23 +5443,23 @@
         <v>0.2</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N57" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O57" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P57" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q57" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="R57" s="3" t="str">
@@ -5512,23 +5513,23 @@
         <v>0.2</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N58" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O58" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P58" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="R58" s="3" t="str">
@@ -5582,23 +5583,23 @@
         <v>0.2</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N59" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O59" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="P59" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q59" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
       <c r="R59" s="3" t="str">
@@ -5652,23 +5653,23 @@
         <v>0.2</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N60" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O60" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P60" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q60" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="R60" s="3" t="str">
@@ -5722,23 +5723,23 @@
         <v>0.1</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="N61" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O61" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="P61" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q61" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="R61" s="3" t="str">
@@ -5792,23 +5793,23 @@
         <v>0.15</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N62" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O62" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P62" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="R62" s="3" t="str">
@@ -5862,23 +5863,23 @@
         <v>0.2</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="N63" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q63" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="R63" s="3" t="str">
@@ -5932,23 +5933,23 @@
         <v>0.1</v>
       </c>
       <c r="M64" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N64" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O64" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="P64" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q64" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="R64" s="3" t="str">
@@ -6002,23 +6003,23 @@
         <v>0.15</v>
       </c>
       <c r="M65" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O65" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P65" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q65" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="R65" s="3" t="str">
@@ -6072,23 +6073,23 @@
         <v>0.15</v>
       </c>
       <c r="M66" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N66" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q66" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="R66" s="3" t="str">
@@ -8788,7 +8789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CCB141-003B-9A4C-9534-239470579EC3}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:S101"/>
     </sheetView>
   </sheetViews>
@@ -15557,7 +15558,7 @@
         <v>0.05</v>
       </c>
       <c r="Q98" s="2">
-        <f t="shared" ref="Q98:Q129" si="18">SUM(L98:P98)</f>
+        <f t="shared" ref="Q98:Q101" si="18">SUM(L98:P98)</f>
         <v>0.39999999999999997</v>
       </c>
       <c r="R98" s="3" t="s">
@@ -15567,7 +15568,7 @@
         <v>30000</v>
       </c>
       <c r="T98" s="3">
-        <f t="shared" ref="T98:T129" si="19">S98*Q98</f>
+        <f t="shared" ref="T98:T101" si="19">S98*Q98</f>
         <v>11999.999999999998</v>
       </c>
     </row>

--- a/CoachHub Case Study Forecast Example.xlsx
+++ b/CoachHub Case Study Forecast Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2798d4224eb76c4d/CoachHub Case Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{155FAA3C-1BA8-6F47-8708-5B234240A8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A79D7946-C7DE-E145-A78B-F6EE4250C6D7}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{155FAA3C-1BA8-6F47-8708-5B234240A8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{452721AF-6F92-6544-9DE0-D636F8D19282}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="3" xr2:uid="{AF7D583F-DEB6-4AD6-BD6C-742FF7B868CD}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="155">
   <si>
     <t>North America</t>
   </si>
@@ -259,15 +259,6 @@
   </si>
   <si>
     <t>Model Deal Strength</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>Strong</t>
-  </si>
-  <si>
-    <t>Weak</t>
   </si>
   <si>
     <t>Ideal opportunity in many ways, almost full deal size considered</t>
@@ -1306,7 +1297,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -1338,12 +1329,12 @@
         <v>55000</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -1380,7 +1371,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -1417,7 +1408,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1449,7 +1440,7 @@
         <v>90000</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1464,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA162ADF-BF2B-DD4D-BB4B-51A2824293D5}">
   <dimension ref="A1:T107"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1556,7 +1547,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -1565,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E2">
         <v>71</v>
@@ -1626,7 +1617,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -1635,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E3">
         <v>88</v>
@@ -1696,7 +1687,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -1705,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E4">
         <v>79</v>
@@ -1766,7 +1757,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -1775,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1836,7 +1827,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -1845,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1906,7 +1897,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -1915,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E7">
         <v>76</v>
@@ -1976,7 +1967,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -1985,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E8">
         <v>65</v>
@@ -2046,7 +2037,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -2055,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E9">
         <v>61</v>
@@ -2116,7 +2107,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -2125,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E10">
         <v>64</v>
@@ -2186,7 +2177,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -2195,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E11">
         <v>63</v>
@@ -2256,7 +2247,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -2265,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E12">
         <v>82</v>
@@ -2326,7 +2317,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -2335,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E13">
         <v>96</v>
@@ -2396,7 +2387,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -2405,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2466,7 +2457,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -2475,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E15">
         <v>95</v>
@@ -2536,7 +2527,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -2545,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E16">
         <v>55</v>
@@ -2606,7 +2597,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -2615,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E17">
         <v>62</v>
@@ -2676,7 +2667,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
@@ -2685,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E18">
         <v>70</v>
@@ -2746,7 +2737,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -2755,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E19">
         <v>84</v>
@@ -2816,7 +2807,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -2825,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E20">
         <v>99</v>
@@ -2886,7 +2877,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
@@ -2895,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E21">
         <v>78</v>
@@ -2956,7 +2947,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -2965,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -3026,7 +3017,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -3035,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E23">
         <v>35</v>
@@ -3096,7 +3087,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -3105,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E24">
         <v>49</v>
@@ -3166,7 +3157,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -3175,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E25">
         <v>58</v>
@@ -3236,7 +3227,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -3245,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -3306,7 +3297,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -3315,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E27">
         <v>56</v>
@@ -3376,7 +3367,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -3385,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E28">
         <v>48</v>
@@ -3446,7 +3437,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -3455,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E29">
         <v>87</v>
@@ -3516,7 +3507,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -3525,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E30">
         <v>89</v>
@@ -3586,7 +3577,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -3595,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E31">
         <v>60</v>
@@ -3656,7 +3647,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -3665,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E32">
         <v>67</v>
@@ -3726,7 +3717,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
@@ -3735,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E33">
         <v>75</v>
@@ -3796,7 +3787,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
@@ -3805,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E34">
         <v>100</v>
@@ -3866,7 +3857,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
@@ -3875,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E35">
         <v>33</v>
@@ -3936,7 +3927,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
@@ -3945,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E36">
         <v>51</v>
@@ -4006,7 +3997,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
@@ -4015,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E37">
         <v>69</v>
@@ -4076,7 +4067,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
         <v>28</v>
@@ -4085,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E38">
         <v>72</v>
@@ -4146,7 +4137,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
         <v>31</v>
@@ -4155,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E39">
         <v>81</v>
@@ -4216,7 +4207,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
         <v>31</v>
@@ -4225,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E40">
         <v>90</v>
@@ -4286,7 +4277,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
         <v>25</v>
@@ -4295,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E41">
         <v>10</v>
@@ -4356,7 +4347,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
         <v>27</v>
@@ -4365,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E42">
         <v>37</v>
@@ -4426,7 +4417,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
         <v>31</v>
@@ -4435,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E43">
         <v>93</v>
@@ -4496,7 +4487,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -4505,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E44">
         <v>25</v>
@@ -4566,7 +4557,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
         <v>27</v>
@@ -4575,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E45">
         <v>39</v>
@@ -4636,7 +4627,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -4645,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E46">
         <v>74</v>
@@ -4706,7 +4697,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -4715,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E47">
         <v>27</v>
@@ -4776,7 +4767,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
         <v>31</v>
@@ -4785,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E48">
         <v>80</v>
@@ -4846,7 +4837,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
         <v>31</v>
@@ -4855,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E49">
         <v>97</v>
@@ -4916,7 +4907,7 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
         <v>30</v>
@@ -4925,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E50">
         <v>47</v>
@@ -4986,7 +4977,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
         <v>28</v>
@@ -4995,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E51">
         <v>73</v>
@@ -5056,7 +5047,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
         <v>28</v>
@@ -5065,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E52">
         <v>77</v>
@@ -5126,7 +5117,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
         <v>31</v>
@@ -5135,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E53">
         <v>85</v>
@@ -5196,7 +5187,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
         <v>25</v>
@@ -5205,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E54">
         <v>17</v>
@@ -5266,7 +5257,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -5275,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E55">
         <v>22</v>
@@ -5336,7 +5327,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -5345,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E56">
         <v>26</v>
@@ -5406,7 +5397,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
         <v>28</v>
@@ -5415,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E57">
         <v>68</v>
@@ -5476,7 +5467,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -5485,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E58">
         <v>23</v>
@@ -5546,7 +5537,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
         <v>30</v>
@@ -5555,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E59">
         <v>53</v>
@@ -5616,7 +5607,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
         <v>30</v>
@@ -5625,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E60">
         <v>54</v>
@@ -5686,7 +5677,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
         <v>30</v>
@@ -5695,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E61">
         <v>57</v>
@@ -5756,7 +5747,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B62" t="s">
         <v>30</v>
@@ -5765,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E62">
         <v>59</v>
@@ -5826,7 +5817,7 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
@@ -5835,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E63">
         <v>41</v>
@@ -5896,7 +5887,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B64" t="s">
         <v>31</v>
@@ -5905,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E64">
         <v>98</v>
@@ -5966,7 +5957,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
@@ -5975,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E65">
         <v>42</v>
@@ -6036,7 +6027,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B66" t="s">
         <v>31</v>
@@ -6045,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E66">
         <v>91</v>
@@ -6106,7 +6097,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
@@ -6115,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E67">
         <v>14</v>
@@ -6176,7 +6167,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>25</v>
@@ -6185,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E68">
         <v>12</v>
@@ -6246,7 +6237,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>27</v>
@@ -6255,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E69">
         <v>40</v>
@@ -6316,7 +6307,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
         <v>27</v>
@@ -6325,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E70">
         <v>38</v>
@@ -6386,7 +6377,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -6395,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E71">
         <v>31</v>
@@ -6456,7 +6447,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
         <v>27</v>
@@ -6465,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E72">
         <v>36</v>
@@ -6526,7 +6517,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
         <v>30</v>
@@ -6535,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E73">
         <v>46</v>
@@ -6596,7 +6587,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
         <v>25</v>
@@ -6605,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E74">
         <v>15</v>
@@ -6666,7 +6657,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s">
         <v>25</v>
@@ -6675,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E75">
         <v>9</v>
@@ -6736,7 +6727,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -6745,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E76">
         <v>24</v>
@@ -6806,7 +6797,7 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B77" t="s">
         <v>25</v>
@@ -6815,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E77">
         <v>5</v>
@@ -6876,7 +6867,7 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -6885,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E78">
         <v>28</v>
@@ -6946,7 +6937,7 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s">
         <v>27</v>
@@ -6955,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E79">
         <v>43</v>
@@ -7016,7 +7007,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B80" t="s">
         <v>25</v>
@@ -7025,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E80">
         <v>16</v>
@@ -7086,7 +7077,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B81" t="s">
         <v>27</v>
@@ -7095,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E81">
         <v>34</v>
@@ -7156,7 +7147,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -7165,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E82">
         <v>29</v>
@@ -7226,7 +7217,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
         <v>27</v>
@@ -7235,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E83">
         <v>45</v>
@@ -7296,7 +7287,7 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B84" t="s">
         <v>25</v>
@@ -7305,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -7366,7 +7357,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
         <v>27</v>
@@ -7375,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E85">
         <v>44</v>
@@ -7436,7 +7427,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s">
         <v>26</v>
@@ -7445,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E86">
         <v>30</v>
@@ -7506,7 +7497,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
         <v>28</v>
@@ -7515,7 +7506,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E87">
         <v>66</v>
@@ -7576,7 +7567,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
         <v>26</v>
@@ -7585,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E88">
         <v>18</v>
@@ -7646,7 +7637,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
@@ -7655,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E89">
         <v>20</v>
@@ -7716,7 +7707,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B90" t="s">
         <v>31</v>
@@ -7725,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E90">
         <v>86</v>
@@ -7786,7 +7777,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B91" t="s">
         <v>31</v>
@@ -7795,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E91">
         <v>94</v>
@@ -7856,7 +7847,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
@@ -7865,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E92">
         <v>21</v>
@@ -7926,7 +7917,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B93" t="s">
         <v>27</v>
@@ -7935,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E93">
         <v>32</v>
@@ -7996,7 +7987,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B94" t="s">
         <v>25</v>
@@ -8005,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E94">
         <v>6</v>
@@ -8066,7 +8057,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -8075,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E95">
         <v>19</v>
@@ -8136,7 +8127,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
         <v>25</v>
@@ -8145,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E96">
         <v>13</v>
@@ -8206,7 +8197,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B97" t="s">
         <v>30</v>
@@ -8215,7 +8206,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E97">
         <v>52</v>
@@ -8276,7 +8267,7 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
         <v>31</v>
@@ -8285,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E98">
         <v>92</v>
@@ -8346,7 +8337,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B99" t="s">
         <v>25</v>
@@ -8355,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E99">
         <v>7</v>
@@ -8416,7 +8407,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B100" t="s">
         <v>25</v>
@@ -8425,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E100">
         <v>11</v>
@@ -8486,7 +8477,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B101" t="s">
         <v>31</v>
@@ -8495,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E101">
         <v>83</v>
@@ -8790,7 +8781,7 @@
   <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S101"/>
+      <selection activeCell="R2" sqref="R2:R101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8881,7 +8872,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -8890,7 +8881,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E2">
         <v>71</v>
@@ -8937,8 +8928,9 @@
         <f t="shared" ref="Q2:Q33" si="4">SUM(L2:P2)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>62</v>
+      <c r="R2" s="3" t="str">
+        <f>IF(Q2&gt;60%,"Strong ",IF(Q2&gt;40%,"Moderate ",IF(Q2&lt;40.1%,"Weak ")))</f>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S2" s="3">
         <v>100000</v>
@@ -8950,7 +8942,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -8959,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E3">
         <v>88</v>
@@ -9006,8 +8998,9 @@
         <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>62</v>
+      <c r="R3" s="3" t="str">
+        <f t="shared" ref="R3:R66" si="6">IF(Q3&gt;60%,"Strong ",IF(Q3&gt;40%,"Moderate ",IF(Q3&lt;40.1%,"Weak ")))</f>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S3" s="3">
         <v>100000</v>
@@ -9019,7 +9012,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -9028,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E4">
         <v>79</v>
@@ -9075,8 +9068,9 @@
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>62</v>
+      <c r="R4" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S4" s="3">
         <v>100000</v>
@@ -9088,7 +9082,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -9097,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -9144,8 +9138,9 @@
         <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>60</v>
+      <c r="R5" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S5" s="3">
         <v>100000</v>
@@ -9157,7 +9152,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -9166,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -9213,8 +9208,9 @@
         <f t="shared" si="4"/>
         <v>0.54999999999999993</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>62</v>
+      <c r="R6" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S6" s="3">
         <v>100000</v>
@@ -9226,7 +9222,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -9235,7 +9231,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E7">
         <v>76</v>
@@ -9282,8 +9278,9 @@
         <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>60</v>
+      <c r="R7" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S7" s="3">
         <v>75000</v>
@@ -9295,7 +9292,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -9304,7 +9301,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E8">
         <v>65</v>
@@ -9351,8 +9348,9 @@
         <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>60</v>
+      <c r="R8" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S8" s="3">
         <v>75000</v>
@@ -9364,7 +9362,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -9373,7 +9371,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E9">
         <v>61</v>
@@ -9420,8 +9418,9 @@
         <f t="shared" si="4"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>60</v>
+      <c r="R9" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S9" s="3">
         <v>75000</v>
@@ -9433,7 +9432,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -9442,7 +9441,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E10">
         <v>64</v>
@@ -9489,8 +9488,9 @@
         <f t="shared" si="4"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>62</v>
+      <c r="R10" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S10" s="3">
         <v>125000</v>
@@ -9502,7 +9502,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -9511,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E11">
         <v>63</v>
@@ -9558,8 +9558,9 @@
         <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>60</v>
+      <c r="R11" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S11" s="3">
         <v>125000</v>
@@ -9571,7 +9572,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -9580,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E12">
         <v>82</v>
@@ -9627,8 +9628,9 @@
         <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>60</v>
+      <c r="R12" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S12" s="3">
         <v>125000</v>
@@ -9640,7 +9642,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -9649,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E13">
         <v>96</v>
@@ -9696,8 +9698,9 @@
         <f t="shared" si="4"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>62</v>
+      <c r="R13" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S13" s="3">
         <v>125000</v>
@@ -9709,7 +9712,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -9718,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -9765,8 +9768,9 @@
         <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>60</v>
+      <c r="R14" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S14" s="3">
         <v>125000</v>
@@ -9778,7 +9782,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -9787,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E15">
         <v>95</v>
@@ -9834,8 +9838,9 @@
         <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>62</v>
+      <c r="R15" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S15" s="3">
         <v>110000</v>
@@ -9847,7 +9852,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -9856,7 +9861,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E16">
         <v>55</v>
@@ -9903,8 +9908,9 @@
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="R16" s="3" t="s">
-        <v>62</v>
+      <c r="R16" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S16" s="3">
         <v>100000</v>
@@ -9916,7 +9922,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -9925,7 +9931,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E17">
         <v>62</v>
@@ -9972,8 +9978,9 @@
         <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>62</v>
+      <c r="R17" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S17" s="3">
         <v>100000</v>
@@ -9985,7 +9992,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
@@ -9994,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E18">
         <v>70</v>
@@ -10041,8 +10048,9 @@
         <f t="shared" si="4"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>62</v>
+      <c r="R18" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S18" s="3">
         <v>100000</v>
@@ -10054,7 +10062,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -10063,7 +10071,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E19">
         <v>84</v>
@@ -10110,8 +10118,9 @@
         <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
-      <c r="R19" s="3" t="s">
-        <v>60</v>
+      <c r="R19" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S19" s="3">
         <v>100000</v>
@@ -10123,7 +10132,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -10132,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E20">
         <v>99</v>
@@ -10179,8 +10188,9 @@
         <f t="shared" si="4"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>60</v>
+      <c r="R20" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S20" s="3">
         <v>100000</v>
@@ -10192,7 +10202,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
@@ -10201,7 +10211,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E21">
         <v>78</v>
@@ -10248,8 +10258,9 @@
         <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>62</v>
+      <c r="R21" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S21" s="3">
         <v>80000</v>
@@ -10261,7 +10272,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -10270,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -10317,8 +10328,9 @@
         <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>60</v>
+      <c r="R22" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S22" s="3">
         <v>70000</v>
@@ -10330,7 +10342,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -10339,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E23">
         <v>35</v>
@@ -10386,8 +10398,9 @@
         <f t="shared" si="4"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>62</v>
+      <c r="R23" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S23" s="3">
         <v>70000</v>
@@ -10399,7 +10412,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -10408,7 +10421,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E24">
         <v>49</v>
@@ -10455,8 +10468,9 @@
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>62</v>
+      <c r="R24" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S24" s="3">
         <v>70000</v>
@@ -10468,7 +10482,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -10477,7 +10491,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E25">
         <v>58</v>
@@ -10524,8 +10538,9 @@
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="R25" s="3" t="s">
-        <v>60</v>
+      <c r="R25" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S25" s="3">
         <v>60000</v>
@@ -10537,7 +10552,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -10546,7 +10561,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -10593,8 +10608,9 @@
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>60</v>
+      <c r="R26" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S26" s="3">
         <v>50000</v>
@@ -10606,7 +10622,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -10615,7 +10631,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E27">
         <v>56</v>
@@ -10662,8 +10678,9 @@
         <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>60</v>
+      <c r="R27" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S27" s="3">
         <v>50000</v>
@@ -10675,7 +10692,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -10684,7 +10701,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E28">
         <v>48</v>
@@ -10731,8 +10748,9 @@
         <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
-      <c r="R28" s="3" t="s">
-        <v>62</v>
+      <c r="R28" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S28" s="3">
         <v>40000</v>
@@ -10744,7 +10762,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -10753,7 +10771,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E29">
         <v>87</v>
@@ -10800,8 +10818,9 @@
         <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>62</v>
+      <c r="R29" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S29" s="3">
         <v>40000</v>
@@ -10813,7 +10832,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -10822,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E30">
         <v>89</v>
@@ -10869,8 +10888,9 @@
         <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="R30" s="3" t="s">
-        <v>60</v>
+      <c r="R30" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S30" s="3">
         <v>40000</v>
@@ -10882,7 +10902,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -10891,7 +10911,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E31">
         <v>60</v>
@@ -10938,8 +10958,9 @@
         <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
-      <c r="R31" s="3" t="s">
-        <v>62</v>
+      <c r="R31" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S31" s="3">
         <v>30000</v>
@@ -10951,7 +10972,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -10960,7 +10981,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E32">
         <v>67</v>
@@ -11007,8 +11028,9 @@
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>62</v>
+      <c r="R32" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S32" s="3">
         <v>30000</v>
@@ -11020,7 +11042,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
@@ -11029,7 +11051,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E33">
         <v>75</v>
@@ -11076,8 +11098,9 @@
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>60</v>
+      <c r="R33" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S33" s="3">
         <v>30000</v>
@@ -11089,7 +11112,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
@@ -11098,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E34">
         <v>100</v>
@@ -11126,39 +11149,40 @@
         <v>0.1</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" ref="M34:M65" si="6">IF(H34&gt;70%,35%,IF(H34&gt;50%,25%,IF(H34&gt;25%,15%,10%)))</f>
+        <f t="shared" ref="M34:M65" si="7">IF(H34&gt;70%,35%,IF(H34&gt;50%,25%,IF(H34&gt;25%,15%,10%)))</f>
         <v>0.25</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" ref="N34:N65" si="7">IF(I34="Commit",35%,IF(I34="Probable",25%,IF(I34="Best Case",15%,10%)))</f>
+        <f t="shared" ref="N34:N65" si="8">IF(I34="Commit",35%,IF(I34="Probable",25%,IF(I34="Best Case",15%,10%)))</f>
         <v>0.25</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" ref="O34:O65" si="8">IF(K34&lt;=1,10%,IF(K34=2,5%,0%))</f>
+        <f t="shared" ref="O34:O65" si="9">IF(K34&lt;=1,10%,IF(K34=2,5%,0%))</f>
         <v>0</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" ref="P34:P65" si="9">IF(F34&gt;90%,10%,IF(F34&gt;75%,5%,0%))</f>
+        <f t="shared" ref="P34:P65" si="10">IF(F34&gt;90%,10%,IF(F34&gt;75%,5%,0%))</f>
         <v>0.05</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" ref="Q34:Q65" si="10">SUM(L34:P34)</f>
+        <f t="shared" ref="Q34:Q65" si="11">SUM(L34:P34)</f>
         <v>0.65</v>
       </c>
-      <c r="R34" s="3" t="s">
-        <v>60</v>
+      <c r="R34" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S34" s="3">
         <v>20000</v>
       </c>
       <c r="T34" s="3">
-        <f t="shared" ref="T34:T65" si="11">S34*Q34</f>
+        <f t="shared" ref="T34:T65" si="12">S34*Q34</f>
         <v>13000</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
@@ -11167,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E35">
         <v>33</v>
@@ -11195,1419 +11219,1440 @@
         <v>0</v>
       </c>
       <c r="M35" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="11"/>
+        <v>0.45</v>
+      </c>
+      <c r="R35" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-      <c r="N35" s="2">
+        <v xml:space="preserve">Moderate </v>
+      </c>
+      <c r="S35" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T35" s="3">
+        <f t="shared" si="12"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36">
+        <v>51</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="G36">
+        <v>4.5</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="23">
+        <v>45909</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="L36" s="2">
+        <f>IF(G36&gt;12,0%,IF(G36&gt;=6,5%,IF('Forecast Model A - Data'!G105&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="O35" s="2">
+      <c r="N36" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="R36" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Moderate </v>
+      </c>
+      <c r="S36" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T36" s="3">
+        <f t="shared" si="12"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37">
+        <v>69</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="G37">
+        <v>14.6</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="23">
+        <v>45927</v>
+      </c>
+      <c r="K37">
+        <v>6</v>
+      </c>
+      <c r="L37" s="2">
+        <f>IF(G37&gt;12,0%,IF(G37&gt;=6,5%,IF('Forecast Model A - Data'!G106&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q37" s="2">
+        <f t="shared" si="11"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R37" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Moderate </v>
+      </c>
+      <c r="S37" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T37" s="3">
+        <f t="shared" si="12"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38">
+        <v>72</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="G38">
+        <v>3.8</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="23">
+        <v>45930</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38" s="2">
+        <f>IF(G38&gt;12,0%,IF(G38&gt;=6,5%,IF('Forecast Model A - Data'!G107&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="7"/>
+        <v>0.35</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="O38" s="2">
         <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="P38" s="2">
         <f t="shared" si="10"/>
-        <v>0.45</v>
-      </c>
-      <c r="R35" s="3" t="s">
+        <v>0.05</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="11"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="R38" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Strong </v>
+      </c>
+      <c r="S38" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T38" s="3">
+        <f t="shared" si="12"/>
+        <v>7000.0000000000009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39">
+        <v>81</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="G39">
+        <v>4.5</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="23">
+        <v>45930</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39" s="2">
+        <f>IF(G39&gt;12,0%,IF(G39&gt;=6,5%,IF('Forecast Model A - Data'!G108&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="7"/>
+        <v>0.35</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="11"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="R39" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Strong </v>
+      </c>
+      <c r="S39" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T39" s="3">
+        <f t="shared" si="12"/>
+        <v>7000.0000000000009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40">
+        <v>90</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="G40">
+        <v>15.7</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="23">
+        <v>45930</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40" s="2">
+        <f>IF(G40&gt;12,0%,IF(G40&gt;=6,5%,IF('Forecast Model A - Data'!G110&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="7"/>
+        <v>0.35</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" si="11"/>
+        <v>0.65</v>
+      </c>
+      <c r="R40" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Strong </v>
+      </c>
+      <c r="S40" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T40" s="3">
+        <f t="shared" si="12"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>62</v>
       </c>
-      <c r="S35" s="3">
-        <v>10000</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G41">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="23">
+        <v>45991</v>
+      </c>
+      <c r="K41">
+        <v>6</v>
+      </c>
+      <c r="L41" s="2">
+        <f>IF(G41&gt;12,0%,IF(G41&gt;=6,5%,IF('Forecast Model A - Data'!G11&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q41" s="2">
         <f t="shared" si="11"/>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="3" t="s">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="R41" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Weak </v>
+      </c>
+      <c r="S41" s="3">
+        <v>100000</v>
+      </c>
+      <c r="T41" s="3">
+        <f t="shared" si="12"/>
+        <v>30000.000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36">
-        <v>51</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0.42</v>
-      </c>
-      <c r="G36">
-        <v>4.5</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="I36" t="s">
-        <v>10</v>
-      </c>
-      <c r="J36" s="23">
-        <v>45909</v>
-      </c>
-      <c r="K36">
-        <v>5</v>
-      </c>
-      <c r="L36" s="2">
-        <f>IF(G36&gt;12,0%,IF(G36&gt;=6,5%,IF('Forecast Model A - Data'!G105&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="2">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
-      <c r="N36" s="2">
+      <c r="D42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42">
+        <v>37</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G42">
+        <v>12.1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="23">
+        <v>45996</v>
+      </c>
+      <c r="K42">
+        <v>6</v>
+      </c>
+      <c r="L42" s="2">
+        <f>IF(G42&gt;12,0%,IF(G42&gt;=6,5%,IF('Forecast Model A - Data'!G16&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="O36" s="2">
+      <c r="N42" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O42" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="P42" s="2">
         <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q42" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="R42" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Weak </v>
+      </c>
+      <c r="S42" s="3">
+        <v>100000</v>
+      </c>
+      <c r="T42" s="3">
+        <f t="shared" si="12"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43">
+        <v>93</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="G43">
+        <v>5.8</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="23">
+        <v>46002</v>
+      </c>
+      <c r="K43">
+        <v>9</v>
+      </c>
+      <c r="L43" s="2">
+        <f>IF(G43&gt;12,0%,IF(G43&gt;=6,5%,IF('Forecast Model A - Data'!G22&lt;=3,0%,10%)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q43" s="2">
+        <f t="shared" si="11"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="R43" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Weak </v>
+      </c>
+      <c r="S43" s="3">
+        <v>75000</v>
+      </c>
+      <c r="T43" s="3">
+        <f t="shared" si="12"/>
+        <v>26250.000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44">
+        <v>25</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="G44">
+        <v>16.5</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="23">
+        <v>46003</v>
+      </c>
+      <c r="K44">
+        <v>10</v>
+      </c>
+      <c r="L44" s="2">
+        <f>IF(G44&gt;12,0%,IF(G44&gt;=6,5%,IF('Forecast Model A - Data'!G23&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O44" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q44" s="2">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="R44" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Weak </v>
+      </c>
+      <c r="S44" s="3">
+        <v>75000</v>
+      </c>
+      <c r="T44" s="3">
+        <f t="shared" si="12"/>
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45">
+        <v>39</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G45">
+        <v>5.8</v>
+      </c>
+      <c r="H45" s="2">
         <v>0.5</v>
       </c>
-      <c r="R36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S36" s="3">
-        <v>10000</v>
-      </c>
-      <c r="T36" s="3">
+      <c r="I45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="23">
+        <v>46004</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+      <c r="L45" s="2">
+        <f>IF(G45&gt;12,0%,IF(G45&gt;=6,5%,IF('Forecast Model A - Data'!G24&lt;=3,0%,10%)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O45" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q45" s="2">
         <f t="shared" si="11"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37" t="s">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="R45" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Weak </v>
+      </c>
+      <c r="S45" s="3">
+        <v>75000</v>
+      </c>
+      <c r="T45" s="3">
+        <f t="shared" si="12"/>
+        <v>29999.999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37">
-        <v>69</v>
-      </c>
-      <c r="F37" s="5">
+      <c r="D46" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46">
+        <v>74</v>
+      </c>
+      <c r="F46" s="5">
         <v>0.87</v>
       </c>
-      <c r="G37">
-        <v>14.6</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="I37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="23">
-        <v>45927</v>
-      </c>
-      <c r="K37">
-        <v>6</v>
-      </c>
-      <c r="L37" s="2">
-        <f>IF(G37&gt;12,0%,IF(G37&gt;=6,5%,IF('Forecast Model A - Data'!G106&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="2">
+      <c r="G46">
+        <v>0.3</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="23">
+        <v>46005</v>
+      </c>
+      <c r="K46">
+        <v>7</v>
+      </c>
+      <c r="L46" s="2">
+        <f>IF(G46&gt;12,0%,IF(G46&gt;=6,5%,IF('Forecast Model A - Data'!G25&lt;=3,0%,10%)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q46" s="2">
+        <f t="shared" si="11"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="R46" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
-      <c r="N37" s="2">
+        <v xml:space="preserve">Weak </v>
+      </c>
+      <c r="S46" s="3">
+        <v>75000</v>
+      </c>
+      <c r="T46" s="3">
+        <f t="shared" si="12"/>
+        <v>26250.000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47">
+        <v>27</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="G47">
+        <v>0.4</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="23">
+        <v>46012</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47" s="2">
+        <f>IF(G47&gt;12,0%,IF(G47&gt;=6,5%,IF('Forecast Model A - Data'!G32&lt;=3,0%,10%)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="M47" s="2">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="O37" s="2">
+      <c r="N47" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O47" s="2">
         <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="P47" s="2">
         <f t="shared" si="10"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S37" s="3">
-        <v>10000</v>
-      </c>
-      <c r="T37" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="Q47" s="2">
         <f t="shared" si="11"/>
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="R47" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Moderate </v>
+      </c>
+      <c r="S47" s="3">
+        <v>75000</v>
+      </c>
+      <c r="T47" s="3">
+        <f t="shared" si="12"/>
+        <v>41249.999999999993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E48">
+        <v>80</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="G48">
+        <v>16.3</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="23">
+        <v>46015</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48" s="2">
+        <f>IF(G48&gt;12,0%,IF(G48&gt;=6,5%,IF('Forecast Model A - Data'!G35&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+      <c r="P48" s="2">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q48" s="2">
+        <f t="shared" si="11"/>
+        <v>0.35</v>
+      </c>
+      <c r="R48" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Weak </v>
+      </c>
+      <c r="S48" s="3">
+        <v>125000</v>
+      </c>
+      <c r="T48" s="3">
+        <f t="shared" si="12"/>
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49">
+        <v>97</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="G49">
+        <v>19.3</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="23">
+        <v>45930</v>
+      </c>
+      <c r="K49">
+        <v>9</v>
+      </c>
+      <c r="L49" s="2">
+        <f>IF(G49&gt;12,0%,IF(G49&gt;=6,5%,IF('Forecast Model A - Data'!G37&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q49" s="2">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="R49" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Weak </v>
+      </c>
+      <c r="S49" s="3">
+        <v>125000</v>
+      </c>
+      <c r="T49" s="3">
+        <f t="shared" si="12"/>
+        <v>31250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50">
+        <v>47</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="G50">
+        <v>1.5</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I50" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="23">
+        <v>45905</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50" s="2">
+        <f>IF(G50&gt;12,0%,IF(G50&gt;=6,5%,IF('Forecast Model A - Data'!G42&lt;=3,0%,10%)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <f t="shared" si="11"/>
+        <v>0.35</v>
+      </c>
+      <c r="R50" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Weak </v>
+      </c>
+      <c r="S50" s="3">
+        <v>125000</v>
+      </c>
+      <c r="T50" s="3">
+        <f t="shared" si="12"/>
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38">
-        <v>72</v>
-      </c>
-      <c r="F38" s="5">
+      <c r="D51" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51">
+        <v>73</v>
+      </c>
+      <c r="F51" s="5">
         <v>0.87</v>
       </c>
-      <c r="G38">
-        <v>3.8</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="23">
+      <c r="G51">
+        <v>4.2</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="23">
         <v>45930</v>
       </c>
-      <c r="K38">
-        <v>2</v>
-      </c>
-      <c r="L38" s="2">
-        <f>IF(G38&gt;12,0%,IF(G38&gt;=6,5%,IF('Forecast Model A - Data'!G107&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51" s="2">
+        <f>IF(G51&gt;12,0%,IF(G51&gt;=6,5%,IF('Forecast Model A - Data'!G43&lt;=3,0%,10%)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="2">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q51" s="2">
+        <f t="shared" si="11"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="R51" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.35</v>
-      </c>
-      <c r="N38" s="2">
+        <v xml:space="preserve">Weak </v>
+      </c>
+      <c r="S51" s="3">
+        <v>125000</v>
+      </c>
+      <c r="T51" s="3">
+        <f t="shared" si="12"/>
+        <v>43750.000000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52">
+        <v>77</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="G52">
+        <v>19.5</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I52" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="23">
+        <v>45930</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52" s="2">
+        <f>IF(G52&gt;12,0%,IF(G52&gt;=6,5%,IF('Forecast Model A - Data'!G44&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="O38" s="2">
+      <c r="N52" s="2">
         <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" si="10"/>
         <v>0.05</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q52" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="R52" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Weak </v>
+      </c>
+      <c r="S52" s="3">
+        <v>125000</v>
+      </c>
+      <c r="T52" s="3">
+        <f t="shared" si="12"/>
+        <v>49999.999999999993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53">
+        <v>85</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="G53">
+        <v>3.6</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="23">
+        <v>45930</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53" s="2">
+        <f>IF(G53&gt;12,0%,IF(G53&gt;=6,5%,IF('Forecast Model A - Data'!G45&lt;=3,0%,10%)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O53" s="2">
         <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="P53" s="2">
         <f t="shared" si="10"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S38" s="3">
-        <v>10000</v>
-      </c>
-      <c r="T38" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="Q53" s="2">
         <f t="shared" si="11"/>
-        <v>7000.0000000000009</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>142</v>
-      </c>
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39">
-        <v>81</v>
-      </c>
-      <c r="F39" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="G39">
-        <v>4.5</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I39" t="s">
-        <v>10</v>
-      </c>
-      <c r="J39" s="23">
-        <v>45930</v>
-      </c>
-      <c r="K39">
+        <v>0.4</v>
+      </c>
+      <c r="R53" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Weak </v>
+      </c>
+      <c r="S53" s="3">
+        <v>120000</v>
+      </c>
+      <c r="T53" s="3">
+        <f t="shared" si="12"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54">
+        <v>17</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G54">
+        <v>15.6</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="23">
+        <v>45875</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+      <c r="L54" s="2">
+        <f>IF(G54&gt;12,0%,IF(G54&gt;=6,5%,IF('Forecast Model A - Data'!G57&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O54" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q54" s="2">
+        <f t="shared" si="11"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="R54" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Weak </v>
+      </c>
+      <c r="S54" s="3">
+        <v>90000</v>
+      </c>
+      <c r="T54" s="3">
+        <f t="shared" si="12"/>
+        <v>27000.000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55">
+        <v>22</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="G55">
+        <v>5.6</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I55" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="23">
+        <v>45880</v>
+      </c>
+      <c r="K55">
         <v>2</v>
       </c>
-      <c r="L39" s="2">
-        <f>IF(G39&gt;12,0%,IF(G39&gt;=6,5%,IF('Forecast Model A - Data'!G108&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
-        <f t="shared" si="6"/>
-        <v>0.35</v>
-      </c>
-      <c r="N39" s="2">
+      <c r="L55" s="2">
+        <f>IF(G55&gt;12,0%,IF(G55&gt;=6,5%,IF('Forecast Model A - Data'!G60&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
         <f t="shared" si="7"/>
-        <v>0.25</v>
-      </c>
-      <c r="O39" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="N55" s="2">
         <f t="shared" si="8"/>
-        <v>0.05</v>
-      </c>
-      <c r="P39" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O55" s="2">
         <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="P55" s="2">
         <f t="shared" si="10"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S39" s="3">
-        <v>10000</v>
-      </c>
-      <c r="T39" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="Q55" s="2">
         <f t="shared" si="11"/>
-        <v>7000.0000000000009</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>154</v>
-      </c>
-      <c r="B40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
-        <v>157</v>
-      </c>
-      <c r="E40">
-        <v>90</v>
-      </c>
-      <c r="F40" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="G40">
-        <v>15.7</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="I40" t="s">
-        <v>10</v>
-      </c>
-      <c r="J40" s="23">
-        <v>45930</v>
-      </c>
-      <c r="K40">
-        <v>3</v>
-      </c>
-      <c r="L40" s="2">
-        <f>IF(G40&gt;12,0%,IF(G40&gt;=6,5%,IF('Forecast Model A - Data'!G110&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="R55" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.35</v>
-      </c>
-      <c r="N40" s="2">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
-      </c>
-      <c r="O40" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q40" s="2">
-        <f t="shared" si="10"/>
-        <v>0.65</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S40" s="3">
-        <v>10000</v>
-      </c>
-      <c r="T40" s="3">
-        <f t="shared" si="11"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41">
-        <v>10</v>
-      </c>
-      <c r="F41" s="5">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="G41">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="23">
-        <v>45991</v>
-      </c>
-      <c r="K41">
-        <v>6</v>
-      </c>
-      <c r="L41" s="2">
-        <f>IF(G41&gt;12,0%,IF(G41&gt;=6,5%,IF('Forecast Model A - Data'!G11&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="2">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="N41" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O41" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="2">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q41" s="2">
-        <f t="shared" si="10"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S41" s="3">
-        <v>100000</v>
-      </c>
-      <c r="T41" s="3">
-        <f t="shared" si="11"/>
-        <v>30000.000000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E42">
-        <v>37</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G42">
-        <v>12.1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="23">
-        <v>45996</v>
-      </c>
-      <c r="K42">
-        <v>6</v>
-      </c>
-      <c r="L42" s="2">
-        <f>IF(G42&gt;12,0%,IF(G42&gt;=6,5%,IF('Forecast Model A - Data'!G16&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="2">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
-      <c r="N42" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O42" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q42" s="2">
-        <f t="shared" si="10"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S42" s="3">
-        <v>100000</v>
-      </c>
-      <c r="T42" s="3">
-        <f t="shared" si="11"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43">
-        <v>93</v>
-      </c>
-      <c r="F43" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="G43">
-        <v>5.8</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I43" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="23">
-        <v>46002</v>
-      </c>
-      <c r="K43">
-        <v>9</v>
-      </c>
-      <c r="L43" s="2">
-        <f>IF(G43&gt;12,0%,IF(G43&gt;=6,5%,IF('Forecast Model A - Data'!G22&lt;=3,0%,10%)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="M43" s="2">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="N43" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O43" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q43" s="2">
-        <f t="shared" si="10"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S43" s="3">
-        <v>75000</v>
-      </c>
-      <c r="T43" s="3">
-        <f t="shared" si="11"/>
-        <v>26250.000000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E44">
-        <v>25</v>
-      </c>
-      <c r="F44" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="G44">
-        <v>16.5</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I44" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="23">
-        <v>46003</v>
-      </c>
-      <c r="K44">
-        <v>10</v>
-      </c>
-      <c r="L44" s="2">
-        <f>IF(G44&gt;12,0%,IF(G44&gt;=6,5%,IF('Forecast Model A - Data'!G23&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="N44" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O44" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q44" s="2">
-        <f t="shared" si="10"/>
-        <v>0.25</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S44" s="3">
-        <v>75000</v>
-      </c>
-      <c r="T44" s="3">
-        <f t="shared" si="11"/>
-        <v>18750</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E45">
-        <v>39</v>
-      </c>
-      <c r="F45" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G45">
-        <v>5.8</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I45" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="23">
-        <v>46004</v>
-      </c>
-      <c r="K45">
-        <v>5</v>
-      </c>
-      <c r="L45" s="2">
-        <f>IF(G45&gt;12,0%,IF(G45&gt;=6,5%,IF('Forecast Model A - Data'!G24&lt;=3,0%,10%)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="M45" s="2">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-      <c r="N45" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O45" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q45" s="2">
-        <f t="shared" si="10"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S45" s="3">
-        <v>75000</v>
-      </c>
-      <c r="T45" s="3">
-        <f t="shared" si="11"/>
-        <v>29999.999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E46">
-        <v>74</v>
-      </c>
-      <c r="F46" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="G46">
-        <v>0.3</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-      <c r="I46" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="23">
-        <v>46005</v>
-      </c>
-      <c r="K46">
-        <v>7</v>
-      </c>
-      <c r="L46" s="2">
-        <f>IF(G46&gt;12,0%,IF(G46&gt;=6,5%,IF('Forecast Model A - Data'!G25&lt;=3,0%,10%)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="M46" s="2">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="N46" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O46" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q46" s="2">
-        <f t="shared" si="10"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S46" s="3">
-        <v>75000</v>
-      </c>
-      <c r="T46" s="3">
-        <f t="shared" si="11"/>
-        <v>26250.000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E47">
-        <v>27</v>
-      </c>
-      <c r="F47" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="G47">
-        <v>0.4</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="23">
-        <v>46012</v>
-      </c>
-      <c r="K47">
-        <v>2</v>
-      </c>
-      <c r="L47" s="2">
-        <f>IF(G47&gt;12,0%,IF(G47&gt;=6,5%,IF('Forecast Model A - Data'!G32&lt;=3,0%,10%)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="M47" s="2">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
-      <c r="N47" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O47" s="2">
-        <f t="shared" si="8"/>
-        <v>0.05</v>
-      </c>
-      <c r="P47" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q47" s="2">
-        <f t="shared" si="10"/>
-        <v>0.54999999999999993</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S47" s="3">
-        <v>75000</v>
-      </c>
-      <c r="T47" s="3">
-        <f t="shared" si="11"/>
-        <v>41249.999999999993</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E48">
-        <v>80</v>
-      </c>
-      <c r="F48" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="G48">
-        <v>16.3</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="23">
-        <v>46015</v>
-      </c>
-      <c r="K48">
-        <v>2</v>
-      </c>
-      <c r="L48" s="2">
-        <f>IF(G48&gt;12,0%,IF(G48&gt;=6,5%,IF('Forecast Model A - Data'!G35&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="2">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-      <c r="N48" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O48" s="2">
-        <f t="shared" si="8"/>
-        <v>0.05</v>
-      </c>
-      <c r="P48" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q48" s="2">
-        <f t="shared" si="10"/>
-        <v>0.35</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S48" s="3">
-        <v>125000</v>
-      </c>
-      <c r="T48" s="3">
-        <f t="shared" si="11"/>
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E49">
-        <v>97</v>
-      </c>
-      <c r="F49" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="G49">
-        <v>19.3</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I49" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="23">
-        <v>45930</v>
-      </c>
-      <c r="K49">
-        <v>9</v>
-      </c>
-      <c r="L49" s="2">
-        <f>IF(G49&gt;12,0%,IF(G49&gt;=6,5%,IF('Forecast Model A - Data'!G37&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="2">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="N49" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O49" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q49" s="2">
-        <f t="shared" si="10"/>
-        <v>0.25</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S49" s="3">
-        <v>125000</v>
-      </c>
-      <c r="T49" s="3">
-        <f t="shared" si="11"/>
-        <v>31250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50">
-        <v>47</v>
-      </c>
-      <c r="F50" s="5">
-        <v>0.42</v>
-      </c>
-      <c r="G50">
-        <v>1.5</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I50" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" s="23">
-        <v>45905</v>
-      </c>
-      <c r="K50">
-        <v>4</v>
-      </c>
-      <c r="L50" s="2">
-        <f>IF(G50&gt;12,0%,IF(G50&gt;=6,5%,IF('Forecast Model A - Data'!G42&lt;=3,0%,10%)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="M50" s="2">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-      <c r="N50" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O50" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="2">
-        <f t="shared" si="10"/>
-        <v>0.35</v>
-      </c>
-      <c r="R50" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S50" s="3">
-        <v>125000</v>
-      </c>
-      <c r="T50" s="3">
-        <f t="shared" si="11"/>
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E51">
-        <v>73</v>
-      </c>
-      <c r="F51" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="G51">
-        <v>4.2</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I51" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="23">
-        <v>45930</v>
-      </c>
-      <c r="K51">
-        <v>5</v>
-      </c>
-      <c r="L51" s="2">
-        <f>IF(G51&gt;12,0%,IF(G51&gt;=6,5%,IF('Forecast Model A - Data'!G43&lt;=3,0%,10%)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="M51" s="2">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="N51" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O51" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q51" s="2">
-        <f t="shared" si="10"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="R51" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S51" s="3">
-        <v>125000</v>
-      </c>
-      <c r="T51" s="3">
-        <f t="shared" si="11"/>
-        <v>43750.000000000007</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E52">
-        <v>77</v>
-      </c>
-      <c r="F52" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="G52">
-        <v>19.5</v>
-      </c>
-      <c r="H52" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I52" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="23">
-        <v>45930</v>
-      </c>
-      <c r="K52">
-        <v>5</v>
-      </c>
-      <c r="L52" s="2">
-        <f>IF(G52&gt;12,0%,IF(G52&gt;=6,5%,IF('Forecast Model A - Data'!G44&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="2">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
-      <c r="N52" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O52" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q52" s="2">
-        <f t="shared" si="10"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S52" s="3">
-        <v>125000</v>
-      </c>
-      <c r="T52" s="3">
-        <f t="shared" si="11"/>
-        <v>49999.999999999993</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E53">
-        <v>85</v>
-      </c>
-      <c r="F53" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="G53">
-        <v>3.6</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" t="s">
-        <v>8</v>
-      </c>
-      <c r="J53" s="23">
-        <v>45930</v>
-      </c>
-      <c r="K53">
-        <v>2</v>
-      </c>
-      <c r="L53" s="2">
-        <f>IF(G53&gt;12,0%,IF(G53&gt;=6,5%,IF('Forecast Model A - Data'!G45&lt;=3,0%,10%)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="M53" s="2">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="N53" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O53" s="2">
-        <f t="shared" si="8"/>
-        <v>0.05</v>
-      </c>
-      <c r="P53" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q53" s="2">
-        <f t="shared" si="10"/>
-        <v>0.4</v>
-      </c>
-      <c r="R53" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S53" s="3">
-        <v>120000</v>
-      </c>
-      <c r="T53" s="3">
-        <f t="shared" si="11"/>
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" t="s">
-        <v>156</v>
-      </c>
-      <c r="E54">
-        <v>17</v>
-      </c>
-      <c r="F54" s="5">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="G54">
-        <v>15.6</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-      <c r="I54" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="23">
-        <v>45875</v>
-      </c>
-      <c r="K54">
-        <v>5</v>
-      </c>
-      <c r="L54" s="2">
-        <f>IF(G54&gt;12,0%,IF(G54&gt;=6,5%,IF('Forecast Model A - Data'!G57&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="N54" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O54" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="2">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q54" s="2">
-        <f t="shared" si="10"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S54" s="3">
-        <v>90000</v>
-      </c>
-      <c r="T54" s="3">
-        <f t="shared" si="11"/>
-        <v>27000.000000000004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" t="s">
-        <v>156</v>
-      </c>
-      <c r="E55">
-        <v>22</v>
-      </c>
-      <c r="F55" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="G55">
-        <v>5.6</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="I55" t="s">
-        <v>8</v>
-      </c>
-      <c r="J55" s="23">
-        <v>45880</v>
-      </c>
-      <c r="K55">
-        <v>2</v>
-      </c>
-      <c r="L55" s="2">
-        <f>IF(G55&gt;12,0%,IF(G55&gt;=6,5%,IF('Forecast Model A - Data'!G60&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="2">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-      <c r="N55" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O55" s="2">
-        <f t="shared" si="8"/>
-        <v>0.05</v>
-      </c>
-      <c r="P55" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q55" s="2">
-        <f t="shared" si="10"/>
-        <v>0.35</v>
-      </c>
-      <c r="R55" s="3" t="s">
-        <v>62</v>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S55" s="3">
         <v>80000</v>
       </c>
       <c r="T55" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>28000</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -12616,7 +12661,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E56">
         <v>26</v>
@@ -12644,246 +12689,250 @@
         <v>0.05</v>
       </c>
       <c r="M56" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O56" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q56" s="2">
+        <f t="shared" si="11"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="R56" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-      <c r="N56" s="2">
+        <v xml:space="preserve">Weak </v>
+      </c>
+      <c r="S56" s="3">
+        <v>80000</v>
+      </c>
+      <c r="T56" s="3">
+        <f t="shared" si="12"/>
+        <v>28000.000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57">
+        <v>68</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="G57">
+        <v>4.5</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="23">
+        <v>45926</v>
+      </c>
+      <c r="K57">
+        <v>4</v>
+      </c>
+      <c r="L57" s="2">
+        <f>IF(G57&gt;12,0%,IF(G57&gt;=6,5%,IF('Forecast Model A - Data'!G62&lt;=3,0%,10%)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="M57" s="2">
         <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
-      <c r="O56" s="2">
+      <c r="N57" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O57" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q57" s="2">
+        <f t="shared" si="11"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="R57" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Weak </v>
+      </c>
+      <c r="S57" s="3">
+        <v>80000</v>
+      </c>
+      <c r="T57" s="3">
+        <f t="shared" si="12"/>
+        <v>28000.000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58">
+        <v>23</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="G58">
+        <v>5.5</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="23">
+        <v>45881</v>
+      </c>
+      <c r="K58">
+        <v>7</v>
+      </c>
+      <c r="L58" s="2">
+        <f>IF(G58&gt;12,0%,IF(G58&gt;=6,5%,IF('Forecast Model A - Data'!G68&lt;=3,0%,10%)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O58" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q58" s="2">
+        <f t="shared" si="11"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="R58" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Weak </v>
+      </c>
+      <c r="S58" s="3">
+        <v>70000</v>
+      </c>
+      <c r="T58" s="3">
+        <f t="shared" si="12"/>
+        <v>24500.000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59">
+        <v>53</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="G59">
+        <v>5.5</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="23">
+        <v>45996</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59" s="2">
+        <f>IF(G59&gt;12,0%,IF(G59&gt;=6,5%,IF('Forecast Model A - Data'!G75&lt;=3,0%,10%)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O59" s="2">
         <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="P59" s="2">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2">
+        <f t="shared" si="11"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="R56" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S56" s="3">
-        <v>80000</v>
-      </c>
-      <c r="T56" s="3">
-        <f t="shared" si="11"/>
-        <v>28000.000000000004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>156</v>
-      </c>
-      <c r="E57">
-        <v>68</v>
-      </c>
-      <c r="F57" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="G57">
-        <v>4.5</v>
-      </c>
-      <c r="H57" s="2">
-        <v>0</v>
-      </c>
-      <c r="I57" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="23">
-        <v>45926</v>
-      </c>
-      <c r="K57">
-        <v>4</v>
-      </c>
-      <c r="L57" s="2">
-        <f>IF(G57&gt;12,0%,IF(G57&gt;=6,5%,IF('Forecast Model A - Data'!G62&lt;=3,0%,10%)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="M57" s="2">
+      <c r="R59" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="N57" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O57" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q57" s="2">
-        <f t="shared" si="10"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S57" s="3">
-        <v>80000</v>
-      </c>
-      <c r="T57" s="3">
-        <f t="shared" si="11"/>
-        <v>28000.000000000004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" t="s">
-        <v>156</v>
-      </c>
-      <c r="E58">
-        <v>23</v>
-      </c>
-      <c r="F58" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="G58">
-        <v>5.5</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I58" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="23">
-        <v>45881</v>
-      </c>
-      <c r="K58">
-        <v>7</v>
-      </c>
-      <c r="L58" s="2">
-        <f>IF(G58&gt;12,0%,IF(G58&gt;=6,5%,IF('Forecast Model A - Data'!G68&lt;=3,0%,10%)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="M58" s="2">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="N58" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O58" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q58" s="2">
-        <f t="shared" si="10"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S58" s="3">
-        <v>70000</v>
-      </c>
-      <c r="T58" s="3">
-        <f t="shared" si="11"/>
-        <v>24500.000000000004</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>156</v>
-      </c>
-      <c r="E59">
-        <v>53</v>
-      </c>
-      <c r="F59" s="5">
-        <v>0.42</v>
-      </c>
-      <c r="G59">
-        <v>5.5</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="23">
-        <v>45996</v>
-      </c>
-      <c r="K59">
-        <v>2</v>
-      </c>
-      <c r="L59" s="2">
-        <f>IF(G59&gt;12,0%,IF(G59&gt;=6,5%,IF('Forecast Model A - Data'!G75&lt;=3,0%,10%)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="M59" s="2">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="N59" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O59" s="2">
-        <f t="shared" si="8"/>
-        <v>0.05</v>
-      </c>
-      <c r="P59" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q59" s="2">
-        <f t="shared" si="10"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>62</v>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S59" s="3">
         <v>60000</v>
       </c>
       <c r="T59" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21000.000000000004</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
         <v>30</v>
@@ -12892,7 +12941,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E60">
         <v>54</v>
@@ -12920,39 +12969,40 @@
         <v>0.1</v>
       </c>
       <c r="M60" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="N60" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O60" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2">
+        <f t="shared" si="11"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="R60" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="N60" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O60" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="2">
-        <f t="shared" si="10"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>62</v>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S60" s="3">
         <v>50000</v>
       </c>
       <c r="T60" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15000.000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
         <v>30</v>
@@ -12961,7 +13011,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E61">
         <v>57</v>
@@ -12989,39 +13039,40 @@
         <v>0</v>
       </c>
       <c r="M61" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15</v>
+      </c>
+      <c r="N61" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O61" s="2">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="P61" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2">
+        <f t="shared" si="11"/>
+        <v>0.35</v>
+      </c>
+      <c r="R61" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-      <c r="N61" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O61" s="2">
-        <f t="shared" si="8"/>
-        <v>0.1</v>
-      </c>
-      <c r="P61" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="2">
-        <f t="shared" si="10"/>
-        <v>0.35</v>
-      </c>
-      <c r="R61" s="3" t="s">
-        <v>62</v>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S61" s="3">
         <v>50000</v>
       </c>
       <c r="T61" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17500</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B62" t="s">
         <v>30</v>
@@ -13030,7 +13081,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E62">
         <v>59</v>
@@ -13058,39 +13109,40 @@
         <v>0.05</v>
       </c>
       <c r="M62" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="N62" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O62" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="R62" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="N62" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O62" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P62" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q62" s="2">
-        <f t="shared" si="10"/>
-        <v>0.25</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>62</v>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S62" s="3">
         <v>40000</v>
       </c>
       <c r="T62" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10000</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
@@ -13099,7 +13151,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E63">
         <v>41</v>
@@ -13127,39 +13179,40 @@
         <v>0.1</v>
       </c>
       <c r="M63" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15</v>
+      </c>
+      <c r="N63" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O63" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="2">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q63" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="R63" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-      <c r="N63" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O63" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q63" s="2">
-        <f t="shared" si="10"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="R63" s="3" t="s">
-        <v>62</v>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S63" s="3">
         <v>30000</v>
       </c>
       <c r="T63" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11999.999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B64" t="s">
         <v>31</v>
@@ -13168,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E64">
         <v>98</v>
@@ -13196,39 +13249,40 @@
         <v>0</v>
       </c>
       <c r="M64" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="N64" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O64" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="2">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q64" s="2">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="R64" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="N64" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O64" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q64" s="2">
-        <f t="shared" si="10"/>
-        <v>0.25</v>
-      </c>
-      <c r="R64" s="3" t="s">
-        <v>62</v>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S64" s="3">
         <v>30000</v>
       </c>
       <c r="T64" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7500</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
@@ -13237,7 +13291,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E65">
         <v>42</v>
@@ -13265,39 +13319,40 @@
         <v>0.05</v>
       </c>
       <c r="M65" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="N65" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O65" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="2">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q65" s="2">
+        <f t="shared" si="11"/>
+        <v>0.3</v>
+      </c>
+      <c r="R65" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="N65" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="O65" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="2">
-        <f t="shared" si="9"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q65" s="2">
-        <f t="shared" si="10"/>
-        <v>0.3</v>
-      </c>
-      <c r="R65" s="3" t="s">
-        <v>62</v>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S65" s="3">
         <v>20000</v>
       </c>
       <c r="T65" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6000</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B66" t="s">
         <v>31</v>
@@ -13306,7 +13361,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E66">
         <v>91</v>
@@ -13334,39 +13389,40 @@
         <v>0.05</v>
       </c>
       <c r="M66" s="2">
-        <f t="shared" ref="M66:M101" si="12">IF(H66&gt;70%,35%,IF(H66&gt;50%,25%,IF(H66&gt;25%,15%,10%)))</f>
+        <f t="shared" ref="M66:M101" si="13">IF(H66&gt;70%,35%,IF(H66&gt;50%,25%,IF(H66&gt;25%,15%,10%)))</f>
         <v>0.1</v>
       </c>
       <c r="N66" s="2">
-        <f t="shared" ref="N66:N101" si="13">IF(I66="Commit",35%,IF(I66="Probable",25%,IF(I66="Best Case",15%,10%)))</f>
+        <f t="shared" ref="N66:N101" si="14">IF(I66="Commit",35%,IF(I66="Probable",25%,IF(I66="Best Case",15%,10%)))</f>
         <v>0.1</v>
       </c>
       <c r="O66" s="2">
-        <f t="shared" ref="O66:O101" si="14">IF(K66&lt;=1,10%,IF(K66=2,5%,0%))</f>
+        <f t="shared" ref="O66:O101" si="15">IF(K66&lt;=1,10%,IF(K66=2,5%,0%))</f>
         <v>0</v>
       </c>
       <c r="P66" s="2">
-        <f t="shared" ref="P66:P101" si="15">IF(F66&gt;90%,10%,IF(F66&gt;75%,5%,0%))</f>
+        <f t="shared" ref="P66:P101" si="16">IF(F66&gt;90%,10%,IF(F66&gt;75%,5%,0%))</f>
         <v>0.05</v>
       </c>
       <c r="Q66" s="2">
-        <f t="shared" ref="Q66:Q97" si="16">SUM(L66:P66)</f>
+        <f t="shared" ref="Q66:Q97" si="17">SUM(L66:P66)</f>
         <v>0.3</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>62</v>
+      <c r="R66" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S66" s="3">
         <v>20000</v>
       </c>
       <c r="T66" s="3">
-        <f t="shared" ref="T66:T97" si="17">S66*Q66</f>
+        <f t="shared" ref="T66:T97" si="18">S66*Q66</f>
         <v>6000</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
@@ -13375,7 +13431,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E67">
         <v>14</v>
@@ -13403,246 +13459,250 @@
         <v>0.05</v>
       </c>
       <c r="M67" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.1</v>
       </c>
       <c r="N67" s="2">
+        <f t="shared" si="14"/>
+        <v>0.35</v>
+      </c>
+      <c r="O67" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="2">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q67" s="2">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="R67" s="3" t="str">
+        <f t="shared" ref="R67:R101" si="19">IF(Q67&gt;60%,"Strong ",IF(Q67&gt;40%,"Moderate ",IF(Q67&lt;40.1%,"Weak ")))</f>
+        <v xml:space="preserve">Moderate </v>
+      </c>
+      <c r="S67" s="3">
+        <v>100000</v>
+      </c>
+      <c r="T67" s="3">
+        <f t="shared" si="18"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68">
+        <v>12</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" s="23">
+        <v>45995</v>
+      </c>
+      <c r="K68">
+        <v>7</v>
+      </c>
+      <c r="L68" s="2">
+        <f>IF(G68&gt;12,0%,IF(G68&gt;=6,5%,IF('Forecast Model A - Data'!G15&lt;=3,0%,10%)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="M68" s="2">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="N68" s="2">
+        <f t="shared" si="14"/>
+        <v>0.35</v>
+      </c>
+      <c r="O68" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="2">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q68" s="2">
+        <f t="shared" si="17"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="R68" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Strong </v>
+      </c>
+      <c r="S68" s="3">
+        <v>100000</v>
+      </c>
+      <c r="T68" s="3">
+        <f t="shared" si="18"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69">
+        <v>40</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G69">
+        <v>13.2</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I69" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" s="23">
+        <v>45997</v>
+      </c>
+      <c r="K69">
+        <v>7</v>
+      </c>
+      <c r="L69" s="2">
+        <f>IF(G69&gt;12,0%,IF(G69&gt;=6,5%,IF('Forecast Model A - Data'!G17&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="2">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="N69" s="2">
+        <f t="shared" si="14"/>
+        <v>0.35</v>
+      </c>
+      <c r="O69" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q69" s="2">
+        <f t="shared" si="17"/>
+        <v>0.65</v>
+      </c>
+      <c r="R69" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Strong </v>
+      </c>
+      <c r="S69" s="3">
+        <v>100000</v>
+      </c>
+      <c r="T69" s="3">
+        <f t="shared" si="18"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70">
+        <v>38</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G70">
+        <v>4.5</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I70" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="23">
+        <v>46001</v>
+      </c>
+      <c r="K70">
+        <v>8</v>
+      </c>
+      <c r="L70" s="2">
+        <f>IF(G70&gt;12,0%,IF(G70&gt;=6,5%,IF('Forecast Model A - Data'!G21&lt;=3,0%,10%)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="M70" s="2">
         <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
-      <c r="O67" s="2">
+      <c r="N70" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="O70" s="2">
         <f t="shared" si="15"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q67" s="2">
+        <v>0</v>
+      </c>
+      <c r="P70" s="2">
         <f t="shared" si="16"/>
-        <v>0.6</v>
-      </c>
-      <c r="R67" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S67" s="3">
-        <v>100000</v>
-      </c>
-      <c r="T67" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="Q70" s="2">
         <f t="shared" si="17"/>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E68">
-        <v>12</v>
-      </c>
-      <c r="F68" s="5">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="G68">
-        <v>5</v>
-      </c>
-      <c r="H68" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="I68" t="s">
-        <v>11</v>
-      </c>
-      <c r="J68" s="23">
-        <v>45995</v>
-      </c>
-      <c r="K68">
-        <v>7</v>
-      </c>
-      <c r="L68" s="2">
-        <f>IF(G68&gt;12,0%,IF(G68&gt;=6,5%,IF('Forecast Model A - Data'!G15&lt;=3,0%,10%)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="M68" s="2">
-        <f t="shared" si="12"/>
-        <v>0.25</v>
-      </c>
-      <c r="N68" s="2">
-        <f t="shared" si="13"/>
-        <v>0.35</v>
-      </c>
-      <c r="O68" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="2">
-        <f t="shared" si="15"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q68" s="2">
-        <f t="shared" si="16"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="R68" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S68" s="3">
-        <v>100000</v>
-      </c>
-      <c r="T68" s="3">
-        <f t="shared" si="17"/>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E69">
-        <v>40</v>
-      </c>
-      <c r="F69" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G69">
-        <v>13.2</v>
-      </c>
-      <c r="H69" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="I69" t="s">
-        <v>11</v>
-      </c>
-      <c r="J69" s="23">
-        <v>45997</v>
-      </c>
-      <c r="K69">
-        <v>7</v>
-      </c>
-      <c r="L69" s="2">
-        <f>IF(G69&gt;12,0%,IF(G69&gt;=6,5%,IF('Forecast Model A - Data'!G17&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M69" s="2">
-        <f t="shared" si="12"/>
-        <v>0.25</v>
-      </c>
-      <c r="N69" s="2">
-        <f t="shared" si="13"/>
-        <v>0.35</v>
-      </c>
-      <c r="O69" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="2">
-        <f t="shared" si="15"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q69" s="2">
-        <f t="shared" si="16"/>
-        <v>0.65</v>
-      </c>
-      <c r="R69" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S69" s="3">
-        <v>100000</v>
-      </c>
-      <c r="T69" s="3">
-        <f t="shared" si="17"/>
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E70">
-        <v>38</v>
-      </c>
-      <c r="F70" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G70">
-        <v>4.5</v>
-      </c>
-      <c r="H70" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="I70" t="s">
-        <v>11</v>
-      </c>
-      <c r="J70" s="23">
-        <v>46001</v>
-      </c>
-      <c r="K70">
-        <v>8</v>
-      </c>
-      <c r="L70" s="2">
-        <f>IF(G70&gt;12,0%,IF(G70&gt;=6,5%,IF('Forecast Model A - Data'!G21&lt;=3,0%,10%)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="M70" s="2">
-        <f t="shared" si="12"/>
-        <v>0.35</v>
-      </c>
-      <c r="N70" s="2">
-        <f t="shared" si="13"/>
-        <v>0.35</v>
-      </c>
-      <c r="O70" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P70" s="2">
-        <f t="shared" si="15"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q70" s="2">
-        <f t="shared" si="16"/>
         <v>0.85</v>
       </c>
-      <c r="R70" s="3" t="s">
-        <v>60</v>
+      <c r="R70" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S70" s="3">
         <v>75000</v>
       </c>
       <c r="T70" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>63750</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -13651,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E71">
         <v>31</v>
@@ -13679,39 +13739,40 @@
         <v>0.05</v>
       </c>
       <c r="M71" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="N71" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.35</v>
       </c>
       <c r="O71" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P71" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
       <c r="Q71" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="R71" s="3" t="s">
-        <v>62</v>
+      <c r="R71" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S71" s="3">
         <v>75000</v>
       </c>
       <c r="T71" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>45000.000000000007</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
         <v>27</v>
@@ -13720,7 +13781,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E72">
         <v>36</v>
@@ -13748,453 +13809,460 @@
         <v>0.05</v>
       </c>
       <c r="M72" s="2">
-        <f t="shared" si="12"/>
-        <v>0.35</v>
-      </c>
-      <c r="N72" s="2">
         <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
+      <c r="N72" s="2">
+        <f t="shared" si="14"/>
+        <v>0.35</v>
+      </c>
       <c r="O72" s="2">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="P72" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q72" s="2">
+        <f t="shared" si="17"/>
+        <v>0.9</v>
+      </c>
+      <c r="R72" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Strong </v>
+      </c>
+      <c r="S72" s="3">
+        <v>75000</v>
+      </c>
+      <c r="T72" s="3">
+        <f t="shared" si="18"/>
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73">
+        <v>46</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="G73">
+        <v>3.5</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I73" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" s="23">
+        <v>46009</v>
+      </c>
+      <c r="K73" s="4">
+        <v>3</v>
+      </c>
+      <c r="L73" s="2">
+        <f>IF(G73&gt;12,0%,IF(G73&gt;=6,5%,IF('Forecast Model A - Data'!G29&lt;=3,0%,10%)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="M73" s="2">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="N73" s="2">
         <f t="shared" si="14"/>
-        <v>0.1</v>
-      </c>
-      <c r="P72" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="O73" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="2">
+        <f t="shared" si="17"/>
+        <v>0.7</v>
+      </c>
+      <c r="R73" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Strong </v>
+      </c>
+      <c r="S73" s="3">
+        <v>75000</v>
+      </c>
+      <c r="T73" s="3">
+        <f t="shared" si="18"/>
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74">
+        <v>15</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G74">
+        <v>19</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I74" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" s="23">
+        <v>46011</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" s="2">
+        <f>IF(G74&gt;12,0%,IF(G74&gt;=6,5%,IF('Forecast Model A - Data'!G31&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="2">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="N74" s="2">
+        <f t="shared" si="14"/>
+        <v>0.35</v>
+      </c>
+      <c r="O74" s="2">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="P74" s="2">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q74" s="2">
+        <f t="shared" si="17"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="R74" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Strong </v>
+      </c>
+      <c r="S74" s="3">
+        <v>75000</v>
+      </c>
+      <c r="T74" s="3">
+        <f t="shared" si="18"/>
+        <v>59999.999999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75">
+        <v>9</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G75">
+        <v>12.3</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" s="23">
+        <v>45951</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75" s="2">
+        <f>IF(G75&gt;12,0%,IF(G75&gt;=6,5%,IF('Forecast Model A - Data'!G46&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="2">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+      <c r="N75" s="2">
+        <f t="shared" si="14"/>
+        <v>0.35</v>
+      </c>
+      <c r="O75" s="2">
         <f t="shared" si="15"/>
         <v>0.05</v>
       </c>
-      <c r="Q72" s="2">
+      <c r="P75" s="2">
         <f t="shared" si="16"/>
-        <v>0.9</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S72" s="3">
-        <v>75000</v>
-      </c>
-      <c r="T72" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q75" s="2">
         <f t="shared" si="17"/>
-        <v>67500</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E73">
-        <v>46</v>
-      </c>
-      <c r="F73" s="5">
-        <v>0.42</v>
-      </c>
-      <c r="G73">
-        <v>3.5</v>
-      </c>
-      <c r="H73" s="2">
         <v>0.6</v>
       </c>
-      <c r="I73" t="s">
+      <c r="R75" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Moderate </v>
+      </c>
+      <c r="S75" s="3">
+        <v>110000</v>
+      </c>
+      <c r="T75" s="3">
+        <f t="shared" si="18"/>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76">
+        <v>24</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="G76">
+        <v>13.1</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I76" t="s">
         <v>11</v>
       </c>
-      <c r="J73" s="23">
-        <v>46009</v>
-      </c>
-      <c r="K73" s="4">
-        <v>3</v>
-      </c>
-      <c r="L73" s="2">
-        <f>IF(G73&gt;12,0%,IF(G73&gt;=6,5%,IF('Forecast Model A - Data'!G29&lt;=3,0%,10%)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="M73" s="2">
-        <f t="shared" si="12"/>
+      <c r="J76" s="23">
+        <v>45882</v>
+      </c>
+      <c r="K76">
+        <v>7</v>
+      </c>
+      <c r="L76" s="2">
+        <f>IF(G76&gt;12,0%,IF(G76&gt;=6,5%,IF('Forecast Model A - Data'!G47&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="2">
+        <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
-      <c r="N73" s="2">
+      <c r="N76" s="2">
+        <f t="shared" si="14"/>
+        <v>0.35</v>
+      </c>
+      <c r="O76" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q76" s="2">
+        <f t="shared" si="17"/>
+        <v>0.65</v>
+      </c>
+      <c r="R76" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Strong </v>
+      </c>
+      <c r="S76" s="3">
+        <v>110000</v>
+      </c>
+      <c r="T76" s="3">
+        <f t="shared" si="18"/>
+        <v>71500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>153</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G77">
+        <v>5.8</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I77" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" s="23">
+        <v>45951</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77" s="2">
+        <f>IF(G77&gt;12,0%,IF(G77&gt;=6,5%,IF('Forecast Model A - Data'!G56&lt;=3,0%,10%)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="M77" s="2">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="N77" s="2">
+        <f t="shared" si="14"/>
+        <v>0.35</v>
+      </c>
+      <c r="O77" s="2">
+        <f t="shared" si="15"/>
+        <v>0.05</v>
+      </c>
+      <c r="P77" s="2">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q77" s="2">
+        <f t="shared" si="17"/>
+        <v>0.85</v>
+      </c>
+      <c r="R77" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Strong </v>
+      </c>
+      <c r="S77" s="3">
+        <v>90000</v>
+      </c>
+      <c r="T77" s="3">
+        <f t="shared" si="18"/>
+        <v>76500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>153</v>
+      </c>
+      <c r="E78">
+        <v>28</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="G78">
+        <v>19.8</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" s="23">
+        <v>45886</v>
+      </c>
+      <c r="K78">
+        <v>8</v>
+      </c>
+      <c r="L78" s="2">
+        <f>IF(G78&gt;12,0%,IF(G78&gt;=6,5%,IF('Forecast Model A - Data'!G69&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="2">
         <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
-      <c r="O73" s="2">
+      <c r="N78" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P73" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="O78" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q73" s="2">
+      <c r="P78" s="2">
         <f t="shared" si="16"/>
-        <v>0.7</v>
-      </c>
-      <c r="R73" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S73" s="3">
-        <v>75000</v>
-      </c>
-      <c r="T73" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="Q78" s="2">
         <f t="shared" si="17"/>
-        <v>52500</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E74">
-        <v>15</v>
-      </c>
-      <c r="F74" s="5">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="G74">
-        <v>19</v>
-      </c>
-      <c r="H74" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="I74" t="s">
-        <v>11</v>
-      </c>
-      <c r="J74" s="23">
-        <v>46011</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74" s="2">
-        <f>IF(G74&gt;12,0%,IF(G74&gt;=6,5%,IF('Forecast Model A - Data'!G31&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M74" s="2">
-        <f t="shared" si="12"/>
-        <v>0.25</v>
-      </c>
-      <c r="N74" s="2">
-        <f t="shared" si="13"/>
-        <v>0.35</v>
-      </c>
-      <c r="O74" s="2">
-        <f t="shared" si="14"/>
-        <v>0.1</v>
-      </c>
-      <c r="P74" s="2">
-        <f t="shared" si="15"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q74" s="2">
-        <f t="shared" si="16"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="R74" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S74" s="3">
-        <v>75000</v>
-      </c>
-      <c r="T74" s="3">
-        <f t="shared" si="17"/>
-        <v>59999.999999999993</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>100</v>
-      </c>
-      <c r="B75" t="s">
-        <v>25</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E75">
-        <v>9</v>
-      </c>
-      <c r="F75" s="5">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="G75">
-        <v>12.3</v>
-      </c>
-      <c r="H75" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I75" t="s">
-        <v>11</v>
-      </c>
-      <c r="J75" s="23">
-        <v>45951</v>
-      </c>
-      <c r="K75">
-        <v>2</v>
-      </c>
-      <c r="L75" s="2">
-        <f>IF(G75&gt;12,0%,IF(G75&gt;=6,5%,IF('Forecast Model A - Data'!G46&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M75" s="2">
-        <f t="shared" si="12"/>
-        <v>0.1</v>
-      </c>
-      <c r="N75" s="2">
-        <f t="shared" si="13"/>
-        <v>0.35</v>
-      </c>
-      <c r="O75" s="2">
-        <f t="shared" si="14"/>
-        <v>0.05</v>
-      </c>
-      <c r="P75" s="2">
-        <f t="shared" si="15"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q75" s="2">
-        <f t="shared" si="16"/>
-        <v>0.6</v>
-      </c>
-      <c r="R75" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S75" s="3">
-        <v>110000</v>
-      </c>
-      <c r="T75" s="3">
-        <f t="shared" si="17"/>
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>101</v>
-      </c>
-      <c r="B76" t="s">
-        <v>26</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E76">
-        <v>24</v>
-      </c>
-      <c r="F76" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="G76">
-        <v>13.1</v>
-      </c>
-      <c r="H76" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="I76" t="s">
-        <v>11</v>
-      </c>
-      <c r="J76" s="23">
-        <v>45882</v>
-      </c>
-      <c r="K76">
-        <v>7</v>
-      </c>
-      <c r="L76" s="2">
-        <f>IF(G76&gt;12,0%,IF(G76&gt;=6,5%,IF('Forecast Model A - Data'!G47&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M76" s="2">
-        <f t="shared" si="12"/>
-        <v>0.25</v>
-      </c>
-      <c r="N76" s="2">
-        <f t="shared" si="13"/>
-        <v>0.35</v>
-      </c>
-      <c r="O76" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P76" s="2">
-        <f t="shared" si="15"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q76" s="2">
-        <f t="shared" si="16"/>
-        <v>0.65</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S76" s="3">
-        <v>110000</v>
-      </c>
-      <c r="T76" s="3">
-        <f t="shared" si="17"/>
-        <v>71500</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>109</v>
-      </c>
-      <c r="B77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" t="s">
-        <v>156</v>
-      </c>
-      <c r="E77">
-        <v>5</v>
-      </c>
-      <c r="F77" s="5">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="G77">
-        <v>5.8</v>
-      </c>
-      <c r="H77" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I77" t="s">
-        <v>11</v>
-      </c>
-      <c r="J77" s="23">
-        <v>45951</v>
-      </c>
-      <c r="K77">
-        <v>2</v>
-      </c>
-      <c r="L77" s="2">
-        <f>IF(G77&gt;12,0%,IF(G77&gt;=6,5%,IF('Forecast Model A - Data'!G56&lt;=3,0%,10%)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="M77" s="2">
-        <f t="shared" si="12"/>
-        <v>0.25</v>
-      </c>
-      <c r="N77" s="2">
-        <f t="shared" si="13"/>
-        <v>0.35</v>
-      </c>
-      <c r="O77" s="2">
-        <f t="shared" si="14"/>
-        <v>0.05</v>
-      </c>
-      <c r="P77" s="2">
-        <f t="shared" si="15"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q77" s="2">
-        <f t="shared" si="16"/>
-        <v>0.85</v>
-      </c>
-      <c r="R77" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S77" s="3">
-        <v>90000</v>
-      </c>
-      <c r="T77" s="3">
-        <f t="shared" si="17"/>
-        <v>76500</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>120</v>
-      </c>
-      <c r="B78" t="s">
-        <v>26</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" t="s">
-        <v>156</v>
-      </c>
-      <c r="E78">
-        <v>28</v>
-      </c>
-      <c r="F78" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="G78">
-        <v>19.8</v>
-      </c>
-      <c r="H78" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I78" t="s">
-        <v>11</v>
-      </c>
-      <c r="J78" s="23">
-        <v>45886</v>
-      </c>
-      <c r="K78">
-        <v>8</v>
-      </c>
-      <c r="L78" s="2">
-        <f>IF(G78&gt;12,0%,IF(G78&gt;=6,5%,IF('Forecast Model A - Data'!G69&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M78" s="2">
-        <f t="shared" si="12"/>
-        <v>0.35</v>
-      </c>
-      <c r="N78" s="2">
-        <f t="shared" si="13"/>
-        <v>0.35</v>
-      </c>
-      <c r="O78" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P78" s="2">
-        <f t="shared" si="15"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q78" s="2">
-        <f t="shared" si="16"/>
         <v>0.75</v>
       </c>
-      <c r="R78" s="3" t="s">
-        <v>60</v>
+      <c r="R78" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S78" s="3">
         <v>70000</v>
       </c>
       <c r="T78" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>52500</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s">
         <v>27</v>
@@ -14203,7 +14271,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E79">
         <v>43</v>
@@ -14231,108 +14299,110 @@
         <v>0.05</v>
       </c>
       <c r="M79" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
       <c r="N79" s="2">
+        <f t="shared" si="14"/>
+        <v>0.35</v>
+      </c>
+      <c r="O79" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q79" s="2">
+        <f t="shared" si="17"/>
+        <v>0.7</v>
+      </c>
+      <c r="R79" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Strong </v>
+      </c>
+      <c r="S79" s="3">
+        <v>60000</v>
+      </c>
+      <c r="T79" s="3">
+        <f t="shared" si="18"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>153</v>
+      </c>
+      <c r="E80">
+        <v>16</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G80">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I80" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" s="23">
+        <v>45998</v>
+      </c>
+      <c r="K80">
+        <v>9</v>
+      </c>
+      <c r="L80" s="2">
+        <f>IF(G80&gt;12,0%,IF(G80&gt;=6,5%,IF('Forecast Model A - Data'!G77&lt;=3,0%,10%)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="M80" s="2">
         <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
-      <c r="O79" s="2">
+      <c r="N80" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P79" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="O80" s="2">
         <f t="shared" si="15"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q79" s="2">
+        <v>0</v>
+      </c>
+      <c r="P80" s="2">
         <f t="shared" si="16"/>
-        <v>0.7</v>
-      </c>
-      <c r="R79" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S79" s="3">
-        <v>60000</v>
-      </c>
-      <c r="T79" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q80" s="2">
         <f t="shared" si="17"/>
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" t="s">
-        <v>25</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" t="s">
-        <v>156</v>
-      </c>
-      <c r="E80">
-        <v>16</v>
-      </c>
-      <c r="F80" s="5">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="G80">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H80" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="I80" t="s">
-        <v>11</v>
-      </c>
-      <c r="J80" s="23">
-        <v>45998</v>
-      </c>
-      <c r="K80">
-        <v>9</v>
-      </c>
-      <c r="L80" s="2">
-        <f>IF(G80&gt;12,0%,IF(G80&gt;=6,5%,IF('Forecast Model A - Data'!G77&lt;=3,0%,10%)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="M80" s="2">
-        <f t="shared" si="12"/>
-        <v>0.35</v>
-      </c>
-      <c r="N80" s="2">
-        <f t="shared" si="13"/>
-        <v>0.35</v>
-      </c>
-      <c r="O80" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P80" s="2">
-        <f t="shared" si="15"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q80" s="2">
-        <f t="shared" si="16"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="R80" s="3" t="s">
-        <v>61</v>
+      <c r="R80" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S80" s="3">
         <v>50000</v>
       </c>
       <c r="T80" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>44999.999999999993</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B81" t="s">
         <v>27</v>
@@ -14341,7 +14411,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E81">
         <v>34</v>
@@ -14369,246 +14439,250 @@
         <v>0.05</v>
       </c>
       <c r="M81" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="N81" s="2">
+        <f t="shared" si="14"/>
+        <v>0.35</v>
+      </c>
+      <c r="O81" s="2">
+        <f t="shared" si="15"/>
+        <v>0.05</v>
+      </c>
+      <c r="P81" s="2">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q81" s="2">
+        <f t="shared" si="17"/>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="R81" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Strong </v>
+      </c>
+      <c r="S81" s="3">
+        <v>40000</v>
+      </c>
+      <c r="T81" s="3">
+        <f t="shared" si="18"/>
+        <v>26000.000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82">
+        <v>29</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="G82">
+        <v>15.8</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I82" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" s="23">
+        <v>46011</v>
+      </c>
+      <c r="K82">
+        <v>5</v>
+      </c>
+      <c r="L82" s="2">
+        <f>IF(G82&gt;12,0%,IF(G82&gt;=6,5%,IF('Forecast Model A - Data'!G90&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="2">
         <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
-      <c r="O81" s="2">
+      <c r="N82" s="2">
         <f t="shared" si="14"/>
+        <v>0.35</v>
+      </c>
+      <c r="O82" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="2">
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
-      <c r="P81" s="2">
+      <c r="Q82" s="2">
+        <f t="shared" si="17"/>
+        <v>0.75</v>
+      </c>
+      <c r="R82" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Strong </v>
+      </c>
+      <c r="S82" s="3">
+        <v>30000</v>
+      </c>
+      <c r="T82" s="3">
+        <f t="shared" si="18"/>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>154</v>
+      </c>
+      <c r="E83">
+        <v>45</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G83">
+        <v>2.5</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I83" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" s="23">
+        <v>45903</v>
+      </c>
+      <c r="K83">
+        <v>5</v>
+      </c>
+      <c r="L83" s="2">
+        <f>IF(G83&gt;12,0%,IF(G83&gt;=6,5%,IF('Forecast Model A - Data'!G99&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="2">
+        <f t="shared" si="13"/>
+        <v>0.15</v>
+      </c>
+      <c r="N83" s="2">
+        <f t="shared" si="14"/>
+        <v>0.35</v>
+      </c>
+      <c r="O83" s="2">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P83" s="2">
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
-      <c r="Q81" s="2">
-        <f t="shared" si="16"/>
-        <v>0.65000000000000013</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S81" s="3">
-        <v>40000</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="Q83" s="2">
         <f t="shared" si="17"/>
-        <v>26000.000000000004</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>135</v>
-      </c>
-      <c r="B82" t="s">
-        <v>26</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" t="s">
-        <v>157</v>
-      </c>
-      <c r="E82">
-        <v>29</v>
-      </c>
-      <c r="F82" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="G82">
-        <v>15.8</v>
-      </c>
-      <c r="H82" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I82" t="s">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R83" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Moderate </v>
+      </c>
+      <c r="S83" s="3">
+        <v>20000</v>
+      </c>
+      <c r="T83" s="3">
+        <f t="shared" si="18"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G84">
+        <v>4.5</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I84" t="s">
         <v>11</v>
       </c>
-      <c r="J82" s="23">
-        <v>46011</v>
-      </c>
-      <c r="K82">
+      <c r="J84" s="23">
+        <v>45957</v>
+      </c>
+      <c r="K84">
         <v>5</v>
       </c>
-      <c r="L82" s="2">
-        <f>IF(G82&gt;12,0%,IF(G82&gt;=6,5%,IF('Forecast Model A - Data'!G90&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M82" s="2">
-        <f t="shared" si="12"/>
-        <v>0.35</v>
-      </c>
-      <c r="N82" s="2">
+      <c r="L84" s="2">
+        <f>IF(G84&gt;12,0%,IF(G84&gt;=6,5%,IF('Forecast Model A - Data'!G102&lt;=3,0%,10%)))</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="2">
         <f t="shared" si="13"/>
         <v>0.35</v>
       </c>
-      <c r="O82" s="2">
+      <c r="N84" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P82" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="O84" s="2">
         <f t="shared" si="15"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q82" s="2">
+        <v>0</v>
+      </c>
+      <c r="P84" s="2">
         <f t="shared" si="16"/>
-        <v>0.75</v>
-      </c>
-      <c r="R82" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S82" s="3">
-        <v>30000</v>
-      </c>
-      <c r="T82" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q84" s="2">
         <f t="shared" si="17"/>
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>144</v>
-      </c>
-      <c r="B83" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" t="s">
-        <v>157</v>
-      </c>
-      <c r="E83">
-        <v>45</v>
-      </c>
-      <c r="F83" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G83">
-        <v>2.5</v>
-      </c>
-      <c r="H83" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="I83" t="s">
-        <v>11</v>
-      </c>
-      <c r="J83" s="23">
-        <v>45903</v>
-      </c>
-      <c r="K83">
-        <v>5</v>
-      </c>
-      <c r="L83" s="2">
-        <f>IF(G83&gt;12,0%,IF(G83&gt;=6,5%,IF('Forecast Model A - Data'!G99&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M83" s="2">
-        <f t="shared" si="12"/>
-        <v>0.15</v>
-      </c>
-      <c r="N83" s="2">
-        <f t="shared" si="13"/>
-        <v>0.35</v>
-      </c>
-      <c r="O83" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P83" s="2">
-        <f t="shared" si="15"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q83" s="2">
-        <f t="shared" si="16"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S83" s="3">
-        <v>20000</v>
-      </c>
-      <c r="T83" s="3">
-        <f t="shared" si="17"/>
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>147</v>
-      </c>
-      <c r="B84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" t="s">
-        <v>157</v>
-      </c>
-      <c r="E84">
-        <v>2</v>
-      </c>
-      <c r="F84" s="5">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="G84">
-        <v>4.5</v>
-      </c>
-      <c r="H84" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="I84" t="s">
-        <v>11</v>
-      </c>
-      <c r="J84" s="23">
-        <v>45957</v>
-      </c>
-      <c r="K84">
-        <v>5</v>
-      </c>
-      <c r="L84" s="2">
-        <f>IF(G84&gt;12,0%,IF(G84&gt;=6,5%,IF('Forecast Model A - Data'!G102&lt;=3,0%,10%)))</f>
-        <v>0</v>
-      </c>
-      <c r="M84" s="2">
-        <f t="shared" si="12"/>
-        <v>0.35</v>
-      </c>
-      <c r="N84" s="2">
-        <f t="shared" si="13"/>
-        <v>0.35</v>
-      </c>
-      <c r="O84" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P84" s="2">
-        <f t="shared" si="15"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q84" s="2">
-        <f t="shared" si="16"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="R84" s="3" t="s">
-        <v>60</v>
+      <c r="R84" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Strong </v>
       </c>
       <c r="S84" s="3">
         <v>10000</v>
       </c>
       <c r="T84" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7999.9999999999991</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
         <v>27</v>
@@ -14617,7 +14691,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E85">
         <v>44</v>
@@ -14645,39 +14719,40 @@
         <v>0.05</v>
       </c>
       <c r="M85" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="N85" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="O85" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P85" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
       <c r="Q85" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="R85" s="3" t="s">
-        <v>62</v>
+      <c r="R85" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S85" s="3">
         <v>125000</v>
       </c>
       <c r="T85" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>49999.999999999993</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s">
         <v>26</v>
@@ -14686,7 +14761,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E86">
         <v>30</v>
@@ -14714,39 +14789,40 @@
         <v>0.05</v>
       </c>
       <c r="M86" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="N86" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="O86" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P86" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
       <c r="Q86" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="R86" s="3" t="s">
-        <v>62</v>
+      <c r="R86" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S86" s="3">
         <v>110000</v>
       </c>
       <c r="T86" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>43999.999999999993</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
         <v>28</v>
@@ -14755,7 +14831,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E87">
         <v>66</v>
@@ -14783,39 +14859,40 @@
         <v>0.05</v>
       </c>
       <c r="M87" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="N87" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="O87" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P87" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
       <c r="Q87" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="R87" s="3" t="s">
-        <v>62</v>
+      <c r="R87" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S87" s="3">
         <v>110000</v>
       </c>
       <c r="T87" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>43999.999999999993</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
         <v>26</v>
@@ -14824,7 +14901,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E88">
         <v>18</v>
@@ -14852,39 +14929,40 @@
         <v>0</v>
       </c>
       <c r="M88" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="N88" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="O88" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="P88" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
       <c r="Q88" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.45</v>
       </c>
-      <c r="R88" s="3" t="s">
-        <v>62</v>
+      <c r="R88" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S88" s="3">
         <v>90000</v>
       </c>
       <c r="T88" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>40500</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
@@ -14893,7 +14971,7 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E89">
         <v>20</v>
@@ -14921,39 +14999,40 @@
         <v>0.1</v>
       </c>
       <c r="M89" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="N89" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="O89" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P89" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
       <c r="Q89" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.45</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>62</v>
+      <c r="R89" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S89" s="3">
         <v>90000</v>
       </c>
       <c r="T89" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>40500</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B90" t="s">
         <v>31</v>
@@ -14962,7 +15041,7 @@
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E90">
         <v>86</v>
@@ -14990,39 +15069,40 @@
         <v>0.1</v>
       </c>
       <c r="M90" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
       <c r="N90" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="O90" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P90" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
       <c r="Q90" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="R90" s="3" t="s">
-        <v>62</v>
+      <c r="R90" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S90" s="3">
         <v>80000</v>
       </c>
       <c r="T90" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>44000</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B91" t="s">
         <v>31</v>
@@ -15031,7 +15111,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E91">
         <v>94</v>
@@ -15059,39 +15139,40 @@
         <v>0.1</v>
       </c>
       <c r="M91" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="N91" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="O91" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P91" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
       <c r="Q91" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.45</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>62</v>
+      <c r="R91" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S91" s="3">
         <v>80000</v>
       </c>
       <c r="T91" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>36000</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
@@ -15100,7 +15181,7 @@
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E92">
         <v>21</v>
@@ -15128,39 +15209,40 @@
         <v>0.05</v>
       </c>
       <c r="M92" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.1</v>
       </c>
       <c r="N92" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="O92" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="P92" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
       <c r="Q92" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.45</v>
       </c>
-      <c r="R92" s="3" t="s">
-        <v>62</v>
+      <c r="R92" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S92" s="3">
         <v>70000</v>
       </c>
       <c r="T92" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>31500</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B93" t="s">
         <v>27</v>
@@ -15169,7 +15251,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E93">
         <v>32</v>
@@ -15197,39 +15279,40 @@
         <v>0.05</v>
       </c>
       <c r="M93" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="N93" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="O93" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P93" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
       <c r="Q93" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="R93" s="3" t="s">
-        <v>62</v>
+      <c r="R93" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S93" s="3">
         <v>70000</v>
       </c>
       <c r="T93" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27999.999999999996</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B94" t="s">
         <v>25</v>
@@ -15238,7 +15321,7 @@
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E94">
         <v>6</v>
@@ -15266,39 +15349,40 @@
         <v>0</v>
       </c>
       <c r="M94" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
       <c r="N94" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="O94" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P94" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
       <c r="Q94" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>62</v>
+      <c r="R94" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S94" s="3">
         <v>60000</v>
       </c>
       <c r="T94" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30000</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -15307,7 +15391,7 @@
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E95">
         <v>19</v>
@@ -15335,39 +15419,40 @@
         <v>0</v>
       </c>
       <c r="M95" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.1</v>
       </c>
       <c r="N95" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="O95" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P95" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
       <c r="Q95" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.3</v>
       </c>
-      <c r="R95" s="3" t="s">
-        <v>62</v>
+      <c r="R95" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S95" s="3">
         <v>50000</v>
       </c>
       <c r="T95" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>15000</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
         <v>25</v>
@@ -15376,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E96">
         <v>13</v>
@@ -15404,39 +15489,40 @@
         <v>0</v>
       </c>
       <c r="M96" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
       <c r="N96" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="O96" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P96" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
       <c r="Q96" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="R96" s="3" t="s">
-        <v>62</v>
+      <c r="R96" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S96" s="3">
         <v>40000</v>
       </c>
       <c r="T96" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20000</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B97" t="s">
         <v>30</v>
@@ -15445,7 +15531,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E97">
         <v>52</v>
@@ -15473,39 +15559,40 @@
         <v>0.05</v>
       </c>
       <c r="M97" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="N97" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="O97" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P97" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q97" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.35</v>
       </c>
-      <c r="R97" s="3" t="s">
-        <v>62</v>
+      <c r="R97" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S97" s="3">
         <v>40000</v>
       </c>
       <c r="T97" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>14000</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
         <v>31</v>
@@ -15514,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E98">
         <v>92</v>
@@ -15542,39 +15629,40 @@
         <v>0.1</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.1</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="O98" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P98" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
       <c r="Q98" s="2">
-        <f t="shared" ref="Q98:Q101" si="18">SUM(L98:P98)</f>
+        <f t="shared" ref="Q98:Q101" si="20">SUM(L98:P98)</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="R98" s="3" t="s">
-        <v>62</v>
+      <c r="R98" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S98" s="3">
         <v>30000</v>
       </c>
       <c r="T98" s="3">
-        <f t="shared" ref="T98:T101" si="19">S98*Q98</f>
+        <f t="shared" ref="T98:T101" si="21">S98*Q98</f>
         <v>11999.999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B99" t="s">
         <v>25</v>
@@ -15583,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E99">
         <v>7</v>
@@ -15611,39 +15699,40 @@
         <v>0.1</v>
       </c>
       <c r="M99" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.1</v>
       </c>
       <c r="N99" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="O99" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P99" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
       <c r="Q99" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="R99" s="3" t="s">
-        <v>62</v>
+      <c r="R99" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S99" s="3">
         <v>20000</v>
       </c>
       <c r="T99" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9000</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B100" t="s">
         <v>25</v>
@@ -15652,7 +15741,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E100">
         <v>11</v>
@@ -15680,39 +15769,40 @@
         <v>0</v>
       </c>
       <c r="M100" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.1</v>
       </c>
       <c r="N100" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="O100" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P100" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
       <c r="Q100" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.35</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>62</v>
+      <c r="R100" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S100" s="3">
         <v>10000</v>
       </c>
       <c r="T100" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3500</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B101" t="s">
         <v>31</v>
@@ -15721,7 +15811,7 @@
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E101">
         <v>83</v>
@@ -15749,33 +15839,34 @@
         <v>0.05</v>
       </c>
       <c r="M101" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.1</v>
       </c>
       <c r="N101" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="O101" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P101" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
       <c r="Q101" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>62</v>
+      <c r="R101" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Weak </v>
       </c>
       <c r="S101" s="3">
         <v>10000</v>
       </c>
       <c r="T101" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3500.0000000000005</v>
       </c>
     </row>

--- a/CoachHub Case Study Forecast Example.xlsx
+++ b/CoachHub Case Study Forecast Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2798d4224eb76c4d/CoachHub Case Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{155FAA3C-1BA8-6F47-8708-5B234240A8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{452721AF-6F92-6544-9DE0-D636F8D19282}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{155FAA3C-1BA8-6F47-8708-5B234240A8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E47EE50-482C-4F47-9BB0-E9B0AD941DA6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="3" xr2:uid="{AF7D583F-DEB6-4AD6-BD6C-742FF7B868CD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="1" xr2:uid="{AF7D583F-DEB6-4AD6-BD6C-742FF7B868CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecast Model A" sheetId="11" r:id="rId1"/>
@@ -1455,9 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA162ADF-BF2B-DD4D-BB4B-51A2824293D5}">
   <dimension ref="A1:T107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R101"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1571,7 +1569,7 @@
         <v>0.3</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J2" s="23">
         <v>45993</v>
@@ -1589,7 +1587,7 @@
       </c>
       <c r="N2" s="2">
         <f>IF(I2="Commit",20%,IF(I2="Probable",15%,IF(I2="Best Case",5%,0%)))</f>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <f>IF(K2&gt;=4,0%,IF(K2&gt;=3,10%,IF(K2&lt;2,20%,15%)))</f>
@@ -1601,18 +1599,18 @@
       </c>
       <c r="Q2" s="2">
         <f>SUM(L2:P2)</f>
-        <v>0.70000000000000007</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R2" s="3" t="str">
         <f t="shared" ref="R2:R33" si="0">IF(Q2&gt;60%,"Strong ",IF(Q2&gt;40%,"Moderate ",IF(Q2&lt;40.1%,"Weak ")))</f>
-        <v xml:space="preserve">Strong </v>
+        <v xml:space="preserve">Moderate </v>
       </c>
       <c r="S2" s="3">
         <v>100000</v>
       </c>
       <c r="T2" s="3">
         <f t="shared" ref="T2:T33" si="1">S2*Q2</f>
-        <v>70000</v>
+        <v>55000.000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -8780,8 +8778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CCB141-003B-9A4C-9534-239470579EC3}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8896,7 +8894,7 @@
         <v>0.3</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J2" s="23">
         <v>45993</v>
@@ -8914,7 +8912,7 @@
       </c>
       <c r="N2" s="2">
         <f t="shared" ref="N2:N33" si="1">IF(I2="Commit",35%,IF(I2="Probable",25%,IF(I2="Best Case",15%,10%)))</f>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" ref="O2:O33" si="2">IF(K2&lt;=1,10%,IF(K2=2,5%,0%))</f>
@@ -8926,7 +8924,7 @@
       </c>
       <c r="Q2" s="2">
         <f t="shared" ref="Q2:Q33" si="4">SUM(L2:P2)</f>
-        <v>0.60000000000000009</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="R2" s="3" t="str">
         <f>IF(Q2&gt;60%,"Strong ",IF(Q2&gt;40%,"Moderate ",IF(Q2&lt;40.1%,"Weak ")))</f>
@@ -8937,7 +8935,7 @@
       </c>
       <c r="T2" s="3">
         <f t="shared" ref="T2:T33" si="5">S2*Q2</f>
-        <v>60000.000000000007</v>
+        <v>44999.999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">

--- a/CoachHub Case Study Forecast Example.xlsx
+++ b/CoachHub Case Study Forecast Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2798d4224eb76c4d/CoachHub Case Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{155FAA3C-1BA8-6F47-8708-5B234240A8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E47EE50-482C-4F47-9BB0-E9B0AD941DA6}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{155FAA3C-1BA8-6F47-8708-5B234240A8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A1C91C0-5BF7-F146-B4E5-EF24248AFB98}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="1" xr2:uid="{AF7D583F-DEB6-4AD6-BD6C-742FF7B868CD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="3" xr2:uid="{AF7D583F-DEB6-4AD6-BD6C-742FF7B868CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecast Model A" sheetId="11" r:id="rId1"/>
@@ -1455,7 +1455,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA162ADF-BF2B-DD4D-BB4B-51A2824293D5}">
   <dimension ref="A1:T107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1846,7 +1848,7 @@
         <v>13.7</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -1863,7 +1865,7 @@
       </c>
       <c r="M6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="3"/>
@@ -1879,7 +1881,7 @@
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="6"/>
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="R6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1890,7 +1892,7 @@
       </c>
       <c r="T6" s="3">
         <f t="shared" si="1"/>
-        <v>65000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -8778,8 +8780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CCB141-003B-9A4C-9534-239470579EC3}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9171,7 +9173,7 @@
         <v>13.7</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
